--- a/model/Metanproduktion_Arrhenius_v8_30012024.xlsx
+++ b/model/Metanproduktion_Arrhenius_v8_30012024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au277187_uni_au_dk/Documents/Documents/GitHub/AU-BCE-EE/Dalby-2024-KVIK/model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{CE3165A3-CB55-4B9B-B08C-2A32524C647D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21552BF3-109C-423B-AF48-6E74A34D3269}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{CE3165A3-CB55-4B9B-B08C-2A32524C647D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34639744-AC07-4D54-9DFE-C00AE70C64E8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1620" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabel_svin" sheetId="1" r:id="rId1"/>
@@ -6110,11 +6110,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CD154"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="U7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10075,323 +10075,323 @@
       </c>
       <c r="C16" s="4">
         <f>+C132</f>
-        <v>1.7913186325326469</v>
+        <v>1.9614483081284242</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ref="D16:J16" si="173">+D132*D36</f>
-        <v>1.6060838675258065</v>
+        <v>1.7586209552327847</v>
       </c>
       <c r="E16" s="4">
         <f t="shared" si="173"/>
-        <v>0.96365032051548394</v>
+        <v>1.0551725731396708</v>
       </c>
       <c r="F16" s="4">
         <f t="shared" si="173"/>
-        <v>0.80304193376290345</v>
+        <v>0.87931047761639247</v>
       </c>
       <c r="G16" s="4">
         <f t="shared" si="173"/>
-        <v>1.0747911795195881</v>
+        <v>1.1768689848770544</v>
       </c>
       <c r="H16" s="4">
         <f t="shared" si="173"/>
-        <v>0.64487470771175281</v>
+        <v>0.70612139092623272</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="173"/>
-        <v>0.53739558975979418</v>
+        <v>0.5884344924385273</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="173"/>
-        <v>0.53739558975979418</v>
+        <v>0.5884344924385273</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" ref="K16:L16" si="174">+K132</f>
-        <v>2.6768064458763443</v>
+        <v>2.9310349253879746</v>
       </c>
       <c r="L16" s="4">
         <f t="shared" si="174"/>
-        <v>1.9916299228733096</v>
+        <v>2.1807840725212806</v>
       </c>
       <c r="M16" s="4">
         <f t="shared" ref="M16:W16" si="175">+M132</f>
-        <v>2.3503567580022531</v>
+        <v>2.5735808263009892</v>
       </c>
       <c r="N16" s="4">
         <f t="shared" ref="N16:T16" si="176">+N132*N36</f>
-        <v>1.6657718938122339</v>
+        <v>1.8239778247750342</v>
       </c>
       <c r="O16" s="4">
         <f t="shared" si="176"/>
-        <v>0.99946313628734029</v>
+        <v>1.0943866948650205</v>
       </c>
       <c r="P16" s="4">
         <f t="shared" si="176"/>
-        <v>0.83288594690611706</v>
+        <v>0.91198891238751734</v>
       </c>
       <c r="Q16" s="4">
         <f t="shared" si="176"/>
-        <v>1.4102140548013518</v>
+        <v>1.5441484957805935</v>
       </c>
       <c r="R16" s="4">
         <f t="shared" si="176"/>
-        <v>0.84612843288081108</v>
+        <v>0.92648909746835606</v>
       </c>
       <c r="S16" s="4">
         <f t="shared" si="176"/>
-        <v>0.70510702740067599</v>
+        <v>0.77207424789029688</v>
       </c>
       <c r="T16" s="4">
         <f t="shared" si="176"/>
-        <v>0.70510702740067599</v>
+        <v>0.77207424789029688</v>
       </c>
       <c r="U16" s="4">
         <f t="shared" ref="U16:V16" si="177">+U132</f>
-        <v>2.7762864896870565</v>
+        <v>3.039963041291724</v>
       </c>
       <c r="V16" s="4">
         <f t="shared" si="177"/>
-        <v>2.478085225844906</v>
+        <v>2.7134402475116048</v>
       </c>
       <c r="W16" s="4">
         <f t="shared" si="175"/>
-        <v>2.4774310654317739</v>
+        <v>2.7127239585095926</v>
       </c>
       <c r="X16" s="4">
         <f t="shared" ref="X16:AD16" si="178">+X132*X36</f>
-        <v>1.8439833473517486</v>
+        <v>2.0191148303785411</v>
       </c>
       <c r="Y16" s="4">
         <f t="shared" si="178"/>
-        <v>1.1063900084110492</v>
+        <v>1.2114688982271247</v>
       </c>
       <c r="Z16" s="4">
         <f t="shared" si="178"/>
-        <v>0.92199167367587442</v>
+        <v>1.0095574151892708</v>
       </c>
       <c r="AA16" s="4">
         <f t="shared" si="178"/>
-        <v>1.4864586392590644</v>
+        <v>1.6276343751057556</v>
       </c>
       <c r="AB16" s="4">
         <f t="shared" si="178"/>
-        <v>0.8918751835554386</v>
+        <v>0.97658062506345333</v>
       </c>
       <c r="AC16" s="4">
         <f t="shared" si="178"/>
-        <v>0.74322931962953231</v>
+        <v>0.81381718755287791</v>
       </c>
       <c r="AD16" s="4">
         <f t="shared" si="178"/>
-        <v>0.74322931962953231</v>
+        <v>0.81381718755287791</v>
       </c>
       <c r="AE16" s="4">
         <f t="shared" ref="AE16:AF16" si="179">+AE132</f>
-        <v>3.0733055789195811</v>
+        <v>3.3651913839642353</v>
       </c>
       <c r="AF16" s="4">
         <f t="shared" si="179"/>
-        <v>2.6418236255659311</v>
+        <v>2.8927296275670016</v>
       </c>
       <c r="AG16" s="4">
         <f t="shared" ref="AG16:AO16" si="180">+AG132</f>
-        <v>2.6908104161316206</v>
+        <v>2.9463689163739653</v>
       </c>
       <c r="AH16" s="4">
         <f t="shared" ref="AH16:AN16" si="181">+AH132*AH36</f>
-        <v>1.8700592740965256</v>
+        <v>2.047667306452611</v>
       </c>
       <c r="AI16" s="4">
         <f t="shared" si="181"/>
-        <v>1.1220355644579154</v>
+        <v>1.2286003838715664</v>
       </c>
       <c r="AJ16" s="4">
         <f t="shared" si="181"/>
-        <v>0.93502963704826303</v>
+        <v>1.0238336532263057</v>
       </c>
       <c r="AK16" s="4">
         <f t="shared" si="181"/>
-        <v>1.6144862496789723</v>
+        <v>1.7678213498243791</v>
       </c>
       <c r="AL16" s="4">
         <f t="shared" si="181"/>
-        <v>0.96869174980738337</v>
+        <v>1.0606928098946276</v>
       </c>
       <c r="AM16" s="4">
         <f t="shared" si="181"/>
-        <v>0.80724312483948635</v>
+        <v>0.88391067491218966</v>
       </c>
       <c r="AN16" s="4">
         <f t="shared" si="181"/>
-        <v>0.80724312483948635</v>
+        <v>0.88391067491218966</v>
       </c>
       <c r="AO16" s="4">
         <f t="shared" si="180"/>
-        <v>3.1167654568275429</v>
+        <v>3.4127788440876849</v>
       </c>
       <c r="AP16" s="4">
         <f t="shared" ref="AP16" si="182">+AP132</f>
-        <v>2.824949007817477</v>
+        <v>3.0932472600357852</v>
       </c>
       <c r="AQ16" s="4">
         <f t="shared" ref="AQ16:AY16" si="183">+AQ132</f>
-        <v>2.9225679763971693</v>
+        <v>3.2001375459315806</v>
       </c>
       <c r="AR16" s="4">
         <f t="shared" ref="AR16:AX16" si="184">+AR132*AR36</f>
-        <v>1.8965039427589443</v>
+        <v>2.076623545540897</v>
       </c>
       <c r="AS16" s="4">
         <f t="shared" si="184"/>
-        <v>1.1379023656553666</v>
+        <v>1.2459741273245382</v>
       </c>
       <c r="AT16" s="4">
         <f t="shared" si="184"/>
-        <v>0.94825197137947226</v>
+        <v>1.0383117727704487</v>
       </c>
       <c r="AU16" s="4">
         <f t="shared" si="184"/>
-        <v>1.7535407858383014</v>
+        <v>1.9200825275589484</v>
       </c>
       <c r="AV16" s="4">
         <f t="shared" si="184"/>
-        <v>1.0521244715029809</v>
+        <v>1.152049516535369</v>
       </c>
       <c r="AW16" s="4">
         <f t="shared" si="184"/>
-        <v>0.87677039291915093</v>
+        <v>0.9600412637794743</v>
       </c>
       <c r="AX16" s="4">
         <f t="shared" si="184"/>
-        <v>0.87677039291915093</v>
+        <v>0.9600412637794743</v>
       </c>
       <c r="AY16" s="4">
         <f t="shared" si="183"/>
-        <v>3.1608399045982405</v>
+        <v>3.461039242568162</v>
       </c>
       <c r="AZ16" s="4">
         <f t="shared" ref="AZ16" si="185">+AZ132</f>
-        <v>3.020768237341886</v>
+        <v>3.3076643321714232</v>
       </c>
       <c r="BA16" s="4">
         <f t="shared" ref="BA16:BJ16" si="186">+BA132</f>
-        <v>1.7957014542795169</v>
+        <v>1.966247386385134</v>
       </c>
       <c r="BB16" s="4">
         <f t="shared" ref="BB16:BH16" si="187">+BB132*BB36</f>
-        <v>1.5033024574900804</v>
+        <v>1.6460779273424329</v>
       </c>
       <c r="BC16" s="4">
         <f t="shared" si="187"/>
-        <v>0.90198147449404831</v>
+        <v>0.98764675640545974</v>
       </c>
       <c r="BD16" s="4">
         <f t="shared" si="187"/>
-        <v>0.75165122874504042</v>
+        <v>0.82303896367121665</v>
       </c>
       <c r="BE16" s="4">
         <f t="shared" si="187"/>
-        <v>1.0774208725677101</v>
+        <v>1.1797484318310802</v>
       </c>
       <c r="BF16" s="4">
         <f t="shared" si="187"/>
-        <v>0.6464525235406261</v>
+        <v>0.70784905909864815</v>
       </c>
       <c r="BG16" s="4">
         <f t="shared" si="187"/>
-        <v>0.53871043628385518</v>
+        <v>0.58987421591554023</v>
       </c>
       <c r="BH16" s="4">
         <f t="shared" si="187"/>
-        <v>0.53871043628385518</v>
+        <v>0.58987421591554023</v>
       </c>
       <c r="BI16" s="4">
         <f t="shared" ref="BI16" si="188">+BI132</f>
-        <v>1.9928416508824089</v>
+        <v>2.1821108838490897</v>
       </c>
       <c r="BJ16" s="4">
         <f t="shared" si="186"/>
-        <v>1.9355865251809463</v>
+        <v>2.1194179785226734</v>
       </c>
       <c r="BK16" s="4">
         <f t="shared" ref="BK16:BQ16" si="189">+BK132*BK36</f>
-        <v>1.6204096583285774</v>
+        <v>1.7743073315269724</v>
       </c>
       <c r="BL16" s="4">
         <f t="shared" si="189"/>
-        <v>0.97224579499714647</v>
+        <v>1.0645843989161834</v>
       </c>
       <c r="BM16" s="4">
         <f t="shared" si="189"/>
-        <v>0.81020482916428882</v>
+        <v>0.88715366576348642</v>
       </c>
       <c r="BN16" s="4">
         <f t="shared" si="189"/>
-        <v>1.1613519151085678</v>
+        <v>1.271650787113604</v>
       </c>
       <c r="BO16" s="4">
         <f t="shared" si="189"/>
-        <v>0.69681114906514063</v>
+        <v>0.76299047226816241</v>
       </c>
       <c r="BP16" s="4">
         <f t="shared" si="189"/>
-        <v>0.58067595755428403</v>
+        <v>0.63582539355680212</v>
       </c>
       <c r="BQ16" s="4">
         <f t="shared" si="189"/>
-        <v>0.58067595755428403</v>
+        <v>0.63582539355680212</v>
       </c>
       <c r="BR16" s="4">
         <f t="shared" ref="BR16" si="190">+BR132</f>
-        <v>2.7006827638809625</v>
+        <v>2.9571788858782875</v>
       </c>
       <c r="BS16" s="4">
         <f t="shared" ref="BS16" si="191">+BS132</f>
-        <v>2.1178742270557747</v>
+        <v>2.3190183723004587</v>
       </c>
       <c r="BT16" s="4">
         <f t="shared" ref="BT16:CC16" si="192">+BT132</f>
-        <v>2.6574190522697032</v>
+        <v>2.9098062228566999</v>
       </c>
       <c r="BU16" s="4">
         <f t="shared" ref="BU16:CA16" si="193">+BU132*BU36</f>
-        <v>1.9974236823339053</v>
+        <v>2.1871280916618741</v>
       </c>
       <c r="BV16" s="4">
         <f t="shared" si="193"/>
-        <v>1.1984542094003432</v>
+        <v>1.3122768549971244</v>
       </c>
       <c r="BW16" s="4">
         <f t="shared" si="193"/>
-        <v>0.99871184116695289</v>
+        <v>1.0935640458309372</v>
       </c>
       <c r="BX16" s="4">
         <f t="shared" si="193"/>
-        <v>1.5944514313618219</v>
+        <v>1.7458837337140198</v>
       </c>
       <c r="BY16" s="4">
         <f t="shared" si="193"/>
-        <v>0.95667085881709313</v>
+        <v>1.0475302402284119</v>
       </c>
       <c r="BZ16" s="4">
         <f t="shared" si="193"/>
-        <v>0.79722571568091105</v>
+        <v>0.87294186685701014</v>
       </c>
       <c r="CA16" s="4">
         <f t="shared" si="193"/>
-        <v>0.79722571568091105</v>
+        <v>0.87294186685701014</v>
       </c>
       <c r="CB16" s="4">
         <f t="shared" ref="CB16" si="194">+CB132</f>
-        <v>3.3290394705565092</v>
+        <v>3.6452134861031236</v>
       </c>
       <c r="CC16" s="4">
         <f t="shared" si="192"/>
-        <v>3.6719888614881624</v>
+        <v>4.0207343400706295</v>
       </c>
       <c r="CD16" s="4">
         <f t="shared" ref="CD16" si="195">+CD132</f>
-        <v>2.8404674868225372</v>
+        <v>3.110239599553946</v>
       </c>
     </row>
     <row r="17" spans="1:82" x14ac:dyDescent="0.25">
@@ -10400,323 +10400,323 @@
       </c>
       <c r="C17" s="4">
         <f t="shared" ref="C17:J17" si="196">+C15+C16</f>
-        <v>4.0199780098840892</v>
+        <v>4.190107685479866</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" si="196"/>
-        <v>2.372017794477693</v>
+        <v>2.5245548821846713</v>
       </c>
       <c r="E17" s="4">
         <f t="shared" si="196"/>
-        <v>1.7295842474673702</v>
+        <v>1.8211065000915572</v>
       </c>
       <c r="F17" s="4">
         <f t="shared" si="196"/>
-        <v>1.5689758607147897</v>
+        <v>1.6452444045682788</v>
       </c>
       <c r="G17" s="4">
         <f t="shared" si="196"/>
-        <v>3.30345055687103</v>
+        <v>3.4055283622284964</v>
       </c>
       <c r="H17" s="4">
         <f t="shared" si="196"/>
-        <v>2.873534085063195</v>
+        <v>2.9347807682776748</v>
       </c>
       <c r="I17" s="4">
         <f t="shared" si="196"/>
-        <v>2.766054967111236</v>
+        <v>2.8170938697899692</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="196"/>
-        <v>1.2059934029652268</v>
+        <v>1.2570323056439601</v>
       </c>
       <c r="K17" s="4">
         <f t="shared" ref="K17:L17" si="197">+K15+K16</f>
-        <v>3.4427403728282306</v>
+        <v>3.6969688523398609</v>
       </c>
       <c r="L17" s="4">
         <f t="shared" si="197"/>
-        <v>3.8893977645442543</v>
+        <v>4.0785519141922251</v>
       </c>
       <c r="M17" s="4">
         <f t="shared" ref="M17:AA17" si="198">+M15+M16</f>
-        <v>3.606350552899471</v>
+        <v>3.8295746211982067</v>
       </c>
       <c r="N17" s="4">
         <f t="shared" ref="N17:P17" si="199">+N15+N16</f>
-        <v>2.2181780738052645</v>
+        <v>2.3763840047680649</v>
       </c>
       <c r="O17" s="4">
         <f t="shared" si="199"/>
-        <v>1.5518693162803707</v>
+        <v>1.6467928748580509</v>
       </c>
       <c r="P17" s="4">
         <f t="shared" si="199"/>
-        <v>1.3852921268991476</v>
+        <v>1.4643950923805478</v>
       </c>
       <c r="Q17" s="4">
         <f t="shared" si="198"/>
-        <v>2.6662078496985693</v>
+        <v>2.8001422906778113</v>
       </c>
       <c r="R17" s="4">
         <f t="shared" ref="R17:S17" si="200">+R15+R16</f>
-        <v>2.1021222277780289</v>
+        <v>2.1824828923655737</v>
       </c>
       <c r="S17" s="4">
         <f t="shared" si="200"/>
-        <v>1.9611008222978938</v>
+        <v>2.0280680427875146</v>
       </c>
       <c r="T17" s="4">
         <f>+T15+T16</f>
-        <v>1.0819051658698413</v>
+        <v>1.1488723863594623</v>
       </c>
       <c r="U17" s="4">
         <f t="shared" ref="U17:V17" si="201">+U15+U16</f>
-        <v>3.3286926696800871</v>
+        <v>3.5923692212847547</v>
       </c>
       <c r="V17" s="4">
         <f t="shared" si="201"/>
-        <v>3.5230860766964076</v>
+        <v>3.7584410983631065</v>
       </c>
       <c r="W17" s="4">
         <f t="shared" si="198"/>
-        <v>4.1362509439296558</v>
+        <v>4.3715438370074748</v>
       </c>
       <c r="X17" s="4">
         <f t="shared" ref="X17:Z17" si="202">+X15+X16</f>
-        <v>2.5184861037067399</v>
+        <v>2.6936175867335326</v>
       </c>
       <c r="Y17" s="4">
         <f t="shared" si="202"/>
-        <v>1.7808927647660404</v>
+        <v>1.8859716545821161</v>
       </c>
       <c r="Z17" s="4">
         <f t="shared" si="202"/>
-        <v>1.5964944300308659</v>
+        <v>1.684060171544262</v>
       </c>
       <c r="AA17" s="4">
         <f t="shared" si="198"/>
-        <v>3.1452785177569464</v>
+        <v>3.2864542536036376</v>
       </c>
       <c r="AB17" s="4">
         <f t="shared" ref="AB17:AC17" si="203">+AB15+AB16</f>
-        <v>2.5506950620533209</v>
+        <v>2.6354005035613355</v>
       </c>
       <c r="AC17" s="4">
         <f t="shared" si="203"/>
-        <v>2.4020491981274144</v>
+        <v>2.4726370660507602</v>
       </c>
       <c r="AD17" s="4">
         <f>+AD15+AD16</f>
-        <v>1.2408752831788969</v>
+        <v>1.3114631511022425</v>
       </c>
       <c r="AE17" s="4">
         <f t="shared" ref="AE17:AF17" si="204">+AE15+AE16</f>
-        <v>3.7478083352745726</v>
+        <v>4.0396941403192264</v>
       </c>
       <c r="AF17" s="4">
         <f t="shared" si="204"/>
-        <v>4.0290856373817592</v>
+        <v>4.2799916393828301</v>
       </c>
       <c r="AG17" s="4">
         <f t="shared" ref="AG17:AO17" si="205">+AG15+AG16</f>
-        <v>3.9971518051968635</v>
+        <v>4.2527103054392077</v>
       </c>
       <c r="AH17" s="4">
         <f t="shared" ref="AH17:AJ17" si="206">+AH15+AH16</f>
-        <v>2.4727712406413356</v>
+        <v>2.6503792729974212</v>
       </c>
       <c r="AI17" s="4">
         <f t="shared" si="206"/>
-        <v>1.7247475310027256</v>
+        <v>1.8313123504163764</v>
       </c>
       <c r="AJ17" s="4">
         <f t="shared" si="206"/>
-        <v>1.5377416035930731</v>
+        <v>1.6265456197711159</v>
       </c>
       <c r="AK17" s="4">
         <f t="shared" si="205"/>
-        <v>2.9208276387442149</v>
+        <v>3.0741627388896218</v>
       </c>
       <c r="AL17" s="4">
         <f t="shared" ref="AL17:AM17" si="207">+AL15+AL16</f>
-        <v>2.2750331388726259</v>
+        <v>2.3670341989598702</v>
       </c>
       <c r="AM17" s="4">
         <f t="shared" si="207"/>
-        <v>2.1135845139047289</v>
+        <v>2.1902520639774323</v>
       </c>
       <c r="AN17" s="4">
         <f>+AN15+AN16</f>
-        <v>1.1991455415590593</v>
+        <v>1.2758130916317625</v>
       </c>
       <c r="AO17" s="4">
         <f t="shared" si="205"/>
-        <v>3.7194774233723531</v>
+        <v>4.0154908106324951</v>
       </c>
       <c r="AP17" s="4">
         <f t="shared" ref="AP17" si="208">+AP15+AP16</f>
-        <v>3.9097086551772575</v>
+        <v>4.1780069073955657</v>
       </c>
       <c r="AQ17" s="4">
         <f t="shared" ref="AQ17:AY17" si="209">+AQ15+AQ16</f>
-        <v>3.8460721579769293</v>
+        <v>4.1236417275113402</v>
       </c>
       <c r="AR17" s="4">
         <f t="shared" ref="AR17:AT17" si="210">+AR15+AR16</f>
-        <v>2.4264099197745903</v>
+        <v>2.606529522556543</v>
       </c>
       <c r="AS17" s="4">
         <f t="shared" si="210"/>
-        <v>1.6678083426710129</v>
+        <v>1.7758801043401844</v>
       </c>
       <c r="AT17" s="4">
         <f t="shared" si="210"/>
-        <v>1.4781579483951184</v>
+        <v>1.5682177497860947</v>
       </c>
       <c r="AU17" s="4">
         <f t="shared" si="209"/>
-        <v>2.6770449674180612</v>
+        <v>2.8435867091387084</v>
       </c>
       <c r="AV17" s="4">
         <f t="shared" ref="AV17:AW17" si="211">+AV15+AV16</f>
-        <v>1.9756286530827407</v>
+        <v>2.075553698115129</v>
       </c>
       <c r="AW17" s="4">
         <f t="shared" si="211"/>
-        <v>1.8002745744989108</v>
+        <v>1.8835454453592342</v>
       </c>
       <c r="AX17" s="4">
         <f>+AX15+AX16</f>
-        <v>1.1538216473930789</v>
+        <v>1.2370925182534023</v>
       </c>
       <c r="AY17" s="4">
         <f t="shared" si="209"/>
-        <v>3.6907458816138865</v>
+        <v>3.990945219583808</v>
       </c>
       <c r="AZ17" s="4">
         <f t="shared" ref="AZ17" si="212">+AZ15+AZ16</f>
-        <v>3.7820567240750793</v>
+        <v>4.0689528189046165</v>
       </c>
       <c r="BA17" s="4">
         <f t="shared" ref="BA17:BN17" si="213">+BA15+BA16</f>
-        <v>3.9795031996815786</v>
+        <v>4.1500491317871955</v>
       </c>
       <c r="BB17" s="4">
         <f t="shared" ref="BB17:BD17" si="214">+BB15+BB16</f>
-        <v>2.5145907330377248</v>
+        <v>2.6573662028900777</v>
       </c>
       <c r="BC17" s="4">
         <f t="shared" si="214"/>
-        <v>1.9132697500416929</v>
+        <v>1.9989350319531045</v>
       </c>
       <c r="BD17" s="4">
         <f t="shared" si="214"/>
-        <v>1.7629395042926852</v>
+        <v>1.8343272392188612</v>
       </c>
       <c r="BE17" s="4">
         <f t="shared" si="213"/>
-        <v>3.2612226179697719</v>
+        <v>3.363550177233142</v>
       </c>
       <c r="BF17" s="4">
         <f t="shared" ref="BF17:BG17" si="215">+BF15+BF16</f>
-        <v>2.8302542689426877</v>
+        <v>2.8916508045007099</v>
       </c>
       <c r="BG17" s="4">
         <f t="shared" si="215"/>
-        <v>2.722512181685917</v>
+        <v>2.7736759613176019</v>
       </c>
       <c r="BH17" s="4">
         <f>+BH15+BH16</f>
-        <v>1.1938509599044738</v>
+        <v>1.2450147395361588</v>
       </c>
       <c r="BI17" s="4">
         <f t="shared" ref="BI17" si="216">+BI15+BI16</f>
-        <v>3.8509901478462605</v>
+        <v>4.040259380812941</v>
       </c>
       <c r="BJ17" s="4">
         <f t="shared" si="213"/>
-        <v>3.8883139968831535</v>
+        <v>4.0721454502248804</v>
       </c>
       <c r="BK17" s="4">
         <f t="shared" ref="BK17:BM17" si="217">+BK15+BK16</f>
-        <v>2.3092849081401763</v>
+        <v>2.4631825813385708</v>
       </c>
       <c r="BL17" s="4">
         <f t="shared" si="217"/>
-        <v>1.6611210448087452</v>
+        <v>1.753459648727782</v>
       </c>
       <c r="BM17" s="4">
         <f t="shared" si="217"/>
-        <v>1.4990800789758874</v>
+        <v>1.5760289155750851</v>
       </c>
       <c r="BN17" s="4">
         <f t="shared" si="213"/>
-        <v>3.1140793868107748</v>
+        <v>3.2243782588158112</v>
       </c>
       <c r="BO17" s="4">
         <f t="shared" ref="BO17:BP17" si="218">+BO15+BO16</f>
-        <v>2.6495386207673479</v>
+        <v>2.7157179439703696</v>
       </c>
       <c r="BP17" s="4">
         <f t="shared" si="218"/>
-        <v>2.5334034292564911</v>
+        <v>2.5885528652590093</v>
       </c>
       <c r="BQ17" s="4">
         <f>+BQ15+BQ16</f>
-        <v>1.1664941990649462</v>
+        <v>1.2216436350674642</v>
       </c>
       <c r="BR17" s="4">
         <f t="shared" ref="BR17" si="219">+BR15+BR16</f>
-        <v>3.3895580136925609</v>
+        <v>3.6460541356898863</v>
       </c>
       <c r="BS17" s="4">
         <f t="shared" ref="BS17" si="220">+BS15+BS16</f>
-        <v>3.7694830872885499</v>
+        <v>3.9706272325332339</v>
       </c>
       <c r="BT17" s="4">
         <f t="shared" ref="BT17:CC17" si="221">+BT15+BT16</f>
-        <v>4.5145463951693996</v>
+        <v>4.7669335657563963</v>
       </c>
       <c r="BU17" s="4">
         <f t="shared" ref="BU17:BW17" si="222">+BU15+BU16</f>
-        <v>2.7451102581986788</v>
+        <v>2.9348146675266475</v>
       </c>
       <c r="BV17" s="4">
         <f t="shared" si="222"/>
-        <v>1.9461407852651167</v>
+        <v>2.0599634308618979</v>
       </c>
       <c r="BW17" s="4">
         <f t="shared" si="222"/>
-        <v>1.7463984170317266</v>
+        <v>1.841250621695711</v>
       </c>
       <c r="BX17" s="4">
         <f t="shared" si="221"/>
-        <v>3.451578774261518</v>
+        <v>3.6030110766137158</v>
       </c>
       <c r="BY17" s="4">
         <f t="shared" ref="BY17:BZ17" si="223">+BY15+BY16</f>
-        <v>2.8137982017167893</v>
+        <v>2.9046575831281078</v>
       </c>
       <c r="BZ17" s="4">
         <f t="shared" si="223"/>
-        <v>2.6543530585806074</v>
+        <v>2.7300692097567065</v>
       </c>
       <c r="CA17" s="4">
         <f>+CA15+CA16</f>
-        <v>1.3543639185508201</v>
+        <v>1.4300800697269191</v>
       </c>
       <c r="CB17" s="4">
         <f t="shared" ref="CB17" si="224">+CB15+CB16</f>
-        <v>4.0767260464212827</v>
+        <v>4.3929000619678975</v>
       </c>
       <c r="CC17" s="4">
         <f t="shared" si="221"/>
-        <v>3.8531619351280937</v>
+        <v>4.2019074137105603</v>
       </c>
       <c r="CD17" s="4">
         <f t="shared" ref="CD17" si="225">+CD15+CD16</f>
-        <v>4.3952195741383351</v>
+        <v>4.6649916868697439</v>
       </c>
     </row>
     <row r="18" spans="1:82" x14ac:dyDescent="0.25">
@@ -13175,323 +13175,323 @@
       </c>
       <c r="C27" s="4">
         <f t="shared" ref="C27:CD27" si="408">+C16*C$94/C$89</f>
-        <v>2.0917220592066523</v>
+        <v>2.2903824141576985</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" ref="D27:F27" si="409">+D16*D$94/D$89</f>
-        <v>1.8754234973204504</v>
+        <v>2.0535409943470504</v>
       </c>
       <c r="E27" s="4">
         <f t="shared" si="409"/>
-        <v>1.1252540983922703</v>
+        <v>1.2321245966082301</v>
       </c>
       <c r="F27" s="4">
         <f t="shared" si="409"/>
-        <v>0.93771174866022555</v>
+        <v>1.0267704971735252</v>
       </c>
       <c r="G27" s="4">
         <f t="shared" si="408"/>
-        <v>1.2550332355239913</v>
+        <v>1.3742294484946189</v>
       </c>
       <c r="H27" s="4">
         <f t="shared" ref="H27:I27" si="410">+H16*H$94/H$89</f>
-        <v>0.75301994131439465</v>
+        <v>0.82453766909677151</v>
       </c>
       <c r="I27" s="4">
         <f t="shared" si="410"/>
-        <v>0.62751661776199574</v>
+        <v>0.68711472424730968</v>
       </c>
       <c r="J27" s="4">
         <f t="shared" si="408"/>
-        <v>0.62751661776199574</v>
+        <v>0.68711472424730968</v>
       </c>
       <c r="K27" s="4">
         <f t="shared" si="408"/>
-        <v>3.1257058288674178</v>
+        <v>3.4225683239117499</v>
       </c>
       <c r="L27" s="4">
         <f t="shared" si="408"/>
-        <v>2.325625473766304</v>
+        <v>2.5465006995488539</v>
       </c>
       <c r="M27" s="4">
         <f t="shared" si="408"/>
-        <v>2.7707875839870368</v>
+        <v>3.0339418795140394</v>
       </c>
       <c r="N27" s="4">
         <f t="shared" ref="N27:P27" si="411">+N16*N$94/N$89</f>
-        <v>1.9637444679047684</v>
+        <v>2.1502502091001725</v>
       </c>
       <c r="O27" s="4">
         <f t="shared" si="411"/>
-        <v>1.1782466807428609</v>
+        <v>1.2901501254601033</v>
       </c>
       <c r="P27" s="4">
         <f t="shared" si="411"/>
-        <v>0.98187223395238421</v>
+        <v>1.0751251045500865</v>
       </c>
       <c r="Q27" s="4">
         <f t="shared" si="408"/>
-        <v>1.6624725503922222</v>
+        <v>1.8203651277084238</v>
       </c>
       <c r="R27" s="4">
         <f t="shared" ref="R27:S27" si="412">+R16*R$94/R$89</f>
-        <v>0.99748353023533332</v>
+        <v>1.0922190766250541</v>
       </c>
       <c r="S27" s="4">
         <f t="shared" si="412"/>
-        <v>0.8312362751961111</v>
+        <v>0.91018256385421192</v>
       </c>
       <c r="T27" s="4">
         <f t="shared" si="408"/>
-        <v>0.8312362751961111</v>
+        <v>0.91018256385421192</v>
       </c>
       <c r="U27" s="4">
         <f t="shared" si="408"/>
-        <v>3.2729074465079475</v>
+        <v>3.583750348500288</v>
       </c>
       <c r="V27" s="4">
         <f t="shared" si="408"/>
-        <v>2.9213640663083522</v>
+        <v>3.1988192950274916</v>
       </c>
       <c r="W27" s="4">
         <f t="shared" si="408"/>
-        <v>2.8690781491366746</v>
+        <v>3.1415675465597541</v>
       </c>
       <c r="X27" s="4">
         <f t="shared" ref="X27:Z27" si="413">+X16*X$94/X$89</f>
-        <v>2.1354912364985439</v>
+        <v>2.3383085492339442</v>
       </c>
       <c r="Y27" s="4">
         <f t="shared" si="413"/>
-        <v>1.2812947418991265</v>
+        <v>1.4029851295403664</v>
       </c>
       <c r="Z27" s="4">
         <f t="shared" si="413"/>
-        <v>1.0677456182492722</v>
+        <v>1.1691542746169723</v>
       </c>
       <c r="AA27" s="4">
         <f t="shared" si="408"/>
-        <v>1.721446889482005</v>
+        <v>1.8849405279358524</v>
       </c>
       <c r="AB27" s="4">
         <f t="shared" ref="AB27:AC27" si="414">+AB16*AB$94/AB$89</f>
-        <v>1.0328681336892027</v>
+        <v>1.1309643167615113</v>
       </c>
       <c r="AC27" s="4">
         <f t="shared" si="414"/>
-        <v>0.8607234447410026</v>
+        <v>0.94247026396792632</v>
       </c>
       <c r="AD27" s="4">
         <f t="shared" si="408"/>
-        <v>0.8607234447410026</v>
+        <v>0.94247026396792632</v>
       </c>
       <c r="AE27" s="4">
         <f t="shared" si="408"/>
-        <v>3.5591520608309071</v>
+        <v>3.8971809153899066</v>
       </c>
       <c r="AF27" s="4">
         <f t="shared" si="408"/>
-        <v>3.0594588659778696</v>
+        <v>3.3500295857339224</v>
       </c>
       <c r="AG27" s="4">
         <f t="shared" si="408"/>
-        <v>3.1161897806618102</v>
+        <v>3.412148493338913</v>
       </c>
       <c r="AH27" s="4">
         <f t="shared" ref="AH27:AJ27" si="415">+AH16*AH$94/AH$89</f>
-        <v>2.1656894013176688</v>
+        <v>2.3713747710759567</v>
       </c>
       <c r="AI27" s="4">
         <f t="shared" si="415"/>
-        <v>1.2994136407906014</v>
+        <v>1.422824862645574</v>
       </c>
       <c r="AJ27" s="4">
         <f t="shared" si="415"/>
-        <v>1.0828447006588346</v>
+        <v>1.1856873855379786</v>
       </c>
       <c r="AK27" s="4">
         <f t="shared" si="408"/>
-        <v>1.8697138683970862</v>
+        <v>2.0472890960033481</v>
       </c>
       <c r="AL27" s="4">
         <f t="shared" ref="AL27:AM27" si="416">+AL16*AL$94/AL$89</f>
-        <v>1.1218283210382518</v>
+        <v>1.2283734576020089</v>
       </c>
       <c r="AM27" s="4">
         <f t="shared" si="416"/>
-        <v>0.93485693419854343</v>
+        <v>1.023644548001674</v>
       </c>
       <c r="AN27" s="4">
         <f t="shared" si="408"/>
-        <v>0.93485693419854343</v>
+        <v>1.023644548001674</v>
       </c>
       <c r="AO27" s="4">
         <f t="shared" si="408"/>
-        <v>3.6094823355294481</v>
+        <v>3.9522912851265946</v>
       </c>
       <c r="AP27" s="4">
         <f t="shared" si="408"/>
-        <v>3.2715338012207775</v>
+        <v>3.5822462418742775</v>
       </c>
       <c r="AQ27" s="4">
         <f t="shared" si="408"/>
-        <v>3.3845849587691075</v>
+        <v>3.7060343818946948</v>
       </c>
       <c r="AR27" s="4">
         <f t="shared" ref="AR27:AT27" si="417">+AR16*AR$94/AR$89</f>
-        <v>2.1963146009767689</v>
+        <v>2.4049085851984096</v>
       </c>
       <c r="AS27" s="4">
         <f t="shared" si="417"/>
-        <v>1.3177887605860612</v>
+        <v>1.4429451511190456</v>
       </c>
       <c r="AT27" s="4">
         <f t="shared" si="417"/>
-        <v>1.0981573004883847</v>
+        <v>1.202454292599205</v>
       </c>
       <c r="AU27" s="4">
         <f t="shared" si="408"/>
-        <v>2.0307509752614643</v>
+        <v>2.2236206291368168</v>
       </c>
       <c r="AV27" s="4">
         <f t="shared" ref="AV27:AW27" si="418">+AV16*AV$94/AV$89</f>
-        <v>1.2184505851568788</v>
+        <v>1.3341723774820902</v>
       </c>
       <c r="AW27" s="4">
         <f t="shared" si="418"/>
-        <v>1.0153754876307324</v>
+        <v>1.1118103145684084</v>
       </c>
       <c r="AX27" s="4">
         <f t="shared" si="408"/>
-        <v>1.0153754876307324</v>
+        <v>1.1118103145684084</v>
       </c>
       <c r="AY27" s="4">
         <f t="shared" si="408"/>
-        <v>3.660524334961281</v>
+        <v>4.0081809753306823</v>
       </c>
       <c r="AZ27" s="4">
         <f t="shared" si="408"/>
-        <v>3.4983093028476393</v>
+        <v>3.8305596440310423</v>
       </c>
       <c r="BA27" s="4">
         <f t="shared" si="408"/>
-        <v>2.2200105293085808</v>
+        <v>2.4308550235884643</v>
       </c>
       <c r="BB27" s="4">
         <f t="shared" ref="BB27:BD27" si="419">+BB16*BB$94/BB$89</f>
-        <v>1.8585201211537006</v>
+        <v>2.0350322276866746</v>
       </c>
       <c r="BC27" s="4">
         <f t="shared" si="419"/>
-        <v>1.1151120726922203</v>
+        <v>1.2210193366120046</v>
       </c>
       <c r="BD27" s="4">
         <f t="shared" si="419"/>
-        <v>0.9292600605768504</v>
+        <v>1.0175161138433375</v>
       </c>
       <c r="BE27" s="4">
         <f t="shared" si="408"/>
-        <v>1.3320063175851486</v>
+        <v>1.4585130141530787</v>
       </c>
       <c r="BF27" s="4">
         <f t="shared" ref="BF27:BG27" si="420">+BF16*BF$94/BF$89</f>
-        <v>0.79920379055108914</v>
+        <v>0.87510780849184711</v>
       </c>
       <c r="BG27" s="4">
         <f t="shared" si="420"/>
-        <v>0.66600315879257443</v>
+        <v>0.72925650707653944</v>
       </c>
       <c r="BH27" s="4">
         <f t="shared" si="408"/>
-        <v>0.66600315879257443</v>
+        <v>0.72925650707653944</v>
       </c>
       <c r="BI27" s="4">
         <f t="shared" si="408"/>
-        <v>2.4637332879917508</v>
+        <v>2.6977252408627681</v>
       </c>
       <c r="BJ27" s="4">
         <f t="shared" si="408"/>
-        <v>2.3929492600503512</v>
+        <v>2.6202185319352354</v>
       </c>
       <c r="BK27" s="4">
         <f t="shared" ref="BK27:BM27" si="421">+BK16*BK$94/BK$89</f>
-        <v>2.0032987636723303</v>
+        <v>2.1935611561888018</v>
       </c>
       <c r="BL27" s="4">
         <f t="shared" si="421"/>
-        <v>1.2019792582033983</v>
+        <v>1.3161366937132808</v>
       </c>
       <c r="BM27" s="4">
         <f t="shared" si="421"/>
-        <v>1.0016493818361654</v>
+        <v>1.0967805780944011</v>
       </c>
       <c r="BN27" s="4">
         <f t="shared" si="408"/>
-        <v>1.4357695560302106</v>
+        <v>1.5721311191611409</v>
       </c>
       <c r="BO27" s="4">
         <f t="shared" ref="BO27:BP27" si="422">+BO16*BO$94/BO$89</f>
-        <v>0.86146173361812639</v>
+        <v>0.94327867149668465</v>
       </c>
       <c r="BP27" s="4">
         <f t="shared" si="422"/>
-        <v>0.71788477801510553</v>
+        <v>0.78606555958057067</v>
       </c>
       <c r="BQ27" s="4">
         <f t="shared" si="408"/>
-        <v>0.71788477801510553</v>
+        <v>0.78606555958057067</v>
       </c>
       <c r="BR27" s="4">
         <f t="shared" si="408"/>
-        <v>3.3388312727872176</v>
+        <v>3.6559352603146698</v>
       </c>
       <c r="BS27" s="4">
         <f t="shared" si="408"/>
-        <v>2.6183100050456551</v>
+        <v>2.866982811590292</v>
       </c>
       <c r="BT27" s="4">
         <f t="shared" si="408"/>
-        <v>2.7085261015243809</v>
+        <v>2.9657671409610877</v>
       </c>
       <c r="BU27" s="4">
         <f t="shared" ref="BU27:BW27" si="423">+BU16*BU$94/BU$89</f>
-        <v>2.035837808411729</v>
+        <v>2.2291905819610172</v>
       </c>
       <c r="BV27" s="4">
         <f t="shared" si="423"/>
-        <v>1.2215026850470372</v>
+        <v>1.3375143491766104</v>
       </c>
       <c r="BW27" s="4">
         <f t="shared" si="423"/>
-        <v>1.0179189042058647</v>
+        <v>1.1145952909805088</v>
       </c>
       <c r="BX27" s="4">
         <f t="shared" si="408"/>
-        <v>1.6251156609146284</v>
+        <v>1.7794602845766525</v>
       </c>
       <c r="BY27" s="4">
         <f t="shared" ref="BY27:BZ27" si="424">+BY16*BY$94/BY$89</f>
-        <v>0.97506939654877711</v>
+        <v>1.0676761707459914</v>
       </c>
       <c r="BZ27" s="4">
         <f t="shared" si="424"/>
-        <v>0.81255783045731433</v>
+        <v>0.88973014228832659</v>
       </c>
       <c r="CA27" s="4">
         <f t="shared" si="408"/>
-        <v>0.81255783045731433</v>
+        <v>0.88973014228832659</v>
       </c>
       <c r="CB27" s="4">
         <f t="shared" si="408"/>
-        <v>3.3930630140195488</v>
+        <v>3.7153176366016956</v>
       </c>
       <c r="CC27" s="4">
         <f t="shared" si="408"/>
-        <v>3.7426079516337003</v>
+        <v>4.0980604463098604</v>
       </c>
       <c r="CD27" s="4">
         <f t="shared" si="408"/>
-        <v>2.8950948936785852</v>
+        <v>3.1700552196280509</v>
       </c>
     </row>
     <row r="28" spans="1:82" x14ac:dyDescent="0.25">
@@ -13500,323 +13500,323 @@
       </c>
       <c r="C28" s="4">
         <f t="shared" ref="C28:CD28" si="425">+C17*C$94/C$89</f>
-        <v>4.6941267332834249</v>
+        <v>4.8927870882344715</v>
       </c>
       <c r="D28" s="4">
         <f t="shared" ref="D28:F28" si="426">+D17*D$94/D$89</f>
-        <v>2.76980424109404</v>
+        <v>2.9479217381206393</v>
       </c>
       <c r="E28" s="4">
         <f t="shared" si="426"/>
-        <v>2.0196348421658592</v>
+        <v>2.126505340381819</v>
       </c>
       <c r="F28" s="4">
         <f t="shared" si="426"/>
-        <v>1.8320924924338144</v>
+        <v>1.9211512409471141</v>
       </c>
       <c r="G28" s="4">
         <f t="shared" si="425"/>
-        <v>3.8574379096007636</v>
+        <v>3.9766341225713919</v>
       </c>
       <c r="H28" s="4">
         <f t="shared" ref="H28:I28" si="427">+H17*H$94/H$89</f>
-        <v>3.355424615391168</v>
+        <v>3.4269423431735446</v>
       </c>
       <c r="I28" s="4">
         <f t="shared" si="427"/>
-        <v>3.2299212918387683</v>
+        <v>3.2895193983240825</v>
       </c>
       <c r="J28" s="4">
         <f t="shared" si="425"/>
-        <v>1.4082380199850277</v>
+        <v>1.4678361264703417</v>
       </c>
       <c r="K28" s="4">
         <f t="shared" si="425"/>
-        <v>4.0200865726410067</v>
+        <v>4.3169490676853393</v>
       </c>
       <c r="L28" s="4">
         <f t="shared" si="425"/>
-        <v>4.5416482324107053</v>
+        <v>4.7625234581932547</v>
       </c>
       <c r="M28" s="4">
         <f t="shared" si="425"/>
-        <v>4.2514530194011773</v>
+        <v>4.5146073149281785</v>
       </c>
       <c r="N28" s="4">
         <f t="shared" ref="N28:P28" si="428">+N17*N$94/N$89</f>
-        <v>2.6149648324860886</v>
+        <v>2.8014705736814931</v>
       </c>
       <c r="O28" s="4">
         <f t="shared" si="428"/>
-        <v>1.8294670453241813</v>
+        <v>1.9413704900414237</v>
       </c>
       <c r="P28" s="4">
         <f t="shared" si="428"/>
-        <v>1.6330925985337046</v>
+        <v>1.7263454691314066</v>
       </c>
       <c r="Q28" s="4">
         <f t="shared" si="425"/>
-        <v>3.1431379858063617</v>
+        <v>3.3010305631225632</v>
       </c>
       <c r="R28" s="4">
         <f t="shared" ref="R28:S28" si="429">+R17*R$94/R$89</f>
-        <v>2.4781489656494733</v>
+        <v>2.5728845120391939</v>
       </c>
       <c r="S28" s="4">
         <f t="shared" si="429"/>
-        <v>2.3119017106102513</v>
+        <v>2.390847999268352</v>
       </c>
       <c r="T28" s="4">
         <f t="shared" si="425"/>
-        <v>1.275435905820353</v>
+        <v>1.354382194478454</v>
       </c>
       <c r="U28" s="4">
         <f t="shared" si="425"/>
-        <v>3.9241278110892681</v>
+        <v>4.2349707130816086</v>
       </c>
       <c r="V28" s="4">
         <f t="shared" si="425"/>
-        <v>4.1532942287983712</v>
+        <v>4.4307494575175106</v>
       </c>
       <c r="W28" s="4">
         <f t="shared" si="425"/>
-        <v>4.7901341709002363</v>
+        <v>5.0626235683233158</v>
       </c>
       <c r="X28" s="4">
         <f t="shared" ref="X28:Z28" si="430">+X17*X$94/X$89</f>
-        <v>2.9166234128052504</v>
+        <v>3.1194407255406507</v>
       </c>
       <c r="Y28" s="4">
         <f t="shared" si="430"/>
-        <v>2.0624269182058326</v>
+        <v>2.1841173058470726</v>
       </c>
       <c r="Z28" s="4">
         <f t="shared" si="430"/>
-        <v>1.8488777945559787</v>
+        <v>1.9502864509236786</v>
       </c>
       <c r="AA28" s="4">
         <f t="shared" si="425"/>
-        <v>3.6425029112455665</v>
+        <v>3.8059965496994144</v>
       </c>
       <c r="AB28" s="4">
         <f t="shared" ref="AB28:AC28" si="431">+AB17*AB$94/AB$89</f>
-        <v>2.9539241554527651</v>
+        <v>3.0520203385250735</v>
       </c>
       <c r="AC28" s="4">
         <f t="shared" si="431"/>
-        <v>2.7817794665045645</v>
+        <v>2.8635262857314889</v>
       </c>
       <c r="AD28" s="4">
         <f t="shared" si="425"/>
-        <v>1.4370402512700713</v>
+        <v>1.518787070496995</v>
       </c>
       <c r="AE28" s="4">
         <f t="shared" si="425"/>
-        <v>4.3402842371376131</v>
+        <v>4.6783130916966122</v>
       </c>
       <c r="AF28" s="4">
         <f t="shared" si="425"/>
-        <v>4.6660275333222021</v>
+        <v>4.9565982530782549</v>
       </c>
       <c r="AG28" s="4">
         <f t="shared" si="425"/>
-        <v>4.6290454104214742</v>
+        <v>4.9250041230985753</v>
       </c>
       <c r="AH28" s="4">
         <f t="shared" ref="AH28:AJ28" si="432">+AH17*AH$94/AH$89</f>
-        <v>2.8636816714418565</v>
+        <v>3.0693670412001448</v>
       </c>
       <c r="AI28" s="4">
         <f t="shared" si="432"/>
-        <v>1.9974059109147893</v>
+        <v>2.1208171327697616</v>
       </c>
       <c r="AJ28" s="4">
         <f t="shared" si="432"/>
-        <v>1.7808369707830225</v>
+        <v>1.8836796556621667</v>
       </c>
       <c r="AK28" s="4">
         <f t="shared" si="425"/>
-        <v>3.3825694981567489</v>
+        <v>3.5601447257630103</v>
       </c>
       <c r="AL28" s="4">
         <f t="shared" ref="AL28:AM28" si="433">+AL17*AL$94/AL$89</f>
-        <v>2.6346839507979145</v>
+        <v>2.7412290873616718</v>
       </c>
       <c r="AM28" s="4">
         <f t="shared" si="433"/>
-        <v>2.447712563958206</v>
+        <v>2.536500177761337</v>
       </c>
       <c r="AN28" s="4">
         <f t="shared" si="425"/>
-        <v>1.3887136231264423</v>
+        <v>1.4775012369295728</v>
       </c>
       <c r="AO28" s="4">
         <f t="shared" si="425"/>
-        <v>4.3074746056536357</v>
+        <v>4.6502835552507831</v>
       </c>
       <c r="AP28" s="4">
         <f t="shared" si="425"/>
-        <v>4.5277787255423094</v>
+        <v>4.8384911661958103</v>
       </c>
       <c r="AQ28" s="4">
         <f t="shared" si="425"/>
-        <v>4.4540821911956563</v>
+        <v>4.7755316143212427</v>
       </c>
       <c r="AR28" s="4">
         <f t="shared" ref="AR28:AT28" si="434">+AR17*AR$94/AR$89</f>
-        <v>2.8099912763709805</v>
+        <v>3.0185852605926211</v>
       </c>
       <c r="AS28" s="4">
         <f t="shared" si="434"/>
-        <v>1.9314654359802732</v>
+        <v>2.0566218265132576</v>
       </c>
       <c r="AT28" s="4">
         <f t="shared" si="434"/>
-        <v>1.7118339758825962</v>
+        <v>1.8161309679934168</v>
       </c>
       <c r="AU28" s="4">
         <f t="shared" si="425"/>
-        <v>3.1002482076880122</v>
+        <v>3.2931178615633652</v>
       </c>
       <c r="AV28" s="4">
         <f t="shared" ref="AV28:AW28" si="435">+AV17*AV$94/AV$89</f>
-        <v>2.2879478175834267</v>
+        <v>2.4036696099086381</v>
       </c>
       <c r="AW28" s="4">
         <f t="shared" si="435"/>
-        <v>2.0848727200572807</v>
+        <v>2.1813075469949568</v>
       </c>
       <c r="AX28" s="4">
         <f t="shared" si="425"/>
-        <v>1.3362246573586969</v>
+        <v>1.4326594842963731</v>
       </c>
       <c r="AY28" s="4">
         <f t="shared" si="425"/>
-        <v>4.274201010355493</v>
+        <v>4.6218576507248947</v>
       </c>
       <c r="AZ28" s="4">
         <f t="shared" si="425"/>
-        <v>4.3799468155728869</v>
+        <v>4.7121971567562895</v>
       </c>
       <c r="BA28" s="4">
         <f t="shared" si="425"/>
-        <v>4.9198261680168569</v>
+        <v>5.1306706622967404</v>
       </c>
       <c r="BB28" s="4">
         <f t="shared" ref="BB28:BD28" si="436">+BB17*BB$94/BB$89</f>
-        <v>3.1087672680453142</v>
+        <v>3.2852793745782889</v>
       </c>
       <c r="BC28" s="4">
         <f t="shared" si="436"/>
-        <v>2.3653592195838349</v>
+        <v>2.4712664835036189</v>
       </c>
       <c r="BD28" s="4">
         <f t="shared" si="436"/>
-        <v>2.1795072074684652</v>
+        <v>2.2677632607349518</v>
       </c>
       <c r="BE28" s="4">
         <f t="shared" si="425"/>
-        <v>4.0318219562934248</v>
+        <v>4.1583286528613543</v>
       </c>
       <c r="BF28" s="4">
         <f t="shared" ref="BF28:BG28" si="437">+BF17*BF$94/BF$89</f>
-        <v>3.499019429259365</v>
+        <v>3.5749234472001228</v>
       </c>
       <c r="BG28" s="4">
         <f t="shared" si="437"/>
-        <v>3.3658187975008507</v>
+        <v>3.429072145784815</v>
       </c>
       <c r="BH28" s="4">
         <f t="shared" si="425"/>
-        <v>1.4759478504050574</v>
+        <v>1.5392011986890222</v>
       </c>
       <c r="BI28" s="4">
         <f t="shared" si="425"/>
-        <v>4.7609465683216747</v>
+        <v>4.994938521192692</v>
       </c>
       <c r="BJ28" s="4">
         <f t="shared" si="425"/>
-        <v>4.807089727396785</v>
+        <v>5.0343589992816691</v>
       </c>
       <c r="BK28" s="4">
         <f t="shared" ref="BK28:BM28" si="438">+BK17*BK$94/BK$89</f>
-        <v>2.8549494121234829</v>
+        <v>3.0452118046399534</v>
       </c>
       <c r="BL28" s="4">
         <f t="shared" si="438"/>
-        <v>2.0536299066545509</v>
+        <v>2.1677873421644334</v>
       </c>
       <c r="BM28" s="4">
         <f t="shared" si="438"/>
-        <v>1.8533000302873175</v>
+        <v>1.9484312265455535</v>
       </c>
       <c r="BN28" s="4">
         <f t="shared" si="425"/>
-        <v>3.8499100233766441</v>
+        <v>3.9862715865075748</v>
       </c>
       <c r="BO28" s="4">
         <f t="shared" ref="BO28:BP28" si="439">+BO17*BO$94/BO$89</f>
-        <v>3.2756022009645607</v>
+        <v>3.3574191388431185</v>
       </c>
       <c r="BP28" s="4">
         <f t="shared" si="439"/>
-        <v>3.1320252453615396</v>
+        <v>3.2002060269270047</v>
       </c>
       <c r="BQ28" s="4">
         <f t="shared" si="425"/>
-        <v>1.4421269182190357</v>
+        <v>1.5103076997845009</v>
       </c>
       <c r="BR28" s="4">
         <f t="shared" si="425"/>
-        <v>4.1904819212383693</v>
+        <v>4.5075859087658223</v>
       </c>
       <c r="BS28" s="4">
         <f t="shared" si="425"/>
-        <v>4.6601800783130614</v>
+        <v>4.9088528848576978</v>
       </c>
       <c r="BT28" s="4">
         <f t="shared" si="425"/>
-        <v>4.6013694142124022</v>
+        <v>4.858610453649109</v>
       </c>
       <c r="BU28" s="4">
         <f t="shared" ref="BU28:BW28" si="440">+BU17*BU$94/BU$89</f>
-        <v>2.7979037704057412</v>
+        <v>2.9912565439550294</v>
       </c>
       <c r="BV28" s="4">
         <f t="shared" si="440"/>
-        <v>1.9835686470410498</v>
+        <v>2.0995803111706226</v>
       </c>
       <c r="BW28" s="4">
         <f t="shared" si="440"/>
-        <v>1.7799848661998772</v>
+        <v>1.8766612529745215</v>
       </c>
       <c r="BX28" s="4">
         <f t="shared" si="425"/>
-        <v>3.5179589736026493</v>
+        <v>3.6723035972646731</v>
       </c>
       <c r="BY28" s="4">
         <f t="shared" ref="BY28:BZ28" si="441">+BY17*BY$94/BY$89</f>
-        <v>2.8679127092367978</v>
+        <v>2.9605194834340121</v>
       </c>
       <c r="BZ28" s="4">
         <f t="shared" si="441"/>
-        <v>2.7054011431453353</v>
+        <v>2.7825734549763479</v>
       </c>
       <c r="CA28" s="4">
         <f t="shared" si="425"/>
-        <v>1.3804108242637207</v>
+        <v>1.4575831360947329</v>
       </c>
       <c r="CB28" s="4">
         <f t="shared" si="425"/>
-        <v>4.155128976013561</v>
+        <v>4.4773835985957087</v>
       </c>
       <c r="CC28" s="4">
         <f t="shared" si="425"/>
-        <v>3.9272653162401721</v>
+        <v>4.2827178109163322</v>
       </c>
       <c r="CD28" s="4">
         <f t="shared" si="425"/>
-        <v>4.47974771924543</v>
+        <v>4.7547080451948958</v>
       </c>
     </row>
     <row r="29" spans="1:82" x14ac:dyDescent="0.25">
@@ -38565,323 +38565,323 @@
       </c>
       <c r="C127" s="3">
         <f t="shared" ref="C127:CD127" si="1826">VS_svin_tot_omsat_lager</f>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="D127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="E127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="F127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="G127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="H127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="I127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="J127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="K127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="L127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="M127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="N127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="O127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="P127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="Q127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="R127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="S127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="T127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="U127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="V127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="W127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="X127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="Y127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="Z127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="AA127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="AB127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="AC127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="AD127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="AE127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="AF127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="AG127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="AH127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="AI127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="AJ127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="AK127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="AL127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="AM127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="AN127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="AO127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="AP127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="AQ127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="AR127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="AS127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="AT127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="AU127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="AV127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="AW127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="AX127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="AY127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="AZ127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="BA127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="BB127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="BC127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="BD127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="BE127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="BF127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="BG127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="BH127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="BI127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="BJ127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="BK127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="BL127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="BM127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="BN127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="BO127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="BP127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="BQ127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="BR127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="BS127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="BT127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="BU127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="BV127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="BW127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="BX127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="BY127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="BZ127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="CA127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="CB127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="CC127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="CD127" s="3">
         <f t="shared" si="1826"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
     </row>
     <row r="128" spans="1:82" x14ac:dyDescent="0.25">
@@ -38890,323 +38890,323 @@
       </c>
       <c r="C128" s="4">
         <f t="shared" ref="C128:J128" si="1827">+C127*C124</f>
-        <v>11.942124216884313</v>
+        <v>13.076322054189495</v>
       </c>
       <c r="D128" s="4">
         <f t="shared" si="1827"/>
-        <v>17.845376305842297</v>
+        <v>19.540232835919831</v>
       </c>
       <c r="E128" s="4">
         <f t="shared" si="1827"/>
-        <v>17.845376305842297</v>
+        <v>19.540232835919831</v>
       </c>
       <c r="F128" s="4">
         <f t="shared" si="1827"/>
-        <v>17.845376305842297</v>
+        <v>19.540232835919831</v>
       </c>
       <c r="G128" s="4">
         <f t="shared" si="1827"/>
-        <v>11.942124216884313</v>
+        <v>13.076322054189495</v>
       </c>
       <c r="H128" s="4">
         <f t="shared" si="1827"/>
-        <v>11.942124216884313</v>
+        <v>13.076322054189495</v>
       </c>
       <c r="I128" s="4">
         <f t="shared" si="1827"/>
-        <v>11.942124216884313</v>
+        <v>13.076322054189495</v>
       </c>
       <c r="J128" s="4">
         <f t="shared" si="1827"/>
-        <v>11.942124216884313</v>
+        <v>13.076322054189495</v>
       </c>
       <c r="K128" s="4">
         <f t="shared" ref="K128:L128" si="1828">+K127*K124</f>
-        <v>17.845376305842297</v>
+        <v>19.540232835919831</v>
       </c>
       <c r="L128" s="4">
         <f t="shared" si="1828"/>
-        <v>13.277532819155399</v>
+        <v>14.538560483475205</v>
       </c>
       <c r="M128" s="4">
         <f t="shared" ref="M128:U128" si="1829">+M127*M124</f>
-        <v>15.669045053348354</v>
+        <v>17.157205508673261</v>
       </c>
       <c r="N128" s="4">
         <f t="shared" ref="N128:P128" si="1830">+N127*N124</f>
-        <v>18.508576597913709</v>
+        <v>20.266420275278161</v>
       </c>
       <c r="O128" s="4">
         <f t="shared" si="1830"/>
-        <v>18.508576597913709</v>
+        <v>20.266420275278161</v>
       </c>
       <c r="P128" s="4">
         <f t="shared" si="1830"/>
-        <v>18.508576597913709</v>
+        <v>20.266420275278161</v>
       </c>
       <c r="Q128" s="4">
         <f t="shared" si="1829"/>
-        <v>15.669045053348354</v>
+        <v>17.157205508673261</v>
       </c>
       <c r="R128" s="4">
         <f t="shared" ref="R128:S128" si="1831">+R127*R124</f>
-        <v>15.669045053348354</v>
+        <v>17.157205508673261</v>
       </c>
       <c r="S128" s="4">
         <f t="shared" si="1831"/>
-        <v>15.669045053348354</v>
+        <v>17.157205508673261</v>
       </c>
       <c r="T128" s="4">
         <f t="shared" ref="T128" si="1832">+T127*T124</f>
-        <v>15.669045053348354</v>
+        <v>17.157205508673261</v>
       </c>
       <c r="U128" s="4">
         <f t="shared" si="1829"/>
-        <v>18.508576597913709</v>
+        <v>20.266420275278161</v>
       </c>
       <c r="V128" s="4">
         <f t="shared" ref="V128" si="1833">+V127*V124</f>
-        <v>16.520568172299374</v>
+        <v>18.089601650077366</v>
       </c>
       <c r="W128" s="4">
         <f t="shared" ref="W128:AE128" si="1834">+W127*W124</f>
-        <v>16.516207102878493</v>
+        <v>18.084826390063952</v>
       </c>
       <c r="X128" s="4">
         <f t="shared" ref="X128:Z128" si="1835">+X127*X124</f>
-        <v>20.488703859463875</v>
+        <v>22.434609226428236</v>
       </c>
       <c r="Y128" s="4">
         <f t="shared" si="1835"/>
-        <v>20.488703859463875</v>
+        <v>22.434609226428236</v>
       </c>
       <c r="Z128" s="4">
         <f t="shared" si="1835"/>
-        <v>20.488703859463875</v>
+        <v>22.434609226428236</v>
       </c>
       <c r="AA128" s="4">
         <f t="shared" si="1834"/>
-        <v>16.516207102878493</v>
+        <v>18.084826390063952</v>
       </c>
       <c r="AB128" s="4">
         <f t="shared" ref="AB128:AC128" si="1836">+AB127*AB124</f>
-        <v>16.516207102878493</v>
+        <v>18.084826390063952</v>
       </c>
       <c r="AC128" s="4">
         <f t="shared" si="1836"/>
-        <v>16.516207102878493</v>
+        <v>18.084826390063952</v>
       </c>
       <c r="AD128" s="4">
         <f t="shared" ref="AD128" si="1837">+AD127*AD124</f>
-        <v>16.516207102878493</v>
+        <v>18.084826390063952</v>
       </c>
       <c r="AE128" s="4">
         <f t="shared" si="1834"/>
-        <v>20.488703859463875</v>
+        <v>22.434609226428236</v>
       </c>
       <c r="AF128" s="4">
         <f t="shared" ref="AF128" si="1838">+AF127*AF124</f>
-        <v>17.612157503772874</v>
+        <v>19.284864183780012</v>
       </c>
       <c r="AG128" s="4">
         <f t="shared" ref="AG128:AO128" si="1839">+AG127*AG124</f>
-        <v>17.938736107544138</v>
+        <v>19.642459442493102</v>
       </c>
       <c r="AH128" s="4">
         <f t="shared" ref="AH128:AJ128" si="1840">+AH127*AH124</f>
-        <v>20.778436378850287</v>
+        <v>22.751858960584567</v>
       </c>
       <c r="AI128" s="4">
         <f t="shared" si="1840"/>
-        <v>20.778436378850287</v>
+        <v>22.751858960584567</v>
       </c>
       <c r="AJ128" s="4">
         <f t="shared" si="1840"/>
-        <v>20.778436378850287</v>
+        <v>22.751858960584567</v>
       </c>
       <c r="AK128" s="4">
         <f t="shared" si="1839"/>
-        <v>17.938736107544138</v>
+        <v>19.642459442493102</v>
       </c>
       <c r="AL128" s="4">
         <f t="shared" ref="AL128:AM128" si="1841">+AL127*AL124</f>
-        <v>17.938736107544138</v>
+        <v>19.642459442493102</v>
       </c>
       <c r="AM128" s="4">
         <f t="shared" si="1841"/>
-        <v>17.938736107544138</v>
+        <v>19.642459442493102</v>
       </c>
       <c r="AN128" s="4">
         <f t="shared" ref="AN128" si="1842">+AN127*AN124</f>
-        <v>17.938736107544138</v>
+        <v>19.642459442493102</v>
       </c>
       <c r="AO128" s="4">
         <f t="shared" si="1839"/>
-        <v>20.778436378850287</v>
+        <v>22.751858960584567</v>
       </c>
       <c r="AP128" s="4">
         <f t="shared" ref="AP128" si="1843">+AP127*AP124</f>
-        <v>18.832993385449846</v>
+        <v>20.62164840023857</v>
       </c>
       <c r="AQ128" s="4">
         <f t="shared" ref="AQ128:AY128" si="1844">+AQ127*AQ124</f>
-        <v>19.483786509314463</v>
+        <v>21.334250306210539</v>
       </c>
       <c r="AR128" s="4">
         <f t="shared" ref="AR128:AT128" si="1845">+AR127*AR124</f>
-        <v>21.072266030654937</v>
+        <v>23.073594950454414</v>
       </c>
       <c r="AS128" s="4">
         <f t="shared" si="1845"/>
-        <v>21.072266030654937</v>
+        <v>23.073594950454414</v>
       </c>
       <c r="AT128" s="4">
         <f t="shared" si="1845"/>
-        <v>21.072266030654937</v>
+        <v>23.073594950454414</v>
       </c>
       <c r="AU128" s="4">
         <f t="shared" si="1844"/>
-        <v>19.483786509314463</v>
+        <v>21.334250306210539</v>
       </c>
       <c r="AV128" s="4">
         <f t="shared" ref="AV128:AW128" si="1846">+AV127*AV124</f>
-        <v>19.483786509314463</v>
+        <v>21.334250306210539</v>
       </c>
       <c r="AW128" s="4">
         <f t="shared" si="1846"/>
-        <v>19.483786509314463</v>
+        <v>21.334250306210539</v>
       </c>
       <c r="AX128" s="4">
         <f t="shared" ref="AX128" si="1847">+AX127*AX124</f>
-        <v>19.483786509314463</v>
+        <v>21.334250306210539</v>
       </c>
       <c r="AY128" s="4">
         <f t="shared" si="1844"/>
-        <v>21.072266030654937</v>
+        <v>23.073594950454414</v>
       </c>
       <c r="AZ128" s="4">
         <f t="shared" ref="AZ128" si="1848">+AZ127*AZ124</f>
-        <v>20.138454915612574</v>
+        <v>22.051095547809489</v>
       </c>
       <c r="BA128" s="4">
         <f t="shared" ref="BA128:BN128" si="1849">+BA127*BA124</f>
-        <v>11.971343028530113</v>
+        <v>13.108315909234227</v>
       </c>
       <c r="BB128" s="4">
         <f t="shared" ref="BB128:BD128" si="1850">+BB127*BB124</f>
-        <v>16.703360638778673</v>
+        <v>18.289754748249255</v>
       </c>
       <c r="BC128" s="4">
         <f t="shared" si="1850"/>
-        <v>16.703360638778673</v>
+        <v>18.289754748249255</v>
       </c>
       <c r="BD128" s="4">
         <f t="shared" si="1850"/>
-        <v>16.703360638778673</v>
+        <v>18.289754748249255</v>
       </c>
       <c r="BE128" s="4">
         <f t="shared" si="1849"/>
-        <v>11.971343028530113</v>
+        <v>13.108315909234227</v>
       </c>
       <c r="BF128" s="4">
         <f t="shared" ref="BF128:BG128" si="1851">+BF127*BF124</f>
-        <v>11.971343028530113</v>
+        <v>13.108315909234227</v>
       </c>
       <c r="BG128" s="4">
         <f t="shared" si="1851"/>
-        <v>11.971343028530113</v>
+        <v>13.108315909234227</v>
       </c>
       <c r="BH128" s="4">
         <f t="shared" ref="BH128" si="1852">+BH127*BH124</f>
-        <v>11.971343028530113</v>
+        <v>13.108315909234227</v>
       </c>
       <c r="BI128" s="4">
         <f t="shared" ref="BI128" si="1853">+BI127*BI124</f>
-        <v>13.285611005882727</v>
+        <v>14.547405892327266</v>
       </c>
       <c r="BJ128" s="4">
         <f t="shared" si="1849"/>
-        <v>12.903910167872976</v>
+        <v>14.129453190151157</v>
       </c>
       <c r="BK128" s="4">
         <f t="shared" ref="BK128:BM128" si="1854">+BK127*BK124</f>
-        <v>18.004551759206418</v>
+        <v>19.71452590585525</v>
       </c>
       <c r="BL128" s="4">
         <f t="shared" si="1854"/>
-        <v>18.004551759206418</v>
+        <v>19.71452590585525</v>
       </c>
       <c r="BM128" s="4">
         <f t="shared" si="1854"/>
-        <v>18.004551759206418</v>
+        <v>19.71452590585525</v>
       </c>
       <c r="BN128" s="4">
         <f t="shared" si="1849"/>
-        <v>12.903910167872976</v>
+        <v>14.129453190151157</v>
       </c>
       <c r="BO128" s="4">
         <f t="shared" ref="BO128:BP128" si="1855">+BO127*BO124</f>
-        <v>12.903910167872976</v>
+        <v>14.129453190151157</v>
       </c>
       <c r="BP128" s="4">
         <f t="shared" si="1855"/>
-        <v>12.903910167872976</v>
+        <v>14.129453190151157</v>
       </c>
       <c r="BQ128" s="4">
         <f t="shared" ref="BQ128" si="1856">+BQ127*BQ124</f>
-        <v>12.903910167872976</v>
+        <v>14.129453190151157</v>
       </c>
       <c r="BR128" s="4">
         <f t="shared" ref="BR128" si="1857">+BR127*BR124</f>
-        <v>18.004551759206418</v>
+        <v>19.71452590585525</v>
       </c>
       <c r="BS128" s="4">
         <f t="shared" ref="BS128" si="1858">+BS127*BS124</f>
-        <v>14.119161513705164</v>
+        <v>15.46012248200306</v>
       </c>
       <c r="BT128" s="4">
         <f t="shared" ref="BT128:CC128" si="1859">+BT127*BT124</f>
-        <v>17.716127015131356</v>
+        <v>19.398708152377999</v>
       </c>
       <c r="BU128" s="4">
         <f t="shared" ref="BU128:BW128" si="1860">+BU127*BU124</f>
-        <v>22.193596470376729</v>
+        <v>24.301423240687491</v>
       </c>
       <c r="BV128" s="4">
         <f t="shared" si="1860"/>
-        <v>22.193596470376729</v>
+        <v>24.301423240687491</v>
       </c>
       <c r="BW128" s="4">
         <f t="shared" si="1860"/>
-        <v>22.193596470376729</v>
+        <v>24.301423240687491</v>
       </c>
       <c r="BX128" s="4">
         <f t="shared" si="1859"/>
-        <v>17.716127015131356</v>
+        <v>19.398708152377999</v>
       </c>
       <c r="BY128" s="4">
         <f t="shared" ref="BY128:BZ128" si="1861">+BY127*BY124</f>
-        <v>17.716127015131356</v>
+        <v>19.398708152377999</v>
       </c>
       <c r="BZ128" s="4">
         <f t="shared" si="1861"/>
-        <v>17.716127015131356</v>
+        <v>19.398708152377999</v>
       </c>
       <c r="CA128" s="4">
         <f t="shared" ref="CA128" si="1862">+CA127*CA124</f>
-        <v>17.716127015131356</v>
+        <v>19.398708152377999</v>
       </c>
       <c r="CB128" s="4">
         <f t="shared" ref="CB128" si="1863">+CB127*CB124</f>
-        <v>22.193596470376729</v>
+        <v>24.301423240687491</v>
       </c>
       <c r="CC128" s="4">
         <f t="shared" si="1859"/>
-        <v>24.479925743254416</v>
+        <v>26.804895600470864</v>
       </c>
       <c r="CD128" s="4">
         <f t="shared" ref="CD128" si="1864">+CD127*CD124</f>
-        <v>18.936449912150248</v>
+        <v>20.734930663692975</v>
       </c>
     </row>
     <row r="129" spans="1:82" x14ac:dyDescent="0.25">
@@ -39215,323 +39215,323 @@
       </c>
       <c r="C129" s="4">
         <f t="shared" ref="C129:J129" si="1865">+C125*C127</f>
-        <v>8.9727961907674114</v>
+        <v>9.8249834439999617</v>
       </c>
       <c r="D129" s="4">
         <f t="shared" si="1865"/>
-        <v>8.9727961907674114</v>
+        <v>9.8249834439999617</v>
       </c>
       <c r="E129" s="4">
         <f t="shared" si="1865"/>
-        <v>8.9727961907674114</v>
+        <v>9.8249834439999617</v>
       </c>
       <c r="F129" s="4">
         <f t="shared" si="1865"/>
-        <v>8.9727961907674114</v>
+        <v>9.8249834439999617</v>
       </c>
       <c r="G129" s="4">
         <f t="shared" si="1865"/>
-        <v>8.9727961907674114</v>
+        <v>9.8249834439999617</v>
       </c>
       <c r="H129" s="4">
         <f t="shared" si="1865"/>
-        <v>8.9727961907674114</v>
+        <v>9.8249834439999617</v>
       </c>
       <c r="I129" s="4">
         <f t="shared" si="1865"/>
-        <v>8.9727961907674114</v>
+        <v>9.8249834439999617</v>
       </c>
       <c r="J129" s="4">
         <f t="shared" si="1865"/>
-        <v>8.9727961907674114</v>
+        <v>9.8249834439999617</v>
       </c>
       <c r="K129" s="4">
         <f t="shared" ref="K129:L129" si="1866">+K125*K127</f>
-        <v>8.9727961907674114</v>
+        <v>9.8249834439999617</v>
       </c>
       <c r="L129" s="4">
         <f t="shared" si="1866"/>
-        <v>8.9727961907674114</v>
+        <v>9.8249834439999617</v>
       </c>
       <c r="M129" s="4">
         <f t="shared" ref="M129:AA129" si="1867">+M125*M127</f>
-        <v>8.8877021516285222</v>
+        <v>9.7318076370443869</v>
       </c>
       <c r="N129" s="4">
         <f t="shared" ref="N129:P129" si="1868">+N125*N127</f>
-        <v>8.8877021516285222</v>
+        <v>9.7318076370443869</v>
       </c>
       <c r="O129" s="4">
         <f t="shared" si="1868"/>
-        <v>8.8877021516285222</v>
+        <v>9.7318076370443869</v>
       </c>
       <c r="P129" s="4">
         <f t="shared" si="1868"/>
-        <v>8.8877021516285222</v>
+        <v>9.7318076370443869</v>
       </c>
       <c r="Q129" s="4">
         <f t="shared" si="1867"/>
-        <v>8.8877021516285222</v>
+        <v>9.7318076370443869</v>
       </c>
       <c r="R129" s="4">
         <f t="shared" ref="R129:S129" si="1869">+R125*R127</f>
-        <v>8.8877021516285222</v>
+        <v>9.7318076370443869</v>
       </c>
       <c r="S129" s="4">
         <f t="shared" si="1869"/>
-        <v>8.8877021516285222</v>
+        <v>9.7318076370443869</v>
       </c>
       <c r="T129" s="4">
         <f t="shared" ref="T129" si="1870">+T125*T127</f>
-        <v>8.8877021516285222</v>
+        <v>9.7318076370443869</v>
       </c>
       <c r="U129" s="4">
         <f t="shared" ref="U129:V129" si="1871">+U125*U127</f>
-        <v>8.8877021516285222</v>
+        <v>9.7318076370443869</v>
       </c>
       <c r="V129" s="4">
         <f t="shared" si="1871"/>
-        <v>8.8877021516285222</v>
+        <v>9.7318076370443869</v>
       </c>
       <c r="W129" s="4">
         <f t="shared" si="1867"/>
-        <v>9.9475093010567299</v>
+        <v>10.892269490360412</v>
       </c>
       <c r="X129" s="4">
         <f t="shared" ref="X129:Z129" si="1872">+X125*X127</f>
-        <v>9.9475093010567299</v>
+        <v>10.892269490360412</v>
       </c>
       <c r="Y129" s="4">
         <f t="shared" si="1872"/>
-        <v>9.9475093010567299</v>
+        <v>10.892269490360412</v>
       </c>
       <c r="Z129" s="4">
         <f t="shared" si="1872"/>
-        <v>9.9475093010567299</v>
+        <v>10.892269490360412</v>
       </c>
       <c r="AA129" s="4">
         <f t="shared" si="1867"/>
-        <v>9.9475093010567299</v>
+        <v>10.892269490360412</v>
       </c>
       <c r="AB129" s="4">
         <f t="shared" ref="AB129:AC129" si="1873">+AB125*AB127</f>
-        <v>9.9475093010567299</v>
+        <v>10.892269490360412</v>
       </c>
       <c r="AC129" s="4">
         <f t="shared" si="1873"/>
-        <v>9.9475093010567299</v>
+        <v>10.892269490360412</v>
       </c>
       <c r="AD129" s="4">
         <f t="shared" ref="AD129" si="1874">+AD125*AD127</f>
-        <v>9.9475093010567299</v>
+        <v>10.892269490360412</v>
       </c>
       <c r="AE129" s="4">
         <f t="shared" ref="AE129:AF129" si="1875">+AE125*AE127</f>
-        <v>9.9475093010567299</v>
+        <v>10.892269490360412</v>
       </c>
       <c r="AF129" s="4">
         <f t="shared" si="1875"/>
-        <v>9.9475093010567299</v>
+        <v>10.892269490360412</v>
       </c>
       <c r="AG129" s="4">
         <f t="shared" ref="AG129:AO129" si="1876">+AG125*AG127</f>
-        <v>9.9475093010567299</v>
+        <v>10.892269490360412</v>
       </c>
       <c r="AH129" s="4">
         <f t="shared" ref="AH129:AJ129" si="1877">+AH125*AH127</f>
-        <v>9.9475093010567299</v>
+        <v>10.892269490360412</v>
       </c>
       <c r="AI129" s="4">
         <f t="shared" si="1877"/>
-        <v>9.9475093010567299</v>
+        <v>10.892269490360412</v>
       </c>
       <c r="AJ129" s="4">
         <f t="shared" si="1877"/>
-        <v>9.9475093010567299</v>
+        <v>10.892269490360412</v>
       </c>
       <c r="AK129" s="4">
         <f t="shared" si="1876"/>
-        <v>9.9475093010567299</v>
+        <v>10.892269490360412</v>
       </c>
       <c r="AL129" s="4">
         <f t="shared" ref="AL129:AM129" si="1878">+AL125*AL127</f>
-        <v>9.9475093010567299</v>
+        <v>10.892269490360412</v>
       </c>
       <c r="AM129" s="4">
         <f t="shared" si="1878"/>
-        <v>9.9475093010567299</v>
+        <v>10.892269490360412</v>
       </c>
       <c r="AN129" s="4">
         <f t="shared" ref="AN129" si="1879">+AN125*AN127</f>
-        <v>9.9475093010567299</v>
+        <v>10.892269490360412</v>
       </c>
       <c r="AO129" s="4">
         <f t="shared" si="1876"/>
-        <v>9.9475093010567299</v>
+        <v>10.892269490360412</v>
       </c>
       <c r="AP129" s="4">
         <f t="shared" ref="AP129" si="1880">+AP125*AP127</f>
-        <v>9.9475093010567299</v>
+        <v>10.892269490360412</v>
       </c>
       <c r="AQ129" s="4">
         <f t="shared" ref="AQ129:AY129" si="1881">+AQ125*AQ127</f>
-        <v>9.9475093010567299</v>
+        <v>10.892269490360412</v>
       </c>
       <c r="AR129" s="4">
         <f t="shared" ref="AR129:AT129" si="1882">+AR125*AR127</f>
-        <v>9.9475093010567299</v>
+        <v>10.892269490360412</v>
       </c>
       <c r="AS129" s="4">
         <f t="shared" si="1882"/>
-        <v>9.9475093010567299</v>
+        <v>10.892269490360412</v>
       </c>
       <c r="AT129" s="4">
         <f t="shared" si="1882"/>
-        <v>9.9475093010567299</v>
+        <v>10.892269490360412</v>
       </c>
       <c r="AU129" s="4">
         <f t="shared" si="1881"/>
-        <v>9.9475093010567299</v>
+        <v>10.892269490360412</v>
       </c>
       <c r="AV129" s="4">
         <f t="shared" ref="AV129:AW129" si="1883">+AV125*AV127</f>
-        <v>9.9475093010567299</v>
+        <v>10.892269490360412</v>
       </c>
       <c r="AW129" s="4">
         <f t="shared" si="1883"/>
-        <v>9.9475093010567299</v>
+        <v>10.892269490360412</v>
       </c>
       <c r="AX129" s="4">
         <f t="shared" ref="AX129" si="1884">+AX125*AX127</f>
-        <v>9.9475093010567299</v>
+        <v>10.892269490360412</v>
       </c>
       <c r="AY129" s="4">
         <f t="shared" si="1881"/>
-        <v>9.9475093010567299</v>
+        <v>10.892269490360412</v>
       </c>
       <c r="AZ129" s="4">
         <f t="shared" ref="AZ129" si="1885">+AZ125*AZ127</f>
-        <v>9.9475093010567299</v>
+        <v>10.892269490360412</v>
       </c>
       <c r="BA129" s="4">
         <f t="shared" ref="BA129:BN129" si="1886">+BA125*BA127</f>
-        <v>8.9077316976248824</v>
+        <v>9.7537394800976784</v>
       </c>
       <c r="BB129" s="4">
         <f t="shared" ref="BB129:BD129" si="1887">+BB125*BB127</f>
-        <v>8.9077316976248824</v>
+        <v>9.7537394800976784</v>
       </c>
       <c r="BC129" s="4">
         <f t="shared" si="1887"/>
-        <v>8.9077316976248824</v>
+        <v>9.7537394800976784</v>
       </c>
       <c r="BD129" s="4">
         <f t="shared" si="1887"/>
-        <v>8.9077316976248824</v>
+        <v>9.7537394800976784</v>
       </c>
       <c r="BE129" s="4">
         <f t="shared" si="1886"/>
-        <v>8.9077316976248824</v>
+        <v>9.7537394800976784</v>
       </c>
       <c r="BF129" s="4">
         <f t="shared" ref="BF129:BG129" si="1888">+BF125*BF127</f>
-        <v>8.9077316976248824</v>
+        <v>9.7537394800976784</v>
       </c>
       <c r="BG129" s="4">
         <f t="shared" si="1888"/>
-        <v>8.9077316976248824</v>
+        <v>9.7537394800976784</v>
       </c>
       <c r="BH129" s="4">
         <f t="shared" ref="BH129" si="1889">+BH125*BH127</f>
-        <v>8.9077316976248824</v>
+        <v>9.7537394800976784</v>
       </c>
       <c r="BI129" s="4">
         <f t="shared" ref="BI129" si="1890">+BI125*BI127</f>
-        <v>8.9077316976248824</v>
+        <v>9.7537394800976784</v>
       </c>
       <c r="BJ129" s="4">
         <f t="shared" si="1886"/>
-        <v>8.9077316976248824</v>
+        <v>9.7537394800976784</v>
       </c>
       <c r="BK129" s="4">
         <f t="shared" ref="BK129:BM129" si="1891">+BK125*BK127</f>
-        <v>8.9077316976248824</v>
+        <v>9.7537394800976784</v>
       </c>
       <c r="BL129" s="4">
         <f t="shared" si="1891"/>
-        <v>8.9077316976248824</v>
+        <v>9.7537394800976784</v>
       </c>
       <c r="BM129" s="4">
         <f t="shared" si="1891"/>
-        <v>8.9077316976248824</v>
+        <v>9.7537394800976784</v>
       </c>
       <c r="BN129" s="4">
         <f t="shared" si="1886"/>
-        <v>8.9077316976248824</v>
+        <v>9.7537394800976784</v>
       </c>
       <c r="BO129" s="4">
         <f t="shared" ref="BO129:BP129" si="1892">+BO125*BO127</f>
-        <v>8.9077316976248824</v>
+        <v>9.7537394800976784</v>
       </c>
       <c r="BP129" s="4">
         <f t="shared" si="1892"/>
-        <v>8.9077316976248824</v>
+        <v>9.7537394800976784</v>
       </c>
       <c r="BQ129" s="4">
         <f t="shared" ref="BQ129" si="1893">+BQ125*BQ127</f>
-        <v>8.9077316976248824</v>
+        <v>9.7537394800976784</v>
       </c>
       <c r="BR129" s="4">
         <f t="shared" ref="BR129" si="1894">+BR125*BR127</f>
-        <v>8.9077316976248824</v>
+        <v>9.7537394800976784</v>
       </c>
       <c r="BS129" s="4">
         <f t="shared" ref="BS129" si="1895">+BS125*BS127</f>
-        <v>8.9077316976248824</v>
+        <v>9.7537394800976784</v>
       </c>
       <c r="BT129" s="4">
         <f t="shared" ref="BT129:CC129" si="1896">+BT125*BT127</f>
-        <v>10.804758060344758</v>
+        <v>11.83093506219862</v>
       </c>
       <c r="BU129" s="4">
         <f t="shared" ref="BU129:BW129" si="1897">+BU125*BU127</f>
-        <v>10.804758060344758</v>
+        <v>11.83093506219862</v>
       </c>
       <c r="BV129" s="4">
         <f t="shared" si="1897"/>
-        <v>10.804758060344758</v>
+        <v>11.83093506219862</v>
       </c>
       <c r="BW129" s="4">
         <f t="shared" si="1897"/>
-        <v>10.804758060344758</v>
+        <v>11.83093506219862</v>
       </c>
       <c r="BX129" s="4">
         <f t="shared" si="1896"/>
-        <v>10.804758060344758</v>
+        <v>11.83093506219862</v>
       </c>
       <c r="BY129" s="4">
         <f t="shared" ref="BY129:BZ129" si="1898">+BY125*BY127</f>
-        <v>10.804758060344758</v>
+        <v>11.83093506219862</v>
       </c>
       <c r="BZ129" s="4">
         <f t="shared" si="1898"/>
-        <v>10.804758060344758</v>
+        <v>11.83093506219862</v>
       </c>
       <c r="CA129" s="4">
         <f t="shared" ref="CA129" si="1899">+CA125*CA127</f>
-        <v>10.804758060344758</v>
+        <v>11.83093506219862</v>
       </c>
       <c r="CB129" s="4">
         <f t="shared" ref="CB129" si="1900">+CB125*CB127</f>
-        <v>10.804758060344758</v>
+        <v>11.83093506219862</v>
       </c>
       <c r="CC129" s="4">
         <f t="shared" si="1896"/>
-        <v>10.804758060344758</v>
+        <v>11.83093506219862</v>
       </c>
       <c r="CD129" s="4">
         <f t="shared" ref="CD129" si="1901">+CD125*CD127</f>
-        <v>10.804758060344758</v>
+        <v>11.83093506219862</v>
       </c>
     </row>
     <row r="130" spans="1:82" x14ac:dyDescent="0.25">
@@ -39540,323 +39540,323 @@
       </c>
       <c r="C130" s="4">
         <f t="shared" ref="C130:BX130" si="1902">+C128/C65</f>
-        <v>1.7913186325326469</v>
+        <v>1.9614483081284242</v>
       </c>
       <c r="D130" s="4">
         <f t="shared" ref="D130:F130" si="1903">+D128/D65</f>
-        <v>2.6768064458763443</v>
+        <v>2.9310349253879746</v>
       </c>
       <c r="E130" s="4">
         <f t="shared" si="1903"/>
-        <v>2.6768064458763443</v>
+        <v>2.9310349253879746</v>
       </c>
       <c r="F130" s="4">
         <f t="shared" si="1903"/>
-        <v>2.6768064458763443</v>
+        <v>2.9310349253879746</v>
       </c>
       <c r="G130" s="4">
         <f t="shared" si="1902"/>
-        <v>1.7913186325326469</v>
+        <v>1.9614483081284242</v>
       </c>
       <c r="H130" s="4">
         <f t="shared" ref="H130:I130" si="1904">+H128/H65</f>
-        <v>1.7913186325326469</v>
+        <v>1.9614483081284242</v>
       </c>
       <c r="I130" s="4">
         <f t="shared" si="1904"/>
-        <v>1.7913186325326469</v>
+        <v>1.9614483081284242</v>
       </c>
       <c r="J130" s="4">
         <f t="shared" ref="J130" si="1905">+J128/J65</f>
-        <v>1.7913186325326469</v>
+        <v>1.9614483081284242</v>
       </c>
       <c r="K130" s="4">
         <f t="shared" si="1902"/>
-        <v>2.6768064458763443</v>
+        <v>2.9310349253879746</v>
       </c>
       <c r="L130" s="4">
         <f t="shared" ref="L130" si="1906">+L128/L65</f>
-        <v>1.9916299228733096</v>
+        <v>2.1807840725212806</v>
       </c>
       <c r="M130" s="4">
         <f t="shared" si="1902"/>
-        <v>2.3503567580022531</v>
+        <v>2.5735808263009892</v>
       </c>
       <c r="N130" s="4">
         <f t="shared" ref="N130:P130" si="1907">+N128/N65</f>
-        <v>2.7762864896870565</v>
+        <v>3.039963041291724</v>
       </c>
       <c r="O130" s="4">
         <f t="shared" si="1907"/>
-        <v>2.7762864896870565</v>
+        <v>3.039963041291724</v>
       </c>
       <c r="P130" s="4">
         <f t="shared" si="1907"/>
-        <v>2.7762864896870565</v>
+        <v>3.039963041291724</v>
       </c>
       <c r="Q130" s="4">
         <f t="shared" si="1902"/>
-        <v>2.3503567580022531</v>
+        <v>2.5735808263009892</v>
       </c>
       <c r="R130" s="4">
         <f t="shared" ref="R130:S130" si="1908">+R128/R65</f>
-        <v>2.3503567580022531</v>
+        <v>2.5735808263009892</v>
       </c>
       <c r="S130" s="4">
         <f t="shared" si="1908"/>
-        <v>2.3503567580022531</v>
+        <v>2.5735808263009892</v>
       </c>
       <c r="T130" s="4">
         <f t="shared" ref="T130" si="1909">+T128/T65</f>
-        <v>2.3503567580022531</v>
+        <v>2.5735808263009892</v>
       </c>
       <c r="U130" s="4">
         <f t="shared" ref="U130:V130" si="1910">+U128/U65</f>
-        <v>2.7762864896870565</v>
+        <v>3.039963041291724</v>
       </c>
       <c r="V130" s="4">
         <f t="shared" si="1910"/>
-        <v>2.478085225844906</v>
+        <v>2.7134402475116048</v>
       </c>
       <c r="W130" s="4">
         <f t="shared" si="1902"/>
-        <v>2.4774310654317739</v>
+        <v>2.7127239585095926</v>
       </c>
       <c r="X130" s="4">
         <f t="shared" ref="X130:Z130" si="1911">+X128/X65</f>
-        <v>3.0733055789195811</v>
+        <v>3.3651913839642353</v>
       </c>
       <c r="Y130" s="4">
         <f t="shared" si="1911"/>
-        <v>3.0733055789195811</v>
+        <v>3.3651913839642353</v>
       </c>
       <c r="Z130" s="4">
         <f t="shared" si="1911"/>
-        <v>3.0733055789195811</v>
+        <v>3.3651913839642353</v>
       </c>
       <c r="AA130" s="4">
         <f t="shared" si="1902"/>
-        <v>2.4774310654317739</v>
+        <v>2.7127239585095926</v>
       </c>
       <c r="AB130" s="4">
         <f t="shared" ref="AB130:AC130" si="1912">+AB128/AB65</f>
-        <v>2.4774310654317739</v>
+        <v>2.7127239585095926</v>
       </c>
       <c r="AC130" s="4">
         <f t="shared" si="1912"/>
-        <v>2.4774310654317739</v>
+        <v>2.7127239585095926</v>
       </c>
       <c r="AD130" s="4">
         <f t="shared" ref="AD130" si="1913">+AD128/AD65</f>
-        <v>2.4774310654317739</v>
+        <v>2.7127239585095926</v>
       </c>
       <c r="AE130" s="4">
         <f t="shared" ref="AE130:AF130" si="1914">+AE128/AE65</f>
-        <v>3.0733055789195811</v>
+        <v>3.3651913839642353</v>
       </c>
       <c r="AF130" s="4">
         <f t="shared" si="1914"/>
-        <v>2.6418236255659311</v>
+        <v>2.8927296275670016</v>
       </c>
       <c r="AG130" s="4">
         <f t="shared" si="1902"/>
-        <v>2.6908104161316206</v>
+        <v>2.9463689163739653</v>
       </c>
       <c r="AH130" s="4">
         <f t="shared" ref="AH130:AJ130" si="1915">+AH128/AH65</f>
-        <v>3.1167654568275429</v>
+        <v>3.4127788440876849</v>
       </c>
       <c r="AI130" s="4">
         <f t="shared" si="1915"/>
-        <v>3.1167654568275429</v>
+        <v>3.4127788440876849</v>
       </c>
       <c r="AJ130" s="4">
         <f t="shared" si="1915"/>
-        <v>3.1167654568275429</v>
+        <v>3.4127788440876849</v>
       </c>
       <c r="AK130" s="4">
         <f t="shared" si="1902"/>
-        <v>2.6908104161316206</v>
+        <v>2.9463689163739653</v>
       </c>
       <c r="AL130" s="4">
         <f t="shared" ref="AL130:AM130" si="1916">+AL128/AL65</f>
-        <v>2.6908104161316206</v>
+        <v>2.9463689163739653</v>
       </c>
       <c r="AM130" s="4">
         <f t="shared" si="1916"/>
-        <v>2.6908104161316206</v>
+        <v>2.9463689163739653</v>
       </c>
       <c r="AN130" s="4">
         <f t="shared" ref="AN130" si="1917">+AN128/AN65</f>
-        <v>2.6908104161316206</v>
+        <v>2.9463689163739653</v>
       </c>
       <c r="AO130" s="4">
         <f t="shared" ref="AO130:AP130" si="1918">+AO128/AO65</f>
-        <v>3.1167654568275429</v>
+        <v>3.4127788440876849</v>
       </c>
       <c r="AP130" s="4">
         <f t="shared" si="1918"/>
-        <v>2.824949007817477</v>
+        <v>3.0932472600357852</v>
       </c>
       <c r="AQ130" s="4">
         <f t="shared" si="1902"/>
-        <v>2.9225679763971693</v>
+        <v>3.2001375459315806</v>
       </c>
       <c r="AR130" s="4">
         <f t="shared" ref="AR130:AT130" si="1919">+AR128/AR65</f>
-        <v>3.1608399045982405</v>
+        <v>3.461039242568162</v>
       </c>
       <c r="AS130" s="4">
         <f t="shared" si="1919"/>
-        <v>3.1608399045982405</v>
+        <v>3.461039242568162</v>
       </c>
       <c r="AT130" s="4">
         <f t="shared" si="1919"/>
-        <v>3.1608399045982405</v>
+        <v>3.461039242568162</v>
       </c>
       <c r="AU130" s="4">
         <f t="shared" si="1902"/>
-        <v>2.9225679763971693</v>
+        <v>3.2001375459315806</v>
       </c>
       <c r="AV130" s="4">
         <f t="shared" ref="AV130:AW130" si="1920">+AV128/AV65</f>
-        <v>2.9225679763971693</v>
+        <v>3.2001375459315806</v>
       </c>
       <c r="AW130" s="4">
         <f t="shared" si="1920"/>
-        <v>2.9225679763971693</v>
+        <v>3.2001375459315806</v>
       </c>
       <c r="AX130" s="4">
         <f t="shared" ref="AX130" si="1921">+AX128/AX65</f>
-        <v>2.9225679763971693</v>
+        <v>3.2001375459315806</v>
       </c>
       <c r="AY130" s="4">
         <f t="shared" ref="AY130:AZ130" si="1922">+AY128/AY65</f>
-        <v>3.1608399045982405</v>
+        <v>3.461039242568162</v>
       </c>
       <c r="AZ130" s="4">
         <f t="shared" si="1922"/>
-        <v>3.020768237341886</v>
+        <v>3.3076643321714232</v>
       </c>
       <c r="BA130" s="4">
         <f t="shared" si="1902"/>
-        <v>1.7957014542795169</v>
+        <v>1.966247386385134</v>
       </c>
       <c r="BB130" s="4">
         <f t="shared" ref="BB130:BD130" si="1923">+BB128/BB65</f>
-        <v>2.5055040958168009</v>
+        <v>2.7434632122373883</v>
       </c>
       <c r="BC130" s="4">
         <f t="shared" si="1923"/>
-        <v>2.5055040958168009</v>
+        <v>2.7434632122373883</v>
       </c>
       <c r="BD130" s="4">
         <f t="shared" si="1923"/>
-        <v>2.5055040958168009</v>
+        <v>2.7434632122373883</v>
       </c>
       <c r="BE130" s="4">
         <f t="shared" si="1902"/>
-        <v>1.7957014542795169</v>
+        <v>1.966247386385134</v>
       </c>
       <c r="BF130" s="4">
         <f t="shared" ref="BF130:BG130" si="1924">+BF128/BF65</f>
-        <v>1.7957014542795169</v>
+        <v>1.966247386385134</v>
       </c>
       <c r="BG130" s="4">
         <f t="shared" si="1924"/>
-        <v>1.7957014542795169</v>
+        <v>1.966247386385134</v>
       </c>
       <c r="BH130" s="4">
         <f t="shared" ref="BH130" si="1925">+BH128/BH65</f>
-        <v>1.7957014542795169</v>
+        <v>1.966247386385134</v>
       </c>
       <c r="BI130" s="4">
         <f t="shared" ref="BI130" si="1926">+BI128/BI65</f>
-        <v>1.9928416508824089</v>
+        <v>2.1821108838490897</v>
       </c>
       <c r="BJ130" s="4">
         <f t="shared" si="1902"/>
-        <v>1.9355865251809463</v>
+        <v>2.1194179785226734</v>
       </c>
       <c r="BK130" s="4">
         <f t="shared" ref="BK130:BM130" si="1927">+BK128/BK65</f>
-        <v>2.7006827638809625</v>
+        <v>2.9571788858782875</v>
       </c>
       <c r="BL130" s="4">
         <f t="shared" si="1927"/>
-        <v>2.7006827638809625</v>
+        <v>2.9571788858782875</v>
       </c>
       <c r="BM130" s="4">
         <f t="shared" si="1927"/>
-        <v>2.7006827638809625</v>
+        <v>2.9571788858782875</v>
       </c>
       <c r="BN130" s="4">
         <f t="shared" si="1902"/>
-        <v>1.9355865251809463</v>
+        <v>2.1194179785226734</v>
       </c>
       <c r="BO130" s="4">
         <f t="shared" ref="BO130:BP130" si="1928">+BO128/BO65</f>
-        <v>1.9355865251809463</v>
+        <v>2.1194179785226734</v>
       </c>
       <c r="BP130" s="4">
         <f t="shared" si="1928"/>
-        <v>1.9355865251809463</v>
+        <v>2.1194179785226734</v>
       </c>
       <c r="BQ130" s="4">
         <f t="shared" ref="BQ130" si="1929">+BQ128/BQ65</f>
-        <v>1.9355865251809463</v>
+        <v>2.1194179785226734</v>
       </c>
       <c r="BR130" s="4">
         <f t="shared" ref="BR130" si="1930">+BR128/BR65</f>
-        <v>2.7006827638809625</v>
+        <v>2.9571788858782875</v>
       </c>
       <c r="BS130" s="4">
         <f t="shared" ref="BS130" si="1931">+BS128/BS65</f>
-        <v>2.1178742270557747</v>
+        <v>2.3190183723004587</v>
       </c>
       <c r="BT130" s="4">
         <f t="shared" si="1902"/>
-        <v>2.6574190522697032</v>
+        <v>2.9098062228566999</v>
       </c>
       <c r="BU130" s="4">
         <f t="shared" ref="BU130:BW130" si="1932">+BU128/BU65</f>
-        <v>3.3290394705565092</v>
+        <v>3.6452134861031236</v>
       </c>
       <c r="BV130" s="4">
         <f t="shared" si="1932"/>
-        <v>3.3290394705565092</v>
+        <v>3.6452134861031236</v>
       </c>
       <c r="BW130" s="4">
         <f t="shared" si="1932"/>
-        <v>3.3290394705565092</v>
+        <v>3.6452134861031236</v>
       </c>
       <c r="BX130" s="4">
         <f t="shared" si="1902"/>
-        <v>2.6574190522697032</v>
+        <v>2.9098062228566999</v>
       </c>
       <c r="BY130" s="4">
         <f t="shared" ref="BY130:BZ130" si="1933">+BY128/BY65</f>
-        <v>2.6574190522697032</v>
+        <v>2.9098062228566999</v>
       </c>
       <c r="BZ130" s="4">
         <f t="shared" si="1933"/>
-        <v>2.6574190522697032</v>
+        <v>2.9098062228566999</v>
       </c>
       <c r="CA130" s="4">
         <f t="shared" ref="CA130" si="1934">+CA128/CA65</f>
-        <v>2.6574190522697032</v>
+        <v>2.9098062228566999</v>
       </c>
       <c r="CB130" s="4">
         <f t="shared" ref="CB130" si="1935">+CB128/CB65</f>
-        <v>3.3290394705565092</v>
+        <v>3.6452134861031236</v>
       </c>
       <c r="CC130" s="4">
         <f t="shared" ref="CC130:CD130" si="1936">+CC128/CC65</f>
-        <v>3.6719888614881624</v>
+        <v>4.0207343400706295</v>
       </c>
       <c r="CD130" s="4">
         <f t="shared" si="1936"/>
-        <v>2.8404674868225372</v>
+        <v>3.110239599553946</v>
       </c>
     </row>
     <row r="131" spans="1:82" x14ac:dyDescent="0.25">
@@ -39865,323 +39865,323 @@
       </c>
       <c r="C131" s="4">
         <f t="shared" ref="C131:BX131" si="1937">+C129/C65</f>
-        <v>1.3459194286151117</v>
+        <v>1.4737475165999943</v>
       </c>
       <c r="D131" s="4">
         <f t="shared" ref="D131:F131" si="1938">+D129/D65</f>
-        <v>1.3459194286151117</v>
+        <v>1.4737475165999943</v>
       </c>
       <c r="E131" s="4">
         <f t="shared" si="1938"/>
-        <v>1.3459194286151117</v>
+        <v>1.4737475165999943</v>
       </c>
       <c r="F131" s="4">
         <f t="shared" si="1938"/>
-        <v>1.3459194286151117</v>
+        <v>1.4737475165999943</v>
       </c>
       <c r="G131" s="4">
         <f t="shared" si="1937"/>
-        <v>1.3459194286151117</v>
+        <v>1.4737475165999943</v>
       </c>
       <c r="H131" s="4">
         <f t="shared" ref="H131:I131" si="1939">+H129/H65</f>
-        <v>1.3459194286151117</v>
+        <v>1.4737475165999943</v>
       </c>
       <c r="I131" s="4">
         <f t="shared" si="1939"/>
-        <v>1.3459194286151117</v>
+        <v>1.4737475165999943</v>
       </c>
       <c r="J131" s="4">
         <f t="shared" ref="J131" si="1940">+J129/J65</f>
-        <v>1.3459194286151117</v>
+        <v>1.4737475165999943</v>
       </c>
       <c r="K131" s="4">
         <f t="shared" si="1937"/>
-        <v>1.3459194286151117</v>
+        <v>1.4737475165999943</v>
       </c>
       <c r="L131" s="4">
         <f t="shared" ref="L131" si="1941">+L129/L65</f>
-        <v>1.3459194286151117</v>
+        <v>1.4737475165999943</v>
       </c>
       <c r="M131" s="4">
         <f t="shared" si="1937"/>
-        <v>1.3331553227442783</v>
+        <v>1.459771145556658</v>
       </c>
       <c r="N131" s="4">
         <f t="shared" ref="N131:P131" si="1942">+N129/N65</f>
-        <v>1.3331553227442783</v>
+        <v>1.459771145556658</v>
       </c>
       <c r="O131" s="4">
         <f t="shared" si="1942"/>
-        <v>1.3331553227442783</v>
+        <v>1.459771145556658</v>
       </c>
       <c r="P131" s="4">
         <f t="shared" si="1942"/>
-        <v>1.3331553227442783</v>
+        <v>1.459771145556658</v>
       </c>
       <c r="Q131" s="4">
         <f t="shared" si="1937"/>
-        <v>1.3331553227442783</v>
+        <v>1.459771145556658</v>
       </c>
       <c r="R131" s="4">
         <f t="shared" ref="R131:S131" si="1943">+R129/R65</f>
-        <v>1.3331553227442783</v>
+        <v>1.459771145556658</v>
       </c>
       <c r="S131" s="4">
         <f t="shared" si="1943"/>
-        <v>1.3331553227442783</v>
+        <v>1.459771145556658</v>
       </c>
       <c r="T131" s="4">
         <f t="shared" ref="T131" si="1944">+T129/T65</f>
-        <v>1.3331553227442783</v>
+        <v>1.459771145556658</v>
       </c>
       <c r="U131" s="4">
         <f t="shared" ref="U131:V131" si="1945">+U129/U65</f>
-        <v>1.3331553227442783</v>
+        <v>1.459771145556658</v>
       </c>
       <c r="V131" s="4">
         <f t="shared" si="1945"/>
-        <v>1.3331553227442783</v>
+        <v>1.459771145556658</v>
       </c>
       <c r="W131" s="4">
         <f t="shared" si="1937"/>
-        <v>1.4921263951585095</v>
+        <v>1.6338404235540618</v>
       </c>
       <c r="X131" s="4">
         <f t="shared" ref="X131:Z131" si="1946">+X129/X65</f>
-        <v>1.4921263951585095</v>
+        <v>1.6338404235540618</v>
       </c>
       <c r="Y131" s="4">
         <f t="shared" si="1946"/>
-        <v>1.4921263951585095</v>
+        <v>1.6338404235540618</v>
       </c>
       <c r="Z131" s="4">
         <f t="shared" si="1946"/>
-        <v>1.4921263951585095</v>
+        <v>1.6338404235540618</v>
       </c>
       <c r="AA131" s="4">
         <f t="shared" si="1937"/>
-        <v>1.4921263951585095</v>
+        <v>1.6338404235540618</v>
       </c>
       <c r="AB131" s="4">
         <f t="shared" ref="AB131:AC131" si="1947">+AB129/AB65</f>
-        <v>1.4921263951585095</v>
+        <v>1.6338404235540618</v>
       </c>
       <c r="AC131" s="4">
         <f t="shared" si="1947"/>
-        <v>1.4921263951585095</v>
+        <v>1.6338404235540618</v>
       </c>
       <c r="AD131" s="4">
         <f t="shared" ref="AD131" si="1948">+AD129/AD65</f>
-        <v>1.4921263951585095</v>
+        <v>1.6338404235540618</v>
       </c>
       <c r="AE131" s="4">
         <f t="shared" ref="AE131:AF131" si="1949">+AE129/AE65</f>
-        <v>1.4921263951585095</v>
+        <v>1.6338404235540618</v>
       </c>
       <c r="AF131" s="4">
         <f t="shared" si="1949"/>
-        <v>1.4921263951585095</v>
+        <v>1.6338404235540618</v>
       </c>
       <c r="AG131" s="4">
         <f t="shared" si="1937"/>
-        <v>1.4921263951585095</v>
+        <v>1.6338404235540618</v>
       </c>
       <c r="AH131" s="4">
         <f t="shared" ref="AH131:AJ131" si="1950">+AH129/AH65</f>
-        <v>1.4921263951585095</v>
+        <v>1.6338404235540618</v>
       </c>
       <c r="AI131" s="4">
         <f t="shared" si="1950"/>
-        <v>1.4921263951585095</v>
+        <v>1.6338404235540618</v>
       </c>
       <c r="AJ131" s="4">
         <f t="shared" si="1950"/>
-        <v>1.4921263951585095</v>
+        <v>1.6338404235540618</v>
       </c>
       <c r="AK131" s="4">
         <f t="shared" si="1937"/>
-        <v>1.4921263951585095</v>
+        <v>1.6338404235540618</v>
       </c>
       <c r="AL131" s="4">
         <f t="shared" ref="AL131:AM131" si="1951">+AL129/AL65</f>
-        <v>1.4921263951585095</v>
+        <v>1.6338404235540618</v>
       </c>
       <c r="AM131" s="4">
         <f t="shared" si="1951"/>
-        <v>1.4921263951585095</v>
+        <v>1.6338404235540618</v>
       </c>
       <c r="AN131" s="4">
         <f t="shared" ref="AN131" si="1952">+AN129/AN65</f>
-        <v>1.4921263951585095</v>
+        <v>1.6338404235540618</v>
       </c>
       <c r="AO131" s="4">
         <f t="shared" ref="AO131:AP131" si="1953">+AO129/AO65</f>
-        <v>1.4921263951585095</v>
+        <v>1.6338404235540618</v>
       </c>
       <c r="AP131" s="4">
         <f t="shared" si="1953"/>
-        <v>1.4921263951585095</v>
+        <v>1.6338404235540618</v>
       </c>
       <c r="AQ131" s="4">
         <f t="shared" si="1937"/>
-        <v>1.4921263951585095</v>
+        <v>1.6338404235540618</v>
       </c>
       <c r="AR131" s="4">
         <f t="shared" ref="AR131:AT131" si="1954">+AR129/AR65</f>
-        <v>1.4921263951585095</v>
+        <v>1.6338404235540618</v>
       </c>
       <c r="AS131" s="4">
         <f t="shared" si="1954"/>
-        <v>1.4921263951585095</v>
+        <v>1.6338404235540618</v>
       </c>
       <c r="AT131" s="4">
         <f t="shared" si="1954"/>
-        <v>1.4921263951585095</v>
+        <v>1.6338404235540618</v>
       </c>
       <c r="AU131" s="4">
         <f t="shared" si="1937"/>
-        <v>1.4921263951585095</v>
+        <v>1.6338404235540618</v>
       </c>
       <c r="AV131" s="4">
         <f t="shared" ref="AV131:AW131" si="1955">+AV129/AV65</f>
-        <v>1.4921263951585095</v>
+        <v>1.6338404235540618</v>
       </c>
       <c r="AW131" s="4">
         <f t="shared" si="1955"/>
-        <v>1.4921263951585095</v>
+        <v>1.6338404235540618</v>
       </c>
       <c r="AX131" s="4">
         <f t="shared" ref="AX131" si="1956">+AX129/AX65</f>
-        <v>1.4921263951585095</v>
+        <v>1.6338404235540618</v>
       </c>
       <c r="AY131" s="4">
         <f t="shared" ref="AY131:AZ131" si="1957">+AY129/AY65</f>
-        <v>1.4921263951585095</v>
+        <v>1.6338404235540618</v>
       </c>
       <c r="AZ131" s="4">
         <f t="shared" si="1957"/>
-        <v>1.4921263951585095</v>
+        <v>1.6338404235540618</v>
       </c>
       <c r="BA131" s="4">
         <f t="shared" si="1937"/>
-        <v>1.3361597546437323</v>
+        <v>1.4630609220146518</v>
       </c>
       <c r="BB131" s="4">
         <f t="shared" ref="BB131:BD131" si="1958">+BB129/BB65</f>
-        <v>1.3361597546437323</v>
+        <v>1.4630609220146518</v>
       </c>
       <c r="BC131" s="4">
         <f t="shared" si="1958"/>
-        <v>1.3361597546437323</v>
+        <v>1.4630609220146518</v>
       </c>
       <c r="BD131" s="4">
         <f t="shared" si="1958"/>
-        <v>1.3361597546437323</v>
+        <v>1.4630609220146518</v>
       </c>
       <c r="BE131" s="4">
         <f t="shared" si="1937"/>
-        <v>1.3361597546437323</v>
+        <v>1.4630609220146518</v>
       </c>
       <c r="BF131" s="4">
         <f t="shared" ref="BF131:BG131" si="1959">+BF129/BF65</f>
-        <v>1.3361597546437323</v>
+        <v>1.4630609220146518</v>
       </c>
       <c r="BG131" s="4">
         <f t="shared" si="1959"/>
-        <v>1.3361597546437323</v>
+        <v>1.4630609220146518</v>
       </c>
       <c r="BH131" s="4">
         <f t="shared" ref="BH131" si="1960">+BH129/BH65</f>
-        <v>1.3361597546437323</v>
+        <v>1.4630609220146518</v>
       </c>
       <c r="BI131" s="4">
         <f t="shared" ref="BI131" si="1961">+BI129/BI65</f>
-        <v>1.3361597546437323</v>
+        <v>1.4630609220146518</v>
       </c>
       <c r="BJ131" s="4">
         <f t="shared" si="1937"/>
-        <v>1.3361597546437323</v>
+        <v>1.4630609220146518</v>
       </c>
       <c r="BK131" s="4">
         <f t="shared" ref="BK131:BM131" si="1962">+BK129/BK65</f>
-        <v>1.3361597546437323</v>
+        <v>1.4630609220146518</v>
       </c>
       <c r="BL131" s="4">
         <f t="shared" si="1962"/>
-        <v>1.3361597546437323</v>
+        <v>1.4630609220146518</v>
       </c>
       <c r="BM131" s="4">
         <f t="shared" si="1962"/>
-        <v>1.3361597546437323</v>
+        <v>1.4630609220146518</v>
       </c>
       <c r="BN131" s="4">
         <f t="shared" si="1937"/>
-        <v>1.3361597546437323</v>
+        <v>1.4630609220146518</v>
       </c>
       <c r="BO131" s="4">
         <f t="shared" ref="BO131:BP131" si="1963">+BO129/BO65</f>
-        <v>1.3361597546437323</v>
+        <v>1.4630609220146518</v>
       </c>
       <c r="BP131" s="4">
         <f t="shared" si="1963"/>
-        <v>1.3361597546437323</v>
+        <v>1.4630609220146518</v>
       </c>
       <c r="BQ131" s="4">
         <f t="shared" ref="BQ131" si="1964">+BQ129/BQ65</f>
-        <v>1.3361597546437323</v>
+        <v>1.4630609220146518</v>
       </c>
       <c r="BR131" s="4">
         <f t="shared" ref="BR131" si="1965">+BR129/BR65</f>
-        <v>1.3361597546437323</v>
+        <v>1.4630609220146518</v>
       </c>
       <c r="BS131" s="4">
         <f t="shared" ref="BS131" si="1966">+BS129/BS65</f>
-        <v>1.3361597546437323</v>
+        <v>1.4630609220146518</v>
       </c>
       <c r="BT131" s="4">
         <f t="shared" si="1937"/>
-        <v>1.6207137090517136</v>
+        <v>1.774640259329793</v>
       </c>
       <c r="BU131" s="4">
         <f t="shared" ref="BU131:BW131" si="1967">+BU129/BU65</f>
-        <v>1.6207137090517136</v>
+        <v>1.774640259329793</v>
       </c>
       <c r="BV131" s="4">
         <f t="shared" si="1967"/>
-        <v>1.6207137090517136</v>
+        <v>1.774640259329793</v>
       </c>
       <c r="BW131" s="4">
         <f t="shared" si="1967"/>
-        <v>1.6207137090517136</v>
+        <v>1.774640259329793</v>
       </c>
       <c r="BX131" s="4">
         <f t="shared" si="1937"/>
-        <v>1.6207137090517136</v>
+        <v>1.774640259329793</v>
       </c>
       <c r="BY131" s="4">
         <f t="shared" ref="BY131:BZ131" si="1968">+BY129/BY65</f>
-        <v>1.6207137090517136</v>
+        <v>1.774640259329793</v>
       </c>
       <c r="BZ131" s="4">
         <f t="shared" si="1968"/>
-        <v>1.6207137090517136</v>
+        <v>1.774640259329793</v>
       </c>
       <c r="CA131" s="4">
         <f t="shared" ref="CA131" si="1969">+CA129/CA65</f>
-        <v>1.6207137090517136</v>
+        <v>1.774640259329793</v>
       </c>
       <c r="CB131" s="4">
         <f t="shared" ref="CB131" si="1970">+CB129/CB65</f>
-        <v>1.6207137090517136</v>
+        <v>1.774640259329793</v>
       </c>
       <c r="CC131" s="4">
         <f t="shared" ref="CC131:CD131" si="1971">+CC129/CC65</f>
-        <v>1.6207137090517136</v>
+        <v>1.774640259329793</v>
       </c>
       <c r="CD131" s="4">
         <f t="shared" si="1971"/>
-        <v>1.6207137090517136</v>
+        <v>1.774640259329793</v>
       </c>
     </row>
     <row r="132" spans="1:82" x14ac:dyDescent="0.25">
@@ -40190,323 +40190,323 @@
       </c>
       <c r="C132" s="4">
         <f t="shared" ref="C132:J132" si="1972">+SUM(C130)</f>
-        <v>1.7913186325326469</v>
+        <v>1.9614483081284242</v>
       </c>
       <c r="D132" s="4">
         <f t="shared" si="1972"/>
-        <v>2.6768064458763443</v>
+        <v>2.9310349253879746</v>
       </c>
       <c r="E132" s="4">
         <f t="shared" si="1972"/>
-        <v>2.6768064458763443</v>
+        <v>2.9310349253879746</v>
       </c>
       <c r="F132" s="4">
         <f t="shared" si="1972"/>
-        <v>2.6768064458763443</v>
+        <v>2.9310349253879746</v>
       </c>
       <c r="G132" s="4">
         <f t="shared" si="1972"/>
-        <v>1.7913186325326469</v>
+        <v>1.9614483081284242</v>
       </c>
       <c r="H132" s="4">
         <f t="shared" si="1972"/>
-        <v>1.7913186325326469</v>
+        <v>1.9614483081284242</v>
       </c>
       <c r="I132" s="4">
         <f t="shared" si="1972"/>
-        <v>1.7913186325326469</v>
+        <v>1.9614483081284242</v>
       </c>
       <c r="J132" s="4">
         <f t="shared" si="1972"/>
-        <v>1.7913186325326469</v>
+        <v>1.9614483081284242</v>
       </c>
       <c r="K132" s="4">
         <f t="shared" ref="K132:CC132" si="1973">+SUM(K130)</f>
-        <v>2.6768064458763443</v>
+        <v>2.9310349253879746</v>
       </c>
       <c r="L132" s="4">
         <f t="shared" ref="L132" si="1974">+SUM(L130)</f>
-        <v>1.9916299228733096</v>
+        <v>2.1807840725212806</v>
       </c>
       <c r="M132" s="4">
         <f t="shared" si="1973"/>
-        <v>2.3503567580022531</v>
+        <v>2.5735808263009892</v>
       </c>
       <c r="N132" s="4">
         <f t="shared" ref="N132:P132" si="1975">+SUM(N130)</f>
-        <v>2.7762864896870565</v>
+        <v>3.039963041291724</v>
       </c>
       <c r="O132" s="4">
         <f t="shared" si="1975"/>
-        <v>2.7762864896870565</v>
+        <v>3.039963041291724</v>
       </c>
       <c r="P132" s="4">
         <f t="shared" si="1975"/>
-        <v>2.7762864896870565</v>
+        <v>3.039963041291724</v>
       </c>
       <c r="Q132" s="4">
         <f t="shared" si="1973"/>
-        <v>2.3503567580022531</v>
+        <v>2.5735808263009892</v>
       </c>
       <c r="R132" s="4">
         <f t="shared" ref="R132:S132" si="1976">+SUM(R130)</f>
-        <v>2.3503567580022531</v>
+        <v>2.5735808263009892</v>
       </c>
       <c r="S132" s="4">
         <f t="shared" si="1976"/>
-        <v>2.3503567580022531</v>
+        <v>2.5735808263009892</v>
       </c>
       <c r="T132" s="4">
         <f t="shared" ref="T132" si="1977">+SUM(T130)</f>
-        <v>2.3503567580022531</v>
+        <v>2.5735808263009892</v>
       </c>
       <c r="U132" s="4">
         <f t="shared" si="1973"/>
-        <v>2.7762864896870565</v>
+        <v>3.039963041291724</v>
       </c>
       <c r="V132" s="4">
         <f t="shared" ref="V132" si="1978">+SUM(V130)</f>
-        <v>2.478085225844906</v>
+        <v>2.7134402475116048</v>
       </c>
       <c r="W132" s="4">
         <f t="shared" si="1973"/>
-        <v>2.4774310654317739</v>
+        <v>2.7127239585095926</v>
       </c>
       <c r="X132" s="4">
         <f t="shared" ref="X132:Z132" si="1979">+SUM(X130)</f>
-        <v>3.0733055789195811</v>
+        <v>3.3651913839642353</v>
       </c>
       <c r="Y132" s="4">
         <f t="shared" si="1979"/>
-        <v>3.0733055789195811</v>
+        <v>3.3651913839642353</v>
       </c>
       <c r="Z132" s="4">
         <f t="shared" si="1979"/>
-        <v>3.0733055789195811</v>
+        <v>3.3651913839642353</v>
       </c>
       <c r="AA132" s="4">
         <f t="shared" si="1973"/>
-        <v>2.4774310654317739</v>
+        <v>2.7127239585095926</v>
       </c>
       <c r="AB132" s="4">
         <f t="shared" ref="AB132:AC132" si="1980">+SUM(AB130)</f>
-        <v>2.4774310654317739</v>
+        <v>2.7127239585095926</v>
       </c>
       <c r="AC132" s="4">
         <f t="shared" si="1980"/>
-        <v>2.4774310654317739</v>
+        <v>2.7127239585095926</v>
       </c>
       <c r="AD132" s="4">
         <f t="shared" ref="AD132" si="1981">+SUM(AD130)</f>
-        <v>2.4774310654317739</v>
+        <v>2.7127239585095926</v>
       </c>
       <c r="AE132" s="4">
         <f t="shared" si="1973"/>
-        <v>3.0733055789195811</v>
+        <v>3.3651913839642353</v>
       </c>
       <c r="AF132" s="4">
         <f t="shared" ref="AF132" si="1982">+SUM(AF130)</f>
-        <v>2.6418236255659311</v>
+        <v>2.8927296275670016</v>
       </c>
       <c r="AG132" s="4">
         <f t="shared" si="1973"/>
-        <v>2.6908104161316206</v>
+        <v>2.9463689163739653</v>
       </c>
       <c r="AH132" s="4">
         <f t="shared" ref="AH132:AJ132" si="1983">+SUM(AH130)</f>
-        <v>3.1167654568275429</v>
+        <v>3.4127788440876849</v>
       </c>
       <c r="AI132" s="4">
         <f t="shared" si="1983"/>
-        <v>3.1167654568275429</v>
+        <v>3.4127788440876849</v>
       </c>
       <c r="AJ132" s="4">
         <f t="shared" si="1983"/>
-        <v>3.1167654568275429</v>
+        <v>3.4127788440876849</v>
       </c>
       <c r="AK132" s="4">
         <f t="shared" si="1973"/>
-        <v>2.6908104161316206</v>
+        <v>2.9463689163739653</v>
       </c>
       <c r="AL132" s="4">
         <f t="shared" ref="AL132:AM132" si="1984">+SUM(AL130)</f>
-        <v>2.6908104161316206</v>
+        <v>2.9463689163739653</v>
       </c>
       <c r="AM132" s="4">
         <f t="shared" si="1984"/>
-        <v>2.6908104161316206</v>
+        <v>2.9463689163739653</v>
       </c>
       <c r="AN132" s="4">
         <f t="shared" ref="AN132" si="1985">+SUM(AN130)</f>
-        <v>2.6908104161316206</v>
+        <v>2.9463689163739653</v>
       </c>
       <c r="AO132" s="4">
         <f t="shared" si="1973"/>
-        <v>3.1167654568275429</v>
+        <v>3.4127788440876849</v>
       </c>
       <c r="AP132" s="4">
         <f t="shared" ref="AP132" si="1986">+SUM(AP130)</f>
-        <v>2.824949007817477</v>
+        <v>3.0932472600357852</v>
       </c>
       <c r="AQ132" s="4">
         <f t="shared" si="1973"/>
-        <v>2.9225679763971693</v>
+        <v>3.2001375459315806</v>
       </c>
       <c r="AR132" s="4">
         <f t="shared" ref="AR132:AT132" si="1987">+SUM(AR130)</f>
-        <v>3.1608399045982405</v>
+        <v>3.461039242568162</v>
       </c>
       <c r="AS132" s="4">
         <f t="shared" si="1987"/>
-        <v>3.1608399045982405</v>
+        <v>3.461039242568162</v>
       </c>
       <c r="AT132" s="4">
         <f t="shared" si="1987"/>
-        <v>3.1608399045982405</v>
+        <v>3.461039242568162</v>
       </c>
       <c r="AU132" s="4">
         <f t="shared" si="1973"/>
-        <v>2.9225679763971693</v>
+        <v>3.2001375459315806</v>
       </c>
       <c r="AV132" s="4">
         <f t="shared" ref="AV132:AW132" si="1988">+SUM(AV130)</f>
-        <v>2.9225679763971693</v>
+        <v>3.2001375459315806</v>
       </c>
       <c r="AW132" s="4">
         <f t="shared" si="1988"/>
-        <v>2.9225679763971693</v>
+        <v>3.2001375459315806</v>
       </c>
       <c r="AX132" s="4">
         <f t="shared" ref="AX132" si="1989">+SUM(AX130)</f>
-        <v>2.9225679763971693</v>
+        <v>3.2001375459315806</v>
       </c>
       <c r="AY132" s="4">
         <f t="shared" si="1973"/>
-        <v>3.1608399045982405</v>
+        <v>3.461039242568162</v>
       </c>
       <c r="AZ132" s="4">
         <f t="shared" ref="AZ132" si="1990">+SUM(AZ130)</f>
-        <v>3.020768237341886</v>
+        <v>3.3076643321714232</v>
       </c>
       <c r="BA132" s="4">
         <f t="shared" si="1973"/>
-        <v>1.7957014542795169</v>
+        <v>1.966247386385134</v>
       </c>
       <c r="BB132" s="4">
         <f t="shared" ref="BB132:BD132" si="1991">+SUM(BB130)</f>
-        <v>2.5055040958168009</v>
+        <v>2.7434632122373883</v>
       </c>
       <c r="BC132" s="4">
         <f t="shared" si="1991"/>
-        <v>2.5055040958168009</v>
+        <v>2.7434632122373883</v>
       </c>
       <c r="BD132" s="4">
         <f t="shared" si="1991"/>
-        <v>2.5055040958168009</v>
+        <v>2.7434632122373883</v>
       </c>
       <c r="BE132" s="4">
         <f t="shared" si="1973"/>
-        <v>1.7957014542795169</v>
+        <v>1.966247386385134</v>
       </c>
       <c r="BF132" s="4">
         <f t="shared" ref="BF132:BG132" si="1992">+SUM(BF130)</f>
-        <v>1.7957014542795169</v>
+        <v>1.966247386385134</v>
       </c>
       <c r="BG132" s="4">
         <f t="shared" si="1992"/>
-        <v>1.7957014542795169</v>
+        <v>1.966247386385134</v>
       </c>
       <c r="BH132" s="4">
         <f t="shared" ref="BH132" si="1993">+SUM(BH130)</f>
-        <v>1.7957014542795169</v>
+        <v>1.966247386385134</v>
       </c>
       <c r="BI132" s="4">
         <f t="shared" ref="BI132" si="1994">+SUM(BI130)</f>
-        <v>1.9928416508824089</v>
+        <v>2.1821108838490897</v>
       </c>
       <c r="BJ132" s="4">
         <f t="shared" si="1973"/>
-        <v>1.9355865251809463</v>
+        <v>2.1194179785226734</v>
       </c>
       <c r="BK132" s="4">
         <f t="shared" ref="BK132:BM132" si="1995">+SUM(BK130)</f>
-        <v>2.7006827638809625</v>
+        <v>2.9571788858782875</v>
       </c>
       <c r="BL132" s="4">
         <f t="shared" si="1995"/>
-        <v>2.7006827638809625</v>
+        <v>2.9571788858782875</v>
       </c>
       <c r="BM132" s="4">
         <f t="shared" si="1995"/>
-        <v>2.7006827638809625</v>
+        <v>2.9571788858782875</v>
       </c>
       <c r="BN132" s="4">
         <f t="shared" si="1973"/>
-        <v>1.9355865251809463</v>
+        <v>2.1194179785226734</v>
       </c>
       <c r="BO132" s="4">
         <f t="shared" ref="BO132:BP132" si="1996">+SUM(BO130)</f>
-        <v>1.9355865251809463</v>
+        <v>2.1194179785226734</v>
       </c>
       <c r="BP132" s="4">
         <f t="shared" si="1996"/>
-        <v>1.9355865251809463</v>
+        <v>2.1194179785226734</v>
       </c>
       <c r="BQ132" s="4">
         <f t="shared" ref="BQ132" si="1997">+SUM(BQ130)</f>
-        <v>1.9355865251809463</v>
+        <v>2.1194179785226734</v>
       </c>
       <c r="BR132" s="4">
         <f t="shared" si="1973"/>
-        <v>2.7006827638809625</v>
+        <v>2.9571788858782875</v>
       </c>
       <c r="BS132" s="4">
         <f t="shared" ref="BS132" si="1998">+SUM(BS130)</f>
-        <v>2.1178742270557747</v>
+        <v>2.3190183723004587</v>
       </c>
       <c r="BT132" s="4">
         <f t="shared" si="1973"/>
-        <v>2.6574190522697032</v>
+        <v>2.9098062228566999</v>
       </c>
       <c r="BU132" s="4">
         <f t="shared" ref="BU132:BW132" si="1999">+SUM(BU130)</f>
-        <v>3.3290394705565092</v>
+        <v>3.6452134861031236</v>
       </c>
       <c r="BV132" s="4">
         <f t="shared" si="1999"/>
-        <v>3.3290394705565092</v>
+        <v>3.6452134861031236</v>
       </c>
       <c r="BW132" s="4">
         <f t="shared" si="1999"/>
-        <v>3.3290394705565092</v>
+        <v>3.6452134861031236</v>
       </c>
       <c r="BX132" s="4">
         <f t="shared" si="1973"/>
-        <v>2.6574190522697032</v>
+        <v>2.9098062228566999</v>
       </c>
       <c r="BY132" s="4">
         <f t="shared" ref="BY132:BZ132" si="2000">+SUM(BY130)</f>
-        <v>2.6574190522697032</v>
+        <v>2.9098062228566999</v>
       </c>
       <c r="BZ132" s="4">
         <f t="shared" si="2000"/>
-        <v>2.6574190522697032</v>
+        <v>2.9098062228566999</v>
       </c>
       <c r="CA132" s="4">
         <f t="shared" ref="CA132" si="2001">+SUM(CA130)</f>
-        <v>2.6574190522697032</v>
+        <v>2.9098062228566999</v>
       </c>
       <c r="CB132" s="4">
         <f t="shared" si="1973"/>
-        <v>3.3290394705565092</v>
+        <v>3.6452134861031236</v>
       </c>
       <c r="CC132" s="4">
         <f t="shared" si="1973"/>
-        <v>3.6719888614881624</v>
+        <v>4.0207343400706295</v>
       </c>
       <c r="CD132" s="4">
         <f t="shared" ref="CD132" si="2002">+SUM(CD130)</f>
-        <v>2.8404674868225372</v>
+        <v>3.110239599553946</v>
       </c>
     </row>
     <row r="134" spans="1:82" x14ac:dyDescent="0.25">
@@ -46069,11 +46069,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="6" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
+      <selection pane="bottomRight" activeCell="O47" sqref="O47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46677,43 +46677,43 @@
       </c>
       <c r="C16" s="4">
         <f>+C131</f>
-        <v>1.5314356934259297</v>
+        <v>1.9003676765374029</v>
       </c>
       <c r="D16" s="4">
         <f>+D131</f>
-        <v>2.1596152733526632</v>
+        <v>2.6798794600737104</v>
       </c>
       <c r="E16" s="4">
         <f>+E131*E36</f>
-        <v>0.91886141605555771</v>
+        <v>1.1402206059224418</v>
       </c>
       <c r="F16" s="4">
         <f>+F131*F36</f>
-        <v>0.5513168496333346</v>
+        <v>0.68413236355346507</v>
       </c>
       <c r="G16" s="4">
         <f>+G131*G36</f>
-        <v>0.45943070802777897</v>
+        <v>0.570110302961221</v>
       </c>
       <c r="H16" s="4">
         <f>+H131*H36</f>
-        <v>0.45943070802777897</v>
+        <v>0.570110302961221</v>
       </c>
       <c r="I16" s="4">
         <f>+I131</f>
-        <v>2.1596152733526632</v>
+        <v>2.6798794600737104</v>
       </c>
       <c r="J16" s="4">
         <f>+J131*J36</f>
-        <v>1.2957691640115978</v>
+        <v>1.6079276760442263</v>
       </c>
       <c r="K16" s="4">
         <f>+K131*K36</f>
-        <v>0.77746149840695877</v>
+        <v>0.96475660562653565</v>
       </c>
       <c r="L16" s="4">
         <f>+L131*L36</f>
-        <v>0.64788458200579901</v>
+        <v>0.80396383802211324</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -46723,43 +46723,43 @@
       <c r="B17" s="2"/>
       <c r="C17" s="4">
         <f t="shared" ref="C17:L17" si="16">+C15+C16</f>
-        <v>3.2318034504704651</v>
+        <v>3.6007354335819386</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" si="16"/>
-        <v>2.304638073099297</v>
+        <v>2.8249022598203442</v>
       </c>
       <c r="E17" s="4">
         <f t="shared" si="16"/>
-        <v>2.6192291731000932</v>
+        <v>2.8405883629669773</v>
       </c>
       <c r="F17" s="4">
         <f t="shared" si="16"/>
-        <v>2.2516846066778702</v>
+        <v>2.3845001205980005</v>
       </c>
       <c r="G17" s="4">
         <f t="shared" si="16"/>
-        <v>2.1597984650723143</v>
+        <v>2.2704780600057566</v>
       </c>
       <c r="H17" s="4">
         <f t="shared" si="16"/>
-        <v>0.96954103514113965</v>
+        <v>1.0802206300745816</v>
       </c>
       <c r="I17" s="4">
         <f t="shared" si="16"/>
-        <v>2.304638073099297</v>
+        <v>2.8249022598203442</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="16"/>
-        <v>1.4407919637582316</v>
+        <v>1.7529504757908601</v>
       </c>
       <c r="K17" s="4">
         <f t="shared" si="16"/>
-        <v>0.92248429815359256</v>
+        <v>1.1097794053731693</v>
       </c>
       <c r="L17" s="4">
         <f t="shared" si="16"/>
-        <v>0.7929073817524328</v>
+        <v>0.94898663776874703</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -47103,43 +47103,43 @@
       </c>
       <c r="C27" s="4">
         <f t="shared" si="29"/>
-        <v>1.5394257395344695</v>
+        <v>1.9102825723596002</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" ref="D27:G27" si="34">+D16*D$93/D$88</f>
-        <v>2.1708827563327633</v>
+        <v>2.6938613468373767</v>
       </c>
       <c r="E27" s="4">
         <f t="shared" ref="E27:F27" si="35">+E16*E$93/E$88</f>
-        <v>0.92365544372068153</v>
+        <v>1.1461695434157602</v>
       </c>
       <c r="F27" s="4">
         <f t="shared" si="35"/>
-        <v>0.55419326623240894</v>
+        <v>0.68770172604945612</v>
       </c>
       <c r="G27" s="4">
         <f t="shared" si="34"/>
-        <v>0.46182772186034093</v>
+        <v>0.57308477170788019</v>
       </c>
       <c r="H27" s="4">
         <f t="shared" si="32"/>
-        <v>0.46182772186034093</v>
+        <v>0.57308477170788019</v>
       </c>
       <c r="I27" s="4">
         <f t="shared" si="32"/>
-        <v>2.1708827563327633</v>
+        <v>2.6938613468373767</v>
       </c>
       <c r="J27" s="4">
         <f t="shared" si="32"/>
-        <v>1.302529653799658</v>
+        <v>1.616316808102426</v>
       </c>
       <c r="K27" s="4">
         <f t="shared" ref="K27:L27" si="36">+K16*K$93/K$88</f>
-        <v>0.7815177922797949</v>
+        <v>0.96979008486145546</v>
       </c>
       <c r="L27" s="4">
         <f t="shared" si="36"/>
-        <v>0.65126482689982912</v>
+        <v>0.80815840405121309</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -47149,43 +47149,43 @@
       <c r="B28" s="2"/>
       <c r="C28" s="4">
         <f t="shared" si="29"/>
-        <v>3.2486649215030692</v>
+        <v>3.6195217543282001</v>
       </c>
       <c r="D28" s="4">
         <f t="shared" ref="D28:G28" si="37">+D17*D$93/D$88</f>
-        <v>2.3166621917394772</v>
+        <v>2.8396407822440901</v>
       </c>
       <c r="E28" s="4">
         <f t="shared" ref="E28:F28" si="38">+E17*E$93/E$88</f>
-        <v>2.6328946256892811</v>
+        <v>2.8554087253843599</v>
       </c>
       <c r="F28" s="4">
         <f t="shared" si="38"/>
-        <v>2.2634324482010086</v>
+        <v>2.3969409080180557</v>
       </c>
       <c r="G28" s="4">
         <f t="shared" si="37"/>
-        <v>2.1710669038289407</v>
+        <v>2.2823239536764799</v>
       </c>
       <c r="H28" s="4">
         <f t="shared" si="32"/>
-        <v>0.97459947645092082</v>
+        <v>1.0858565262984601</v>
       </c>
       <c r="I28" s="4">
         <f t="shared" si="32"/>
-        <v>2.3166621917394772</v>
+        <v>2.8396407822440901</v>
       </c>
       <c r="J28" s="4">
         <f t="shared" si="32"/>
-        <v>1.4483090892063715</v>
+        <v>1.7620962435091396</v>
       </c>
       <c r="K28" s="4">
         <f t="shared" ref="K28:L28" si="39">+K17*K$93/K$88</f>
-        <v>0.92729722768650846</v>
+        <v>1.115569520268169</v>
       </c>
       <c r="L28" s="4">
         <f t="shared" si="39"/>
-        <v>0.79704426230654268</v>
+        <v>0.95393783945792665</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -48051,34 +48051,34 @@
         <v>278</v>
       </c>
       <c r="C47" s="75">
-        <v>4.7499999999999999E-3</v>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="D47" s="75">
-        <v>4.7499999999999999E-3</v>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="E47" s="75">
-        <v>4.7499999999999999E-3</v>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="F47" s="75">
-        <v>4.7499999999999999E-3</v>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="G47" s="75">
-        <v>4.7499999999999999E-3</v>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="H47" s="75">
-        <v>4.7499999999999999E-3</v>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="I47" s="75">
-        <v>4.7499999999999999E-3</v>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="J47" s="75">
-        <v>4.7499999999999999E-3</v>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="K47" s="75">
-        <v>4.7499999999999999E-3</v>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="L47" s="75">
-        <v>4.7499999999999999E-3</v>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="M47"/>
       <c r="N47"/>
@@ -48100,43 +48100,43 @@
       </c>
       <c r="C48" s="75">
         <f>C47* C39*44/28</f>
-        <v>4.294491974684371E-2</v>
+        <v>4.4301075107270348E-2</v>
       </c>
       <c r="D48" s="75">
         <f t="shared" ref="D48:L48" si="63">D47* D39*44/28</f>
-        <v>4.294491974684371E-2</v>
+        <v>4.4301075107270348E-2</v>
       </c>
       <c r="E48" s="75">
         <f t="shared" si="63"/>
-        <v>4.294491974684371E-2</v>
+        <v>4.4301075107270348E-2</v>
       </c>
       <c r="F48" s="75">
         <f t="shared" si="63"/>
-        <v>4.294491974684371E-2</v>
+        <v>4.4301075107270348E-2</v>
       </c>
       <c r="G48" s="75">
         <f t="shared" si="63"/>
-        <v>4.294491974684371E-2</v>
+        <v>4.4301075107270348E-2</v>
       </c>
       <c r="H48" s="75">
         <f t="shared" si="63"/>
-        <v>4.294491974684371E-2</v>
+        <v>4.4301075107270348E-2</v>
       </c>
       <c r="I48" s="75">
         <f t="shared" si="63"/>
-        <v>4.294491974684371E-2</v>
+        <v>4.4301075107270348E-2</v>
       </c>
       <c r="J48" s="75">
         <f t="shared" si="63"/>
-        <v>4.294491974684371E-2</v>
+        <v>4.4301075107270348E-2</v>
       </c>
       <c r="K48" s="75">
         <f t="shared" si="63"/>
-        <v>4.294491974684371E-2</v>
+        <v>4.4301075107270348E-2</v>
       </c>
       <c r="L48" s="75">
         <f t="shared" si="63"/>
-        <v>4.294491974684371E-2</v>
+        <v>4.4301075107270348E-2</v>
       </c>
       <c r="M48"/>
       <c r="N48"/>
@@ -50984,43 +50984,43 @@
       </c>
       <c r="C126" s="3">
         <f t="shared" ref="C126:L126" si="158">VS_kvæg_tot_omsat_lager</f>
-        <v>0.40388440967981065</v>
+        <v>0.50118257038654102</v>
       </c>
       <c r="D126" s="3">
         <f t="shared" si="158"/>
-        <v>0.40388440967981065</v>
+        <v>0.50118257038654102</v>
       </c>
       <c r="E126" s="3">
         <f t="shared" si="158"/>
-        <v>0.40388440967981065</v>
+        <v>0.50118257038654102</v>
       </c>
       <c r="F126" s="3">
         <f t="shared" si="158"/>
-        <v>0.40388440967981065</v>
+        <v>0.50118257038654102</v>
       </c>
       <c r="G126" s="3">
         <f t="shared" si="158"/>
-        <v>0.40388440967981065</v>
+        <v>0.50118257038654102</v>
       </c>
       <c r="H126" s="3">
         <f t="shared" si="158"/>
-        <v>0.40388440967981065</v>
+        <v>0.50118257038654102</v>
       </c>
       <c r="I126" s="3">
         <f t="shared" si="158"/>
-        <v>0.40388440967981065</v>
+        <v>0.50118257038654102</v>
       </c>
       <c r="J126" s="3">
         <f t="shared" si="158"/>
-        <v>0.40388440967981065</v>
+        <v>0.50118257038654102</v>
       </c>
       <c r="K126" s="3">
         <f t="shared" si="158"/>
-        <v>0.40388440967981065</v>
+        <v>0.50118257038654102</v>
       </c>
       <c r="L126" s="3">
         <f t="shared" si="158"/>
-        <v>0.40388440967981065</v>
+        <v>0.50118257038654102</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
@@ -51030,43 +51030,43 @@
       <c r="B127" s="2"/>
       <c r="C127" s="4">
         <f t="shared" ref="C127:H127" si="159">+C126*C123</f>
-        <v>10.209571289506199</v>
+        <v>12.669117843582686</v>
       </c>
       <c r="D127" s="4">
         <f t="shared" si="159"/>
-        <v>14.397435155684422</v>
+        <v>17.86586306715807</v>
       </c>
       <c r="E127" s="4">
         <f t="shared" si="159"/>
-        <v>10.209571289506199</v>
+        <v>12.669117843582686</v>
       </c>
       <c r="F127" s="4">
         <f t="shared" si="159"/>
-        <v>10.209571289506199</v>
+        <v>12.669117843582686</v>
       </c>
       <c r="G127" s="4">
         <f t="shared" si="159"/>
-        <v>10.209571289506199</v>
+        <v>12.669117843582686</v>
       </c>
       <c r="H127" s="4">
         <f t="shared" si="159"/>
-        <v>10.209571289506199</v>
+        <v>12.669117843582686</v>
       </c>
       <c r="I127" s="4">
         <f t="shared" ref="I127:L127" si="160">+I126*I123</f>
-        <v>14.397435155684422</v>
+        <v>17.86586306715807</v>
       </c>
       <c r="J127" s="4">
         <f t="shared" ref="J127:K127" si="161">+J126*J123</f>
-        <v>14.397435155684422</v>
+        <v>17.86586306715807</v>
       </c>
       <c r="K127" s="4">
         <f t="shared" si="161"/>
-        <v>14.397435155684422</v>
+        <v>17.86586306715807</v>
       </c>
       <c r="L127" s="4">
         <f t="shared" si="160"/>
-        <v>14.397435155684422</v>
+        <v>17.86586306715807</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
@@ -51076,43 +51076,43 @@
       <c r="B128" s="2"/>
       <c r="C128" s="4">
         <f t="shared" ref="C128:H128" si="162">+C124*C126</f>
-        <v>20.421410766772997</v>
+        <v>25.341050294871764</v>
       </c>
       <c r="D128" s="4">
         <f t="shared" si="162"/>
-        <v>20.421410766772997</v>
+        <v>25.341050294871764</v>
       </c>
       <c r="E128" s="4">
         <f t="shared" si="162"/>
-        <v>20.421410766772997</v>
+        <v>25.341050294871764</v>
       </c>
       <c r="F128" s="4">
         <f t="shared" si="162"/>
-        <v>20.421410766772997</v>
+        <v>25.341050294871764</v>
       </c>
       <c r="G128" s="4">
         <f t="shared" si="162"/>
-        <v>20.421410766772997</v>
+        <v>25.341050294871764</v>
       </c>
       <c r="H128" s="4">
         <f t="shared" si="162"/>
-        <v>20.421410766772997</v>
+        <v>25.341050294871764</v>
       </c>
       <c r="I128" s="4">
         <f t="shared" ref="I128:L128" si="163">+I124*I126</f>
-        <v>20.421410766772997</v>
+        <v>25.341050294871764</v>
       </c>
       <c r="J128" s="4">
         <f t="shared" ref="J128:K128" si="164">+J124*J126</f>
-        <v>20.421410766772997</v>
+        <v>25.341050294871764</v>
       </c>
       <c r="K128" s="4">
         <f t="shared" si="164"/>
-        <v>20.421410766772997</v>
+        <v>25.341050294871764</v>
       </c>
       <c r="L128" s="4">
         <f t="shared" si="163"/>
-        <v>20.421410766772997</v>
+        <v>25.341050294871764</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
@@ -51122,43 +51122,43 @@
       <c r="B129" s="2"/>
       <c r="C129" s="4">
         <f t="shared" ref="C129:J129" si="165">+C127/C64</f>
-        <v>1.5314356934259297</v>
+        <v>1.9003676765374029</v>
       </c>
       <c r="D129" s="4">
         <f t="shared" ref="D129:G129" si="166">+D127/D64</f>
-        <v>2.1596152733526632</v>
+        <v>2.6798794600737104</v>
       </c>
       <c r="E129" s="4">
         <f t="shared" ref="E129:F129" si="167">+E127/E64</f>
-        <v>1.5314356934259297</v>
+        <v>1.9003676765374029</v>
       </c>
       <c r="F129" s="4">
         <f t="shared" si="167"/>
-        <v>1.5314356934259297</v>
+        <v>1.9003676765374029</v>
       </c>
       <c r="G129" s="4">
         <f t="shared" si="166"/>
-        <v>1.5314356934259297</v>
+        <v>1.9003676765374029</v>
       </c>
       <c r="H129" s="4">
         <f t="shared" ref="H129" si="168">+H127/H64</f>
-        <v>1.5314356934259297</v>
+        <v>1.9003676765374029</v>
       </c>
       <c r="I129" s="4">
         <f t="shared" si="165"/>
-        <v>2.1596152733526632</v>
+        <v>2.6798794600737104</v>
       </c>
       <c r="J129" s="4">
         <f t="shared" si="165"/>
-        <v>2.1596152733526632</v>
+        <v>2.6798794600737104</v>
       </c>
       <c r="K129" s="4">
         <f t="shared" ref="K129:L129" si="169">+K127/K64</f>
-        <v>2.1596152733526632</v>
+        <v>2.6798794600737104</v>
       </c>
       <c r="L129" s="4">
         <f t="shared" si="169"/>
-        <v>2.1596152733526632</v>
+        <v>2.6798794600737104</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
@@ -51168,43 +51168,43 @@
       <c r="B130" s="2"/>
       <c r="C130" s="4">
         <f t="shared" ref="C130:J130" si="170">+C128/C64</f>
-        <v>3.0632116150159492</v>
+        <v>3.8011575442307644</v>
       </c>
       <c r="D130" s="4">
         <f t="shared" ref="D130:G130" si="171">+D128/D64</f>
-        <v>3.0632116150159492</v>
+        <v>3.8011575442307644</v>
       </c>
       <c r="E130" s="4">
         <f t="shared" ref="E130:F130" si="172">+E128/E64</f>
-        <v>3.0632116150159492</v>
+        <v>3.8011575442307644</v>
       </c>
       <c r="F130" s="4">
         <f t="shared" si="172"/>
-        <v>3.0632116150159492</v>
+        <v>3.8011575442307644</v>
       </c>
       <c r="G130" s="4">
         <f t="shared" si="171"/>
-        <v>3.0632116150159492</v>
+        <v>3.8011575442307644</v>
       </c>
       <c r="H130" s="4">
         <f t="shared" ref="H130" si="173">+H128/H64</f>
-        <v>3.0632116150159492</v>
+        <v>3.8011575442307644</v>
       </c>
       <c r="I130" s="4">
         <f t="shared" si="170"/>
-        <v>3.0632116150159492</v>
+        <v>3.8011575442307644</v>
       </c>
       <c r="J130" s="4">
         <f t="shared" si="170"/>
-        <v>3.0632116150159492</v>
+        <v>3.8011575442307644</v>
       </c>
       <c r="K130" s="4">
         <f t="shared" ref="K130:L130" si="174">+K128/K64</f>
-        <v>3.0632116150159492</v>
+        <v>3.8011575442307644</v>
       </c>
       <c r="L130" s="4">
         <f t="shared" si="174"/>
-        <v>3.0632116150159492</v>
+        <v>3.8011575442307644</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
@@ -51214,43 +51214,43 @@
       <c r="B131" s="2"/>
       <c r="C131" s="4">
         <f t="shared" ref="C131:L131" si="175">+SUM(C129)</f>
-        <v>1.5314356934259297</v>
+        <v>1.9003676765374029</v>
       </c>
       <c r="D131" s="4">
         <f t="shared" si="175"/>
-        <v>2.1596152733526632</v>
+        <v>2.6798794600737104</v>
       </c>
       <c r="E131" s="4">
         <f t="shared" si="175"/>
-        <v>1.5314356934259297</v>
+        <v>1.9003676765374029</v>
       </c>
       <c r="F131" s="4">
         <f t="shared" si="175"/>
-        <v>1.5314356934259297</v>
+        <v>1.9003676765374029</v>
       </c>
       <c r="G131" s="4">
         <f t="shared" si="175"/>
-        <v>1.5314356934259297</v>
+        <v>1.9003676765374029</v>
       </c>
       <c r="H131" s="4">
         <f t="shared" si="175"/>
-        <v>1.5314356934259297</v>
+        <v>1.9003676765374029</v>
       </c>
       <c r="I131" s="4">
         <f t="shared" si="175"/>
-        <v>2.1596152733526632</v>
+        <v>2.6798794600737104</v>
       </c>
       <c r="J131" s="4">
         <f t="shared" si="175"/>
-        <v>2.1596152733526632</v>
+        <v>2.6798794600737104</v>
       </c>
       <c r="K131" s="4">
         <f t="shared" si="175"/>
-        <v>2.1596152733526632</v>
+        <v>2.6798794600737104</v>
       </c>
       <c r="L131" s="4">
         <f t="shared" si="175"/>
-        <v>2.1596152733526632</v>
+        <v>2.6798794600737104</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
@@ -52086,8 +52086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T73"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52207,15 +52207,14 @@
         <v>1.5</v>
       </c>
       <c r="C6">
-        <f>+ROUND(B6*0.5011+5.1886,1)</f>
-        <v>5.9</v>
+        <v>8.43</v>
       </c>
       <c r="D6" s="7">
         <v>1</v>
       </c>
       <c r="E6" s="11">
         <f>+(1-EXP(Ln_A-E_a/(R_*(C6+273.15)))*VS_tot_CH4*24/1000)^30</f>
-        <v>0.88022513660353319</v>
+        <v>0.83966651849357965</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -52232,22 +52231,21 @@
         <v>1.2</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:C17" si="0">+ROUND(B7*0.5011+5.1886,1)</f>
-        <v>5.8</v>
+        <v>5.7069999999999999</v>
       </c>
       <c r="D7" s="7">
         <v>1</v>
       </c>
       <c r="E7" s="11">
-        <f t="shared" ref="E7:E17" si="1">+(1-EXP(Ln_A-E_a/(R_*(C7+273.15)))*VS_tot_CH4*24/1000)^30</f>
-        <v>0.88162661094096018</v>
+        <f t="shared" ref="E7:E17" si="0">+(1-EXP(Ln_A-E_a/(R_*(C7+273.15)))*VS_tot_CH4*24/1000)^30</f>
+        <v>0.88291711536767625</v>
       </c>
       <c r="G7">
         <v>5</v>
       </c>
       <c r="H7" s="8">
         <f>+LOOKUP($G7,Måned_VS_tot_t30)*H6</f>
-        <v>0.78948871930879538</v>
+        <v>0.7767201383172383</v>
       </c>
       <c r="I7" s="8">
         <v>1</v>
@@ -52272,26 +52270,25 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
-        <v>6.7</v>
+        <v>6.0670000000000002</v>
       </c>
       <c r="D8" s="7">
         <v>1</v>
       </c>
       <c r="E8" s="11">
-        <f t="shared" si="1"/>
-        <v>0.86848409857811071</v>
+        <f t="shared" si="0"/>
+        <v>0.87785241670175851</v>
       </c>
       <c r="G8">
         <v>6</v>
       </c>
       <c r="H8" s="8">
-        <f t="shared" ref="H8:H18" si="2">+LOOKUP($G8,Måned_VS_tot_t30)*H7</f>
-        <v>0.59269695352089491</v>
+        <f t="shared" ref="H8:H18" si="1">+LOOKUP($G8,Måned_VS_tot_t30)*H7</f>
+        <v>0.51183575687765859</v>
       </c>
       <c r="I8" s="8">
-        <f t="shared" ref="I8:I18" si="3">+LOOKUP($G8,Måned_VS_tot_t30)*I7</f>
-        <v>0.75073517711539506</v>
+        <f t="shared" ref="I8:I18" si="2">+LOOKUP($G8,Måned_VS_tot_t30)*I7</f>
+        <v>0.65897062742128598</v>
       </c>
       <c r="J8" s="8">
         <v>1</v>
@@ -52315,30 +52312,29 @@
         <v>7.5</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
-        <v>8.9</v>
+        <v>8.4269999999999996</v>
       </c>
       <c r="D9" s="7">
         <v>1</v>
       </c>
       <c r="E9" s="11">
-        <f t="shared" si="1"/>
-        <v>0.83097195501232524</v>
+        <f t="shared" si="0"/>
+        <v>0.83972078482117551</v>
       </c>
       <c r="G9">
         <v>7</v>
       </c>
       <c r="H9" s="8">
+        <f t="shared" si="1"/>
+        <v>0.2691441340483498</v>
+      </c>
+      <c r="I9" s="8">
         <f t="shared" si="2"/>
-        <v>0.42232359015942189</v>
-      </c>
-      <c r="I9" s="8">
-        <f t="shared" si="3"/>
-        <v>0.53493302669247766</v>
+        <v>0.34651365501021991</v>
       </c>
       <c r="J9" s="8">
-        <f t="shared" ref="J9:J18" si="4">+LOOKUP($G9,Måned_VS_tot_t30)*J8</f>
-        <v>0.71254557265837759</v>
+        <f t="shared" ref="J9:J18" si="3">+LOOKUP($G9,Måned_VS_tot_t30)*J8</f>
+        <v>0.52584081989543752</v>
       </c>
       <c r="K9" s="8">
         <v>1</v>
@@ -52361,34 +52357,33 @@
         <v>11.4</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
-        <v>10.9</v>
+        <v>11.451000000000001</v>
       </c>
       <c r="D10" s="7">
         <v>1</v>
       </c>
       <c r="E10" s="11">
-        <f t="shared" si="1"/>
-        <v>0.78948871930879538</v>
+        <f t="shared" si="0"/>
+        <v>0.7767201383172383</v>
       </c>
       <c r="G10">
         <v>8</v>
       </c>
       <c r="H10" s="8">
+        <f t="shared" si="1"/>
+        <v>0.1436142602631221</v>
+      </c>
+      <c r="I10" s="8">
         <f t="shared" si="2"/>
-        <v>0.30213371607958767</v>
-      </c>
-      <c r="I10" s="8">
+        <v>0.1848983349063949</v>
+      </c>
+      <c r="J10" s="8">
         <f t="shared" si="3"/>
-        <v>0.38269541880738778</v>
-      </c>
-      <c r="J10" s="8">
-        <f t="shared" si="4"/>
-        <v>0.50976087237292722</v>
+        <v>0.28058661071123536</v>
       </c>
       <c r="K10" s="8">
-        <f t="shared" ref="K10:K18" si="5">+LOOKUP($G10,Måned_VS_tot_t30)*K9</f>
-        <v>0.71540809729699439</v>
+        <f t="shared" ref="K10:K18" si="4">+LOOKUP($G10,Måned_VS_tot_t30)*K9</f>
+        <v>0.53359609998902235</v>
       </c>
       <c r="L10" s="8">
         <v>1</v>
@@ -52410,38 +52405,37 @@
         <v>14.6</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
-        <v>12.5</v>
+        <v>15.654</v>
       </c>
       <c r="D11" s="7">
         <v>1</v>
       </c>
       <c r="E11" s="11">
-        <f t="shared" si="1"/>
-        <v>0.75073517711539506</v>
+        <f t="shared" si="0"/>
+        <v>0.65897062742128598</v>
       </c>
       <c r="G11">
         <v>9</v>
       </c>
       <c r="H11" s="8">
+        <f t="shared" si="1"/>
+        <v>8.1857880433454738E-2</v>
+      </c>
+      <c r="I11" s="8">
         <f t="shared" si="2"/>
-        <v>0.22989536968482005</v>
-      </c>
-      <c r="I11" s="8">
+        <v>0.1053891567827758</v>
+      </c>
+      <c r="J11" s="8">
         <f t="shared" si="3"/>
-        <v>0.29119525594500645</v>
-      </c>
-      <c r="J11" s="8">
+        <v>0.15992997623458494</v>
+      </c>
+      <c r="K11" s="8">
         <f t="shared" si="4"/>
-        <v>0.38788012713602604</v>
-      </c>
-      <c r="K11" s="8">
-        <f t="shared" si="5"/>
-        <v>0.54435834284804552</v>
+        <v>0.3041414249019061</v>
       </c>
       <c r="L11" s="8">
-        <f t="shared" ref="L11:L18" si="6">+LOOKUP($G11,Måned_VS_tot_t30)*L10</f>
-        <v>0.76090604076858903</v>
+        <f t="shared" ref="L11:L18" si="5">+LOOKUP($G11,Måned_VS_tot_t30)*L10</f>
+        <v>0.56998434753957761</v>
       </c>
       <c r="M11" s="8">
         <v>1</v>
@@ -52462,42 +52456,41 @@
         <v>17.399999999999999</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
-        <v>13.9</v>
+        <v>19.37</v>
       </c>
       <c r="D12" s="7">
         <v>1</v>
       </c>
       <c r="E12" s="11">
-        <f t="shared" si="1"/>
-        <v>0.71254557265837759</v>
+        <f t="shared" si="0"/>
+        <v>0.52584081989543752</v>
       </c>
       <c r="G12">
         <v>10</v>
       </c>
       <c r="H12" s="8">
+        <f t="shared" si="1"/>
+        <v>5.5815071728743747E-2</v>
+      </c>
+      <c r="I12" s="8">
         <f t="shared" si="2"/>
-        <v>0.18648226554716929</v>
-      </c>
-      <c r="I12" s="8">
+        <v>7.185995183499029E-2</v>
+      </c>
+      <c r="J12" s="8">
         <f t="shared" si="3"/>
-        <v>0.23620637127080954</v>
-      </c>
-      <c r="J12" s="8">
+        <v>0.10904879344348918</v>
+      </c>
+      <c r="K12" s="8">
         <f t="shared" si="4"/>
-        <v>0.31463341331413647</v>
-      </c>
-      <c r="K12" s="8">
+        <v>0.20737985587572555</v>
+      </c>
+      <c r="L12" s="8">
         <f t="shared" si="5"/>
-        <v>0.44156251247242556</v>
-      </c>
-      <c r="L12" s="8">
-        <f t="shared" si="6"/>
-        <v>0.61721766099764375</v>
+        <v>0.38864574887258729</v>
       </c>
       <c r="M12" s="8">
-        <f t="shared" ref="M12:M18" si="7">+LOOKUP($G12,Måned_VS_tot_t30)*M11</f>
-        <v>0.8111614679444441</v>
+        <f t="shared" ref="M12:M18" si="6">+LOOKUP($G12,Måned_VS_tot_t30)*M11</f>
+        <v>0.6818533711499879</v>
       </c>
       <c r="N12" s="8">
         <v>1</v>
@@ -52517,46 +52510,45 @@
         <v>17.2</v>
       </c>
       <c r="C13">
-        <f t="shared" si="0"/>
-        <v>13.8</v>
+        <v>19.170000000000002</v>
       </c>
       <c r="D13" s="7">
         <v>1</v>
       </c>
       <c r="E13" s="11">
-        <f t="shared" si="1"/>
-        <v>0.71540809729699439</v>
+        <f t="shared" si="0"/>
+        <v>0.53359609998902235</v>
       </c>
       <c r="G13">
         <v>11</v>
       </c>
       <c r="H13" s="8">
+        <f t="shared" si="1"/>
+        <v>4.1931154699492025E-2</v>
+      </c>
+      <c r="I13" s="8">
         <f t="shared" si="2"/>
-        <v>0.15800423909782982</v>
-      </c>
-      <c r="I13" s="8">
+        <v>5.3984894469629348E-2</v>
+      </c>
+      <c r="J13" s="8">
         <f t="shared" si="3"/>
-        <v>0.20013489139675605</v>
-      </c>
-      <c r="J13" s="8">
+        <v>8.1923066405684128E-2</v>
+      </c>
+      <c r="K13" s="8">
         <f t="shared" si="4"/>
-        <v>0.26658520540591829</v>
-      </c>
-      <c r="K13" s="8">
+        <v>0.15579442163119703</v>
+      </c>
+      <c r="L13" s="8">
         <f t="shared" si="5"/>
-        <v>0.37413074424325943</v>
-      </c>
-      <c r="L13" s="8">
+        <v>0.29197069025504907</v>
+      </c>
+      <c r="M13" s="8">
         <f t="shared" si="6"/>
-        <v>0.52296129391996926</v>
-      </c>
-      <c r="M13" s="8">
-        <f t="shared" si="7"/>
-        <v>0.68728760963932889</v>
+        <v>0.512243347585568</v>
       </c>
       <c r="N13" s="8">
-        <f t="shared" ref="N13:N18" si="8">+LOOKUP($G13,Måned_VS_tot_t30)*N12</f>
-        <v>0.84728828574781456</v>
+        <f t="shared" ref="N13:N18" si="7">+LOOKUP($G13,Måned_VS_tot_t30)*N12</f>
+        <v>0.75125147027085593</v>
       </c>
       <c r="O13" s="8">
         <v>1</v>
@@ -52575,50 +52567,49 @@
         <v>13.8</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
-        <v>12.1</v>
+        <v>18.21</v>
       </c>
       <c r="D14" s="7">
         <v>1</v>
       </c>
       <c r="E14" s="11">
-        <f t="shared" si="1"/>
-        <v>0.76090604076858903</v>
+        <f t="shared" si="0"/>
+        <v>0.56998434753957761</v>
       </c>
       <c r="G14">
         <v>12</v>
       </c>
       <c r="H14" s="8">
+        <f t="shared" si="1"/>
+        <v>3.3766516758720007E-2</v>
+      </c>
+      <c r="I14" s="8">
         <f t="shared" si="2"/>
-        <v>0.13817055080905125</v>
-      </c>
-      <c r="I14" s="8">
+        <v>4.3473208808355417E-2</v>
+      </c>
+      <c r="J14" s="8">
         <f t="shared" si="3"/>
-        <v>0.17501269800285532</v>
-      </c>
-      <c r="J14" s="8">
+        <v>6.5971390831905161E-2</v>
+      </c>
+      <c r="K14" s="8">
         <f t="shared" si="4"/>
-        <v>0.23312174963656218</v>
-      </c>
-      <c r="K14" s="8">
+        <v>0.12545886195184211</v>
+      </c>
+      <c r="L14" s="8">
         <f t="shared" si="5"/>
-        <v>0.32716749437769638</v>
-      </c>
-      <c r="L14" s="8">
+        <v>0.23511952571321859</v>
+      </c>
+      <c r="M14" s="8">
         <f t="shared" si="6"/>
-        <v>0.45731589510074577</v>
-      </c>
-      <c r="M14" s="8">
+        <v>0.41250172347389374</v>
+      </c>
+      <c r="N14" s="8">
         <f t="shared" si="7"/>
-        <v>0.60101493561387986</v>
-      </c>
-      <c r="N14" s="8">
-        <f t="shared" si="8"/>
-        <v>0.74093131807272061</v>
+        <v>0.60497130457562165</v>
       </c>
       <c r="O14" s="8">
         <f>+LOOKUP($G14,Måned_VS_tot_t30)*O13</f>
-        <v>0.8744736951234684</v>
+        <v>0.80528468630817529</v>
       </c>
       <c r="P14" s="8">
         <v>1</v>
@@ -52636,54 +52627,53 @@
         <v>9.4</v>
       </c>
       <c r="C15">
-        <f t="shared" si="0"/>
-        <v>9.9</v>
+        <v>14.93</v>
       </c>
       <c r="D15" s="7">
         <v>1</v>
       </c>
       <c r="E15" s="11">
-        <f t="shared" si="1"/>
-        <v>0.8111614679444441</v>
+        <f t="shared" si="0"/>
+        <v>0.6818533711499879</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="H15" s="8">
+        <f t="shared" si="1"/>
+        <v>2.835261356844954E-2</v>
+      </c>
+      <c r="I15" s="8">
         <f t="shared" si="2"/>
-        <v>0.12162119196048256</v>
-      </c>
-      <c r="I15" s="8">
+        <v>3.6502997887856214E-2</v>
+      </c>
+      <c r="J15" s="8">
         <f t="shared" si="3"/>
-        <v>0.15405057600691621</v>
-      </c>
-      <c r="J15" s="8">
+        <v>5.5393968060005065E-2</v>
+      </c>
+      <c r="K15" s="8">
         <f t="shared" si="4"/>
-        <v>0.2051996239190976</v>
-      </c>
-      <c r="K15" s="8">
+        <v>0.1053436058292699</v>
+      </c>
+      <c r="L15" s="8">
         <f t="shared" si="5"/>
-        <v>0.28798105243084349</v>
-      </c>
-      <c r="L15" s="8">
+        <v>0.19742199358547993</v>
+      </c>
+      <c r="M15" s="8">
         <f t="shared" si="6"/>
-        <v>0.40254094623602099</v>
-      </c>
-      <c r="M15" s="8">
+        <v>0.34636388602192569</v>
+      </c>
+      <c r="N15" s="8">
         <f t="shared" si="7"/>
-        <v>0.52902845380149111</v>
-      </c>
-      <c r="N15" s="8">
-        <f t="shared" si="8"/>
-        <v>0.65218637066439644</v>
+        <v>0.50797414910153127</v>
       </c>
       <c r="O15" s="8">
         <f>+LOOKUP($G15,Måned_VS_tot_t30)*O14</f>
-        <v>0.76973372774625137</v>
+        <v>0.67617058894857995</v>
       </c>
       <c r="P15" s="8">
         <f>+LOOKUP($G15,Måned_VS_tot_t30)*P14</f>
-        <v>0.88022513660353319</v>
+        <v>0.83966651849357965</v>
       </c>
       <c r="Q15" s="8">
         <v>1</v>
@@ -52700,58 +52690,57 @@
         <v>5.7</v>
       </c>
       <c r="C16">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <v>12.48</v>
       </c>
       <c r="D16" s="7">
         <v>1</v>
       </c>
       <c r="E16" s="11">
-        <f t="shared" si="1"/>
-        <v>0.84728828574781456</v>
+        <f t="shared" si="0"/>
+        <v>0.75125147027085593</v>
       </c>
       <c r="G16">
         <v>2</v>
       </c>
       <c r="H16" s="8">
+        <f t="shared" si="1"/>
+        <v>2.5033007784989906E-2</v>
+      </c>
+      <c r="I16" s="8">
         <f t="shared" si="2"/>
-        <v>0.10722447928672019</v>
-      </c>
-      <c r="I16" s="8">
+        <v>3.2229121597418385E-2</v>
+      </c>
+      <c r="J16" s="8">
         <f t="shared" si="3"/>
-        <v>0.13581508723848035</v>
-      </c>
-      <c r="J16" s="8">
+        <v>4.8908282488308863E-2</v>
+      </c>
+      <c r="K16" s="8">
         <f t="shared" si="4"/>
-        <v>0.18090944900215361</v>
-      </c>
-      <c r="K16" s="8">
+        <v>9.30096725812085E-2</v>
+      </c>
+      <c r="L16" s="8">
         <f t="shared" si="5"/>
-        <v>0.2538917592698155</v>
-      </c>
-      <c r="L16" s="8">
+        <v>0.17430725708662784</v>
+      </c>
+      <c r="M16" s="8">
         <f t="shared" si="6"/>
-        <v>0.35489081019503044</v>
-      </c>
-      <c r="M16" s="8">
+        <v>0.30581060311401725</v>
+      </c>
+      <c r="N16" s="8">
         <f t="shared" si="7"/>
-        <v>0.46640556281634493</v>
-      </c>
-      <c r="N16" s="8">
-        <f t="shared" si="8"/>
-        <v>0.57498485967073665</v>
+        <v>0.44849907040607384</v>
       </c>
       <c r="O16" s="8">
         <f>+LOOKUP($G16,Måned_VS_tot_t30)*O15</f>
-        <v>0.67861773771987932</v>
+        <v>0.59700258589094302</v>
       </c>
       <c r="P16" s="8">
         <f>+LOOKUP($G16,Måned_VS_tot_t30)*P15</f>
-        <v>0.77602990404881667</v>
+        <v>0.74135594037917096</v>
       </c>
       <c r="Q16" s="8">
         <f>+LOOKUP($G16,Måned_VS_tot_t30)*Q15</f>
-        <v>0.88162661094096018</v>
+        <v>0.88291711536767625</v>
       </c>
       <c r="R16" s="8">
         <v>1</v>
@@ -52767,62 +52756,61 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C17">
-        <f t="shared" si="0"/>
-        <v>6.3</v>
+        <v>10.18</v>
       </c>
       <c r="D17" s="7">
         <v>1</v>
       </c>
       <c r="E17" s="11">
-        <f t="shared" si="1"/>
-        <v>0.8744736951234684</v>
+        <f t="shared" si="0"/>
+        <v>0.80528468630817529</v>
       </c>
       <c r="G17">
         <v>3</v>
       </c>
       <c r="H17" s="8">
+        <f t="shared" si="1"/>
+        <v>2.1975286381367323E-2</v>
+      </c>
+      <c r="I17" s="8">
         <f t="shared" si="2"/>
-        <v>9.3122755238834481E-2</v>
-      </c>
-      <c r="I17" s="8">
+        <v>2.8292412282468569E-2</v>
+      </c>
+      <c r="J17" s="8">
         <f t="shared" si="3"/>
-        <v>0.11795324361361907</v>
-      </c>
-      <c r="J17" s="8">
+        <v>4.2934253979094228E-2</v>
+      </c>
+      <c r="K17" s="8">
         <f t="shared" si="4"/>
-        <v>0.15711697974089806</v>
-      </c>
-      <c r="K17" s="8">
+        <v>8.1648765852053162E-2</v>
+      </c>
+      <c r="L17" s="8">
         <f t="shared" si="5"/>
-        <v>0.2205009556858564</v>
-      </c>
-      <c r="L17" s="8">
+        <v>0.15301604688215098</v>
+      </c>
+      <c r="M17" s="8">
         <f t="shared" si="6"/>
-        <v>0.30821702538588641</v>
-      </c>
-      <c r="M17" s="8">
+        <v>0.26845657699666237</v>
+      </c>
+      <c r="N17" s="8">
         <f t="shared" si="7"/>
-        <v>0.40506581479436971</v>
-      </c>
-      <c r="N17" s="8">
-        <f t="shared" si="8"/>
-        <v>0.49936520754720121</v>
+        <v>0.39371599284446407</v>
       </c>
       <c r="O17" s="8">
         <f>+LOOKUP($G17,Måned_VS_tot_t30)*O16</f>
-        <v>0.58936871422276615</v>
+        <v>0.52408016280156344</v>
       </c>
       <c r="P17" s="8">
         <f>+LOOKUP($G17,Måned_VS_tot_t30)*P16</f>
-        <v>0.67396963168749424</v>
+        <v>0.65080110389806001</v>
       </c>
       <c r="Q17" s="8">
         <f>+LOOKUP($G17,Måned_VS_tot_t30)*Q16</f>
-        <v>0.76567869248553455</v>
+        <v>0.77507092347285989</v>
       </c>
       <c r="R17" s="8">
         <f>+LOOKUP($G17,Måned_VS_tot_t30)*R16</f>
-        <v>0.86848409857811071</v>
+        <v>0.87785241670175851</v>
       </c>
       <c r="S17" s="8">
         <v>1</v>
@@ -52836,52 +52824,52 @@
         <v>4</v>
       </c>
       <c r="H18" s="8">
+        <f t="shared" si="1"/>
+        <v>1.845310472683186E-2</v>
+      </c>
+      <c r="I18" s="8">
         <f t="shared" si="2"/>
-        <v>7.7382397976948541E-2</v>
-      </c>
-      <c r="I18" s="8">
+        <v>2.3757726646318773E-2</v>
+      </c>
+      <c r="J18" s="8">
         <f t="shared" si="3"/>
-        <v>9.8015837445654105E-2</v>
-      </c>
-      <c r="J18" s="8">
+        <v>3.6052785447036682E-2</v>
+      </c>
+      <c r="K18" s="8">
         <f t="shared" si="4"/>
-        <v>0.13055980382092594</v>
-      </c>
-      <c r="K18" s="8">
+        <v>6.8562165740966477E-2</v>
+      </c>
+      <c r="L18" s="8">
         <f t="shared" si="5"/>
-        <v>0.18323011022836219</v>
-      </c>
-      <c r="L18" s="8">
+        <v>0.1284907549781136</v>
+      </c>
+      <c r="M18" s="8">
         <f t="shared" si="6"/>
-        <v>0.25611970415299351</v>
-      </c>
-      <c r="M18" s="8">
+        <v>0.22542856752604365</v>
+      </c>
+      <c r="N18" s="8">
         <f t="shared" si="7"/>
-        <v>0.33659833202833783</v>
-      </c>
-      <c r="N18" s="8">
-        <f t="shared" si="8"/>
-        <v>0.41495848278063335</v>
+        <v>0.3306115025080017</v>
       </c>
       <c r="O18" s="8">
         <f>+LOOKUP($G18,Måned_VS_tot_t30)*O17</f>
-        <v>0.48974887268079242</v>
+        <v>0.4400810056169383</v>
       </c>
       <c r="P18" s="8">
         <f>+LOOKUP($G18,Måned_VS_tot_t30)*P17</f>
-        <v>0.56004986246229382</v>
+        <v>0.54649121372776632</v>
       </c>
       <c r="Q18" s="8">
         <f>+LOOKUP($G18,Måned_VS_tot_t30)*Q17</f>
-        <v>0.63625752000598568</v>
+        <v>0.6508431641507032</v>
       </c>
       <c r="R18" s="8">
         <f>+LOOKUP($G18,Måned_VS_tot_t30)*R17</f>
-        <v>0.72168592929256969</v>
+        <v>0.73715092030996621</v>
       </c>
       <c r="S18" s="8">
         <f>+LOOKUP($G18,Måned_VS_tot_t30)*S17</f>
-        <v>0.83097195501232524</v>
+        <v>0.83972078482117551</v>
       </c>
       <c r="T18" s="8"/>
     </row>
@@ -52891,55 +52879,55 @@
       </c>
       <c r="H19" s="13">
         <f>1-MIN((H6:H18))</f>
-        <v>0.92261760202305143</v>
+        <v>0.98154689527316819</v>
       </c>
       <c r="I19" s="13">
-        <f t="shared" ref="I19:S19" si="9">1-MIN((I6:I18))</f>
-        <v>0.90198416255434588</v>
+        <f t="shared" ref="I19:S19" si="8">1-MIN((I6:I18))</f>
+        <v>0.97624227335368119</v>
       </c>
       <c r="J19" s="13">
-        <f t="shared" si="9"/>
-        <v>0.86944019617907409</v>
+        <f t="shared" si="8"/>
+        <v>0.96394721455296328</v>
       </c>
       <c r="K19" s="13">
-        <f t="shared" si="9"/>
-        <v>0.81676988977163778</v>
+        <f t="shared" si="8"/>
+        <v>0.93143783425903348</v>
       </c>
       <c r="L19" s="13">
-        <f t="shared" si="9"/>
-        <v>0.74388029584700655</v>
+        <f t="shared" si="8"/>
+        <v>0.87150924502188643</v>
       </c>
       <c r="M19" s="13">
-        <f t="shared" si="9"/>
-        <v>0.66340166797166211</v>
+        <f t="shared" si="8"/>
+        <v>0.77457143247395632</v>
       </c>
       <c r="N19" s="13">
-        <f t="shared" si="9"/>
-        <v>0.58504151721936659</v>
+        <f t="shared" si="8"/>
+        <v>0.66938849749199836</v>
       </c>
       <c r="O19" s="13">
-        <f t="shared" si="9"/>
-        <v>0.51025112731920763</v>
+        <f t="shared" si="8"/>
+        <v>0.5599189943830617</v>
       </c>
       <c r="P19" s="13">
-        <f t="shared" si="9"/>
-        <v>0.43995013753770618</v>
+        <f t="shared" si="8"/>
+        <v>0.45350878627223368</v>
       </c>
       <c r="Q19" s="13">
-        <f t="shared" si="9"/>
-        <v>0.36374247999401432</v>
+        <f t="shared" si="8"/>
+        <v>0.3491568358492968</v>
       </c>
       <c r="R19" s="13">
-        <f t="shared" si="9"/>
-        <v>0.27831407070743031</v>
+        <f t="shared" si="8"/>
+        <v>0.26284907969003379</v>
       </c>
       <c r="S19" s="13">
-        <f t="shared" si="9"/>
-        <v>0.16902804498767476</v>
+        <f t="shared" si="8"/>
+        <v>0.16027921517882449</v>
       </c>
       <c r="T19" s="8">
         <f>+AVERAGE((H19:S19))</f>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
@@ -52947,56 +52935,56 @@
         <v>214</v>
       </c>
       <c r="H20" s="15">
-        <f t="shared" ref="H20:S20" si="10">+H19/VS_tot_CH4</f>
-        <v>0.13832347856417562</v>
+        <f t="shared" ref="H20:S20" si="9">+H19/VS_tot_CH4</f>
+        <v>0.14715845506344349</v>
       </c>
       <c r="I20" s="15">
-        <f t="shared" si="10"/>
-        <v>0.13523000937846266</v>
+        <f t="shared" si="9"/>
+        <v>0.14636315942334052</v>
       </c>
       <c r="J20" s="15">
-        <f t="shared" si="10"/>
-        <v>0.13035085399986118</v>
+        <f t="shared" si="9"/>
+        <v>0.1445198222718086</v>
       </c>
       <c r="K20" s="15">
-        <f t="shared" si="10"/>
-        <v>0.12245425633757688</v>
+        <f t="shared" si="9"/>
+        <v>0.13964585221274864</v>
       </c>
       <c r="L20" s="15">
-        <f t="shared" si="10"/>
-        <v>0.11152628123643277</v>
+        <f t="shared" si="9"/>
+        <v>0.13066105622517038</v>
       </c>
       <c r="M20" s="15">
-        <f t="shared" si="10"/>
-        <v>9.9460519935781422E-2</v>
+        <f t="shared" si="9"/>
+        <v>0.11612765104557067</v>
       </c>
       <c r="N20" s="15">
-        <f t="shared" si="10"/>
-        <v>8.771237139720639E-2</v>
+        <f t="shared" si="9"/>
+        <v>0.10035809557601175</v>
       </c>
       <c r="O20" s="15">
-        <f t="shared" si="10"/>
-        <v>7.6499419388187051E-2</v>
+        <f t="shared" si="9"/>
+        <v>8.3945876219349583E-2</v>
       </c>
       <c r="P20" s="15">
-        <f t="shared" si="10"/>
-        <v>6.5959540860225818E-2</v>
+        <f t="shared" si="9"/>
+        <v>6.7992321779945075E-2</v>
       </c>
       <c r="Q20" s="15">
-        <f t="shared" si="10"/>
-        <v>5.4534104946628838E-2</v>
+        <f t="shared" si="9"/>
+        <v>5.2347351701543747E-2</v>
       </c>
       <c r="R20" s="15">
-        <f t="shared" si="10"/>
-        <v>4.1726247482373358E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.940765812444285E-2</v>
       </c>
       <c r="S20" s="15">
-        <f t="shared" si="10"/>
-        <v>2.5341535980161135E-2</v>
+        <f t="shared" si="9"/>
+        <v>2.4029867343152097E-2</v>
       </c>
       <c r="T20" s="15">
         <f>+AVERAGE((H20:S20))</f>
-        <v>9.0759884958922774E-2</v>
+        <v>9.937976391554397E-2</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
@@ -53119,15 +53107,14 @@
         <v>1.5</v>
       </c>
       <c r="C26">
-        <f>+ROUND(B26*0.5011+5.1886,1)</f>
-        <v>5.9</v>
+        <v>8.43</v>
       </c>
       <c r="D26" s="7">
         <v>1</v>
       </c>
       <c r="E26" s="11">
-        <f t="shared" ref="E26:E37" si="11">+(1-EXP(Ln_A_kvaeg-E_a/(R_*(C26+273.15)))*VS_tot_CH4*24/1000)^30</f>
-        <v>0.89099757627725096</v>
+        <f t="shared" ref="E26:E37" si="10">+(1-EXP(Ln_A_kvaeg-E_a/(R_*(C26+273.15)))*VS_tot_CH4*24/1000)^30</f>
+        <v>0.85378415071034086</v>
       </c>
       <c r="G26">
         <v>4</v>
@@ -53144,22 +53131,21 @@
         <v>1.2</v>
       </c>
       <c r="C27">
-        <f t="shared" ref="C27:C37" si="12">+ROUND(B27*0.5011+5.1886,1)</f>
-        <v>5.8</v>
+        <v>5.7069999999999999</v>
       </c>
       <c r="D27" s="7">
         <v>1</v>
       </c>
       <c r="E27" s="11">
-        <f t="shared" si="11"/>
-        <v>0.89228058750374817</v>
+        <f t="shared" si="10"/>
+        <v>0.8934618422782481</v>
       </c>
       <c r="G27">
         <v>5</v>
       </c>
       <c r="H27" s="8">
         <f>+LOOKUP($G27,Måned_VS_tot_kvaeg_t30)*H26</f>
-        <v>0.80751323951988851</v>
+        <v>0.79569596400302744</v>
       </c>
       <c r="I27" s="8">
         <v>1</v>
@@ -53184,26 +53170,25 @@
         <v>3</v>
       </c>
       <c r="C28">
-        <f t="shared" si="12"/>
-        <v>6.7</v>
+        <v>6.0670000000000002</v>
       </c>
       <c r="D28" s="7">
         <v>1</v>
       </c>
       <c r="E28" s="11">
-        <f t="shared" si="11"/>
-        <v>0.88024153536534622</v>
+        <f t="shared" si="10"/>
+        <v>0.88882498619132577</v>
       </c>
       <c r="G28">
         <v>6</v>
       </c>
       <c r="H28" s="8">
         <f>+LOOKUP($G28,Måned_VS_tot_kvaeg_t30)*H27</f>
-        <v>0.62306991474260365</v>
+        <v>0.54570660640648361</v>
       </c>
       <c r="I28" s="8">
         <f>+LOOKUP($G28,Måned_VS_tot_kvaeg_t30)*I27</f>
-        <v>0.77159095882199202</v>
+        <v>0.68582301669737677</v>
       </c>
       <c r="J28" s="8">
         <v>1</v>
@@ -53227,15 +53212,14 @@
         <v>7.5</v>
       </c>
       <c r="C29">
-        <f t="shared" si="12"/>
-        <v>8.9</v>
+        <v>8.4269999999999996</v>
       </c>
       <c r="D29" s="7">
         <v>1</v>
       </c>
       <c r="E29" s="11">
-        <f t="shared" si="11"/>
-        <v>0.84578531261431256</v>
+        <f t="shared" si="10"/>
+        <v>0.85383405059750295</v>
       </c>
       <c r="G29">
         <v>7</v>
@@ -53243,11 +53227,11 @@
       <c r="H29" s="8"/>
       <c r="I29" s="8">
         <f>+LOOKUP($G29,Måned_VS_tot_kvaeg_t30)*I28</f>
-        <v>0.56790842519794371</v>
+        <v>0.3836096855475204</v>
       </c>
       <c r="J29" s="8">
         <f>+LOOKUP($G29,Måned_VS_tot_kvaeg_t30)*J28</f>
-        <v>0.73602265384885313</v>
+        <v>0.55934209877471974</v>
       </c>
       <c r="K29" s="8">
         <v>1</v>
@@ -53270,15 +53254,14 @@
         <v>11.4</v>
       </c>
       <c r="C30">
-        <f t="shared" si="12"/>
-        <v>10.9</v>
+        <v>11.451000000000001</v>
       </c>
       <c r="D30" s="7">
         <v>1</v>
       </c>
       <c r="E30" s="11">
-        <f t="shared" si="11"/>
-        <v>0.80751323951988851</v>
+        <f t="shared" si="10"/>
+        <v>0.79569596400302744</v>
       </c>
       <c r="G30">
         <v>8</v>
@@ -53287,11 +53270,11 @@
       <c r="I30" s="8"/>
       <c r="J30" s="8">
         <f>+LOOKUP($G30,Måned_VS_tot_kvaeg_t30)*J29</f>
-        <v>0.54369605215157424</v>
+        <v>0.31702724893209899</v>
       </c>
       <c r="K30" s="8">
         <f>+LOOKUP($G30,Måned_VS_tot_kvaeg_t30)*K29</f>
-        <v>0.73869472537081127</v>
+        <v>0.56678596091116806</v>
       </c>
       <c r="L30" s="8">
         <v>1</v>
@@ -53313,15 +53296,14 @@
         <v>14.6</v>
       </c>
       <c r="C31">
-        <f t="shared" si="12"/>
-        <v>12.5</v>
+        <v>15.654</v>
       </c>
       <c r="D31" s="7">
         <v>1</v>
       </c>
       <c r="E31" s="11">
-        <f t="shared" si="11"/>
-        <v>0.77159095882199202</v>
+        <f t="shared" si="10"/>
+        <v>0.68582301669737677</v>
       </c>
       <c r="G31">
         <v>9</v>
@@ -53331,11 +53313,11 @@
       <c r="J31" s="8"/>
       <c r="K31" s="8">
         <f>+LOOKUP($G31,Måned_VS_tot_kvaeg_t30)*K30</f>
-        <v>0.57694647518702591</v>
+        <v>0.34096726228909841</v>
       </c>
       <c r="L31" s="8">
         <f>+LOOKUP($G31,Måned_VS_tot_kvaeg_t30)*L30</f>
-        <v>0.78103505463289902</v>
+        <v>0.60158028921703999</v>
       </c>
       <c r="M31" s="8">
         <v>1</v>
@@ -53356,15 +53338,14 @@
         <v>17.399999999999999</v>
       </c>
       <c r="C32">
-        <f t="shared" si="12"/>
-        <v>13.9</v>
+        <v>19.37</v>
       </c>
       <c r="D32" s="7">
         <v>1</v>
       </c>
       <c r="E32" s="11">
-        <f t="shared" si="11"/>
-        <v>0.73602265384885313</v>
+        <f t="shared" si="10"/>
+        <v>0.55934209877471974</v>
       </c>
       <c r="G32">
         <v>10</v>
@@ -53375,11 +53356,11 @@
       <c r="K32" s="8"/>
       <c r="L32" s="8">
         <f>+LOOKUP($G32,Måned_VS_tot_kvaeg_t30)*L31</f>
-        <v>0.64633068222308176</v>
+        <v>0.42550306958078699</v>
       </c>
       <c r="M32" s="8">
-        <f t="shared" ref="M32:M38" si="13">+LOOKUP($G32,Måned_VS_tot_kvaeg_t30)*M31</f>
-        <v>0.8275309518941748</v>
+        <f t="shared" ref="M32:M38" si="11">+LOOKUP($G32,Måned_VS_tot_kvaeg_t30)*M31</f>
+        <v>0.70730886168923779</v>
       </c>
       <c r="N32" s="8">
         <v>1</v>
@@ -53399,15 +53380,14 @@
         <v>17.2</v>
       </c>
       <c r="C33">
-        <f t="shared" si="12"/>
-        <v>13.8</v>
+        <v>19.170000000000002</v>
       </c>
       <c r="D33" s="7">
         <v>1</v>
       </c>
       <c r="E33" s="11">
-        <f t="shared" si="11"/>
-        <v>0.73869472537081127</v>
+        <f t="shared" si="10"/>
+        <v>0.56678596091116806</v>
       </c>
       <c r="G33">
         <v>11</v>
@@ -53418,12 +53398,12 @@
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
       <c r="M33" s="8">
-        <f t="shared" si="13"/>
-        <v>0.71233014943883921</v>
+        <f t="shared" si="11"/>
+        <v>0.54609240870450992</v>
       </c>
       <c r="N33" s="8">
-        <f t="shared" ref="N33:N38" si="14">+LOOKUP($G33,Måned_VS_tot_kvaeg_t30)*N32</f>
-        <v>0.8607897357897647</v>
+        <f t="shared" ref="N33:N38" si="12">+LOOKUP($G33,Måned_VS_tot_kvaeg_t30)*N32</f>
+        <v>0.77207064449934781</v>
       </c>
       <c r="O33" s="8">
         <v>1</v>
@@ -53442,15 +53422,14 @@
         <v>13.8</v>
       </c>
       <c r="C34">
-        <f t="shared" si="12"/>
-        <v>12.1</v>
+        <v>18.21</v>
       </c>
       <c r="D34" s="7">
         <v>1</v>
       </c>
       <c r="E34" s="11">
-        <f t="shared" si="11"/>
-        <v>0.78103505463289902</v>
+        <f t="shared" si="10"/>
+        <v>0.60158028921703999</v>
       </c>
       <c r="G34">
         <v>12</v>
@@ -53461,16 +53440,16 @@
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
       <c r="M34" s="8">
-        <f t="shared" si="13"/>
-        <v>0.63093240431763753</v>
+        <f t="shared" si="11"/>
+        <v>0.44894688293978535</v>
       </c>
       <c r="N34" s="8">
-        <f t="shared" si="14"/>
-        <v>0.7624275598072392</v>
+        <f t="shared" si="12"/>
+        <v>0.63472537565496245</v>
       </c>
       <c r="O34" s="8">
         <f>+LOOKUP($G34,Måned_VS_tot_kvaeg_t30)*O33</f>
-        <v>0.88573031032685423</v>
+        <v>0.82210789929275518</v>
       </c>
       <c r="P34" s="8">
         <v>1</v>
@@ -53488,15 +53467,14 @@
         <v>9.4</v>
       </c>
       <c r="C35">
-        <f t="shared" si="12"/>
-        <v>9.9</v>
+        <v>14.93</v>
       </c>
       <c r="D35" s="7">
         <v>1</v>
       </c>
       <c r="E35" s="11">
-        <f t="shared" si="11"/>
-        <v>0.8275309518941748</v>
+        <f t="shared" si="10"/>
+        <v>0.70730886168923779</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -53507,20 +53485,20 @@
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
       <c r="M35" s="8">
-        <f t="shared" si="13"/>
-        <v>0.56215924304179354</v>
+        <f t="shared" si="11"/>
+        <v>0.38330373316479943</v>
       </c>
       <c r="N35" s="8">
-        <f t="shared" si="14"/>
-        <v>0.67932110787522892</v>
+        <f t="shared" si="12"/>
+        <v>0.54191846578787417</v>
       </c>
       <c r="O35" s="8">
         <f>+LOOKUP($G35,Måned_VS_tot_kvaeg_t30)*O34</f>
-        <v>0.78918355973652443</v>
+        <v>0.70190269458992738</v>
       </c>
       <c r="P35" s="8">
         <f>+LOOKUP($G35,Måned_VS_tot_kvaeg_t30)*P34</f>
-        <v>0.89099757627725096</v>
+        <v>0.85378415071034086</v>
       </c>
       <c r="Q35" s="8">
         <v>1</v>
@@ -53537,15 +53515,14 @@
         <v>5.7</v>
       </c>
       <c r="C36">
-        <f t="shared" si="12"/>
-        <v>8</v>
+        <v>12.48</v>
       </c>
       <c r="D36" s="7">
         <v>1</v>
       </c>
       <c r="E36" s="11">
-        <f t="shared" si="11"/>
-        <v>0.8607897357897647</v>
+        <f t="shared" si="10"/>
+        <v>0.77207064449934781</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -53556,24 +53533,24 @@
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
       <c r="M36" s="8">
-        <f t="shared" si="13"/>
-        <v>0.50160377965199388</v>
+        <f t="shared" si="11"/>
+        <v>0.34246725958555174</v>
       </c>
       <c r="N36" s="8">
-        <f t="shared" si="14"/>
-        <v>0.60614503723860635</v>
+        <f t="shared" si="12"/>
+        <v>0.48418347080743585</v>
       </c>
       <c r="O36" s="8">
         <f>+LOOKUP($G36,Måned_VS_tot_kvaeg_t30)*O35</f>
-        <v>0.70417317033000537</v>
+        <v>0.62712327460838302</v>
       </c>
       <c r="P36" s="8">
         <f>+LOOKUP($G36,Måned_VS_tot_kvaeg_t30)*P35</f>
-        <v>0.79501984082508115</v>
+        <v>0.76282356020163056</v>
       </c>
       <c r="Q36" s="8">
         <f>+LOOKUP($G36,Måned_VS_tot_kvaeg_t30)*Q35</f>
-        <v>0.89228058750374817</v>
+        <v>0.8934618422782481</v>
       </c>
       <c r="R36" s="8">
         <v>1</v>
@@ -53589,15 +53566,14 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C37">
-        <f t="shared" si="12"/>
-        <v>6.3</v>
+        <v>10.18</v>
       </c>
       <c r="D37" s="7">
         <v>1</v>
       </c>
       <c r="E37" s="11">
-        <f t="shared" si="11"/>
-        <v>0.88573031032685423</v>
+        <f t="shared" si="10"/>
+        <v>0.82210789929275518</v>
       </c>
       <c r="G37">
         <v>3</v>
@@ -53608,28 +53584,28 @@
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
       <c r="M37" s="8">
-        <f t="shared" si="13"/>
-        <v>0.44153248114593191</v>
+        <f t="shared" si="11"/>
+        <v>0.3043934572721092</v>
       </c>
       <c r="N37" s="8">
-        <f t="shared" si="14"/>
-        <v>0.53355403823299585</v>
+        <f t="shared" si="12"/>
+        <v>0.43035436675448735</v>
       </c>
       <c r="O37" s="8">
         <f>+LOOKUP($G37,Måned_VS_tot_kvaeg_t30)*O36</f>
-        <v>0.61984247261436742</v>
+        <v>0.55740283589405504</v>
       </c>
       <c r="P37" s="8">
         <f>+LOOKUP($G37,Måned_VS_tot_kvaeg_t30)*P36</f>
-        <v>0.69980948533378262</v>
+        <v>0.67801664036263221</v>
       </c>
       <c r="Q37" s="8">
         <f>+LOOKUP($G37,Måned_VS_tot_kvaeg_t30)*Q36</f>
-        <v>0.78542243432099246</v>
+        <v>0.79413120962544037</v>
       </c>
       <c r="R37" s="8">
         <f>+LOOKUP($G37,Måned_VS_tot_kvaeg_t30)*R36</f>
-        <v>0.88024153536534622</v>
+        <v>0.88882498619132577</v>
       </c>
       <c r="S37" s="8">
         <v>1</v>
@@ -53648,32 +53624,32 @@
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
       <c r="M38" s="8">
-        <f t="shared" si="13"/>
-        <v>0.3734416875953851</v>
+        <f t="shared" si="11"/>
+        <v>0.25990149859802292</v>
       </c>
       <c r="N38" s="8">
-        <f t="shared" si="14"/>
-        <v>0.4512721690235233</v>
+        <f t="shared" si="12"/>
+        <v>0.36745121215830728</v>
       </c>
       <c r="O38" s="8">
         <f>+LOOKUP($G38,Måned_VS_tot_kvaeg_t30)*O37</f>
-        <v>0.52425365947177127</v>
+        <v>0.47592952118595622</v>
       </c>
       <c r="P38" s="8">
         <f>+LOOKUP($G38,Måned_VS_tot_kvaeg_t30)*P37</f>
-        <v>0.59188858432349456</v>
+        <v>0.57891369441333662</v>
       </c>
       <c r="Q38" s="8">
         <f>+LOOKUP($G38,Måned_VS_tot_kvaeg_t30)*Q37</f>
-        <v>0.66429875914647496</v>
+        <v>0.6780562674203845</v>
       </c>
       <c r="R38" s="8">
         <f>+LOOKUP($G38,Måned_VS_tot_kvaeg_t30)*R37</f>
-        <v>0.74449536216508183</v>
+        <v>0.75890903823200928</v>
       </c>
       <c r="S38" s="8">
         <f>+LOOKUP($G38,Måned_VS_tot_kvaeg_t30)*S37</f>
-        <v>0.84578531261431256</v>
+        <v>0.85383405059750295</v>
       </c>
       <c r="T38" s="8"/>
     </row>
@@ -53683,55 +53659,55 @@
       </c>
       <c r="H39" s="13">
         <f>1-MIN((H26:H38))</f>
-        <v>0.37693008525739635</v>
+        <v>0.45429339359351639</v>
       </c>
       <c r="I39" s="13">
         <f>1-MIN((I26:I38))</f>
-        <v>0.43209157480205629</v>
+        <v>0.6163903144524796</v>
       </c>
       <c r="J39" s="13">
-        <f t="shared" ref="J39:S39" si="15">1-MIN((J26:J38))</f>
-        <v>0.45630394784842576</v>
+        <f t="shared" ref="J39:S39" si="13">1-MIN((J26:J38))</f>
+        <v>0.68297275106790101</v>
       </c>
       <c r="K39" s="13">
-        <f t="shared" si="15"/>
-        <v>0.42305352481297409</v>
+        <f t="shared" si="13"/>
+        <v>0.65903273771090154</v>
       </c>
       <c r="L39" s="13">
-        <f t="shared" si="15"/>
-        <v>0.35366931777691824</v>
+        <f t="shared" si="13"/>
+        <v>0.57449693041921301</v>
       </c>
       <c r="M39" s="13">
-        <f t="shared" si="15"/>
-        <v>0.6265583124046149</v>
+        <f t="shared" si="13"/>
+        <v>0.74009850140197708</v>
       </c>
       <c r="N39" s="13">
-        <f t="shared" si="15"/>
-        <v>0.5487278309764767</v>
+        <f t="shared" si="13"/>
+        <v>0.63254878784169266</v>
       </c>
       <c r="O39" s="13">
-        <f t="shared" si="15"/>
-        <v>0.47574634052822873</v>
+        <f t="shared" si="13"/>
+        <v>0.52407047881404378</v>
       </c>
       <c r="P39" s="13">
-        <f t="shared" si="15"/>
-        <v>0.40811141567650544</v>
+        <f t="shared" si="13"/>
+        <v>0.42108630558666338</v>
       </c>
       <c r="Q39" s="13">
-        <f t="shared" si="15"/>
-        <v>0.33570124085352504</v>
+        <f t="shared" si="13"/>
+        <v>0.3219437325796155</v>
       </c>
       <c r="R39" s="13">
-        <f t="shared" si="15"/>
-        <v>0.25550463783491817</v>
+        <f t="shared" si="13"/>
+        <v>0.24109096176799072</v>
       </c>
       <c r="S39" s="13">
-        <f t="shared" si="15"/>
-        <v>0.15421468738568744</v>
+        <f t="shared" si="13"/>
+        <v>0.14616594940249705</v>
       </c>
       <c r="T39" s="8">
         <f>+AVERAGE((H39:S39))</f>
-        <v>0.40388440967981065</v>
+        <v>0.50118257038654102</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
@@ -53739,56 +53715,56 @@
         <v>214</v>
       </c>
       <c r="H40" s="15">
-        <f t="shared" ref="H40:S40" si="16">+H39/VS_tot_CH4</f>
-        <v>5.6511257160029436E-2</v>
+        <f t="shared" ref="H40:S40" si="14">+H39/VS_tot_CH4</f>
+        <v>6.8109954061996464E-2</v>
       </c>
       <c r="I40" s="15">
-        <f t="shared" si="16"/>
-        <v>6.4781345547534674E-2</v>
+        <f t="shared" si="14"/>
+        <v>9.2412340997373249E-2</v>
       </c>
       <c r="J40" s="15">
-        <f t="shared" si="16"/>
-        <v>6.8411386484021855E-2</v>
+        <f t="shared" si="14"/>
+        <v>0.10239471530253388</v>
       </c>
       <c r="K40" s="15">
-        <f t="shared" si="16"/>
-        <v>6.3426315564164032E-2</v>
+        <f t="shared" si="14"/>
+        <v>9.8805507902683887E-2</v>
       </c>
       <c r="L40" s="15">
-        <f t="shared" si="16"/>
-        <v>5.3023885723675897E-2</v>
+        <f t="shared" si="14"/>
+        <v>8.6131473825968974E-2</v>
       </c>
       <c r="M40" s="15">
-        <f t="shared" si="16"/>
-        <v>9.3936778471456511E-2</v>
+        <f t="shared" si="14"/>
+        <v>0.11095929556251531</v>
       </c>
       <c r="N40" s="15">
-        <f t="shared" si="16"/>
-        <v>8.2268040626158431E-2</v>
+        <f t="shared" si="14"/>
+        <v>9.4834900725890958E-2</v>
       </c>
       <c r="O40" s="15">
-        <f t="shared" si="16"/>
-        <v>7.1326287935266672E-2</v>
+        <f t="shared" si="14"/>
+        <v>7.8571286179017055E-2</v>
       </c>
       <c r="P40" s="15">
-        <f t="shared" si="16"/>
-        <v>6.1186119291829905E-2</v>
+        <f t="shared" si="14"/>
+        <v>6.3131380147925548E-2</v>
       </c>
       <c r="Q40" s="15">
-        <f t="shared" si="16"/>
-        <v>5.0330021117470022E-2</v>
+        <f t="shared" si="14"/>
+        <v>4.8267426173855398E-2</v>
       </c>
       <c r="R40" s="15">
-        <f t="shared" si="16"/>
-        <v>3.8306542404035707E-2</v>
+        <f t="shared" si="14"/>
+        <v>3.6145571479458877E-2</v>
       </c>
       <c r="S40" s="15">
-        <f t="shared" si="16"/>
-        <v>2.3120642786459887E-2</v>
+        <f t="shared" si="14"/>
+        <v>2.1913935442653232E-2</v>
       </c>
       <c r="T40" s="15">
         <f>+AVERAGE((H40:S40))</f>
-        <v>6.0552385259341923E-2</v>
+        <v>7.5139815650156067E-2</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
@@ -53916,7 +53892,7 @@
         <v>1</v>
       </c>
       <c r="E46" s="11">
-        <f t="shared" ref="E46:E57" si="17">+(1-EXP(Ln_A__afg-E_a/(R_*(C46+273.15)))*VS_tot_CH4_afg*24/1000)^30</f>
+        <f t="shared" ref="E46:E57" si="15">+(1-EXP(Ln_A__afg-E_a/(R_*(C46+273.15)))*VS_tot_CH4_afg*24/1000)^30</f>
         <v>0.98728261269280881</v>
       </c>
       <c r="G46">
@@ -53934,21 +53910,21 @@
         <v>1.2</v>
       </c>
       <c r="C47">
-        <f t="shared" ref="C47:C57" si="18">+ROUND(B47*0.75+6.3,1)</f>
+        <f t="shared" ref="C47:C57" si="16">+ROUND(B47*0.75+6.3,1)</f>
         <v>7.2</v>
       </c>
       <c r="D47" s="7">
         <v>1</v>
       </c>
       <c r="E47" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0.98759207389846904</v>
       </c>
       <c r="G47">
         <v>5</v>
       </c>
       <c r="H47" s="8">
-        <f t="shared" ref="H47:H58" si="19">+LOOKUP($G47,Måned_VS_tot_t30_afg)*H46</f>
+        <f t="shared" ref="H47:H58" si="17">+LOOKUP($G47,Måned_VS_tot_t30_afg)*H46</f>
         <v>0.96885909368342138</v>
       </c>
       <c r="I47" s="8">
@@ -53974,25 +53950,25 @@
         <v>3</v>
       </c>
       <c r="C48">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>8.6</v>
       </c>
       <c r="D48" s="7">
         <v>1</v>
       </c>
       <c r="E48" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0.9852688903511686</v>
       </c>
       <c r="G48">
         <v>6</v>
       </c>
       <c r="H48" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.92914949164158722</v>
       </c>
       <c r="I48" s="8">
-        <f t="shared" ref="I48:I58" si="20">+LOOKUP($G48,Måned_VS_tot_t30_afg)*I47</f>
+        <f t="shared" ref="I48:I58" si="18">+LOOKUP($G48,Måned_VS_tot_t30_afg)*I47</f>
         <v>0.95901405859662658</v>
       </c>
       <c r="J48" s="8">
@@ -54017,29 +53993,29 @@
         <v>7.5</v>
       </c>
       <c r="C49">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>11.9</v>
       </c>
       <c r="D49" s="7">
         <v>1</v>
       </c>
       <c r="E49" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0.97808989746070729</v>
       </c>
       <c r="G49">
         <v>7</v>
       </c>
       <c r="H49" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.8809585406773901</v>
       </c>
       <c r="I49" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0.90927416217785617</v>
       </c>
       <c r="J49" s="8">
-        <f t="shared" ref="J49:J58" si="21">+LOOKUP($G49,Måned_VS_tot_t30_afg)*J48</f>
+        <f t="shared" ref="J49:J58" si="19">+LOOKUP($G49,Måned_VS_tot_t30_afg)*J48</f>
         <v>0.94813434070866776</v>
       </c>
       <c r="K49" s="8">
@@ -54063,33 +54039,33 @@
         <v>11.4</v>
       </c>
       <c r="C50">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>14.9</v>
       </c>
       <c r="D50" s="7">
         <v>1</v>
       </c>
       <c r="E50" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0.96885909368342138</v>
       </c>
       <c r="G50">
         <v>8</v>
       </c>
       <c r="H50" s="8">
+        <f t="shared" si="17"/>
+        <v>0.83627103050591678</v>
+      </c>
+      <c r="I50" s="8">
+        <f t="shared" si="18"/>
+        <v>0.86315031355753746</v>
+      </c>
+      <c r="J50" s="8">
         <f t="shared" si="19"/>
-        <v>0.83627103050591678</v>
-      </c>
-      <c r="I50" s="8">
-        <f t="shared" si="20"/>
-        <v>0.86315031355753746</v>
-      </c>
-      <c r="J50" s="8">
-        <f t="shared" si="21"/>
         <v>0.90003927035295883</v>
       </c>
       <c r="K50" s="8">
-        <f t="shared" ref="K50:K58" si="22">+LOOKUP($G50,Måned_VS_tot_t30_afg)*K49</f>
+        <f t="shared" ref="K50:K58" si="20">+LOOKUP($G50,Måned_VS_tot_t30_afg)*K49</f>
         <v>0.94927399178500271</v>
       </c>
       <c r="L50" s="8">
@@ -54112,37 +54088,37 @@
         <v>14.6</v>
       </c>
       <c r="C51">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>17.3</v>
       </c>
       <c r="D51" s="7">
         <v>1</v>
       </c>
       <c r="E51" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0.95901405859662658</v>
       </c>
       <c r="G51">
         <v>9</v>
       </c>
       <c r="H51" s="8">
+        <f t="shared" si="17"/>
+        <v>0.80425276404547086</v>
+      </c>
+      <c r="I51" s="8">
+        <f t="shared" si="18"/>
+        <v>0.83010292135242492</v>
+      </c>
+      <c r="J51" s="8">
         <f t="shared" si="19"/>
-        <v>0.80425276404547086</v>
-      </c>
-      <c r="I51" s="8">
+        <v>0.86557951253306564</v>
+      </c>
+      <c r="K51" s="8">
         <f t="shared" si="20"/>
-        <v>0.83010292135242492</v>
-      </c>
-      <c r="J51" s="8">
-        <f t="shared" si="21"/>
-        <v>0.86557951253306564</v>
-      </c>
-      <c r="K51" s="8">
-        <f t="shared" si="22"/>
         <v>0.9129291866868805</v>
       </c>
       <c r="L51" s="8">
-        <f t="shared" ref="L51:L58" si="23">+LOOKUP($G51,Måned_VS_tot_t30_afg)*L50</f>
+        <f t="shared" ref="L51:L58" si="21">+LOOKUP($G51,Måned_VS_tot_t30_afg)*L50</f>
         <v>0.96171305080235059</v>
       </c>
       <c r="M51" s="8">
@@ -54164,41 +54140,41 @@
         <v>17.399999999999999</v>
       </c>
       <c r="C52">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>19.399999999999999</v>
       </c>
       <c r="D52" s="7">
         <v>1</v>
       </c>
       <c r="E52" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0.94813434070866776</v>
       </c>
       <c r="G52">
         <v>10</v>
       </c>
       <c r="H52" s="8">
+        <f t="shared" si="17"/>
+        <v>0.78322138792951712</v>
+      </c>
+      <c r="I52" s="8">
+        <f t="shared" si="18"/>
+        <v>0.8083955582765453</v>
+      </c>
+      <c r="J52" s="8">
         <f t="shared" si="19"/>
-        <v>0.78322138792951712</v>
-      </c>
-      <c r="I52" s="8">
+        <v>0.84294442926051683</v>
+      </c>
+      <c r="K52" s="8">
         <f t="shared" si="20"/>
-        <v>0.8083955582765453</v>
-      </c>
-      <c r="J52" s="8">
+        <v>0.88905589964231402</v>
+      </c>
+      <c r="L52" s="8">
         <f t="shared" si="21"/>
-        <v>0.84294442926051683</v>
-      </c>
-      <c r="K52" s="8">
-        <f t="shared" si="22"/>
-        <v>0.88905589964231402</v>
-      </c>
-      <c r="L52" s="8">
-        <f t="shared" si="23"/>
         <v>0.93656405562164891</v>
       </c>
       <c r="M52" s="8">
-        <f t="shared" ref="M52:M58" si="24">+LOOKUP($G52,Måned_VS_tot_t30_afg)*M51</f>
+        <f t="shared" ref="M52:M58" si="22">+LOOKUP($G52,Måned_VS_tot_t30_afg)*M51</f>
         <v>0.97384979317924403</v>
       </c>
       <c r="N52" s="8">
@@ -54219,45 +54195,45 @@
         <v>17.2</v>
       </c>
       <c r="C53">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>19.2</v>
       </c>
       <c r="D53" s="7">
         <v>1</v>
       </c>
       <c r="E53" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0.94927399178500271</v>
       </c>
       <c r="G53">
         <v>11</v>
       </c>
       <c r="H53" s="8">
+        <f t="shared" si="17"/>
+        <v>0.76852662437503461</v>
+      </c>
+      <c r="I53" s="8">
+        <f t="shared" si="18"/>
+        <v>0.79322847809916286</v>
+      </c>
+      <c r="J53" s="8">
         <f t="shared" si="19"/>
-        <v>0.76852662437503461</v>
-      </c>
-      <c r="I53" s="8">
+        <v>0.82712914475928934</v>
+      </c>
+      <c r="K53" s="8">
         <f t="shared" si="20"/>
-        <v>0.79322847809916286</v>
-      </c>
-      <c r="J53" s="8">
+        <v>0.87237547386066094</v>
+      </c>
+      <c r="L53" s="8">
         <f t="shared" si="21"/>
-        <v>0.82712914475928934</v>
-      </c>
-      <c r="K53" s="8">
+        <v>0.91899228400881106</v>
+      </c>
+      <c r="M53" s="8">
         <f t="shared" si="22"/>
-        <v>0.87237547386066094</v>
-      </c>
-      <c r="L53" s="8">
-        <f t="shared" si="23"/>
-        <v>0.91899228400881106</v>
-      </c>
-      <c r="M53" s="8">
-        <f t="shared" si="24"/>
         <v>0.95557846827814397</v>
       </c>
       <c r="N53" s="8">
-        <f t="shared" ref="N53:N58" si="25">+LOOKUP($G53,Måned_VS_tot_t30_afg)*N52</f>
+        <f t="shared" ref="N53:N58" si="23">+LOOKUP($G53,Måned_VS_tot_t30_afg)*N52</f>
         <v>0.98123804612469934</v>
       </c>
       <c r="O53" s="8">
@@ -54277,45 +54253,45 @@
         <v>13.8</v>
       </c>
       <c r="C54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>16.7</v>
       </c>
       <c r="D54" s="7">
         <v>1</v>
       </c>
       <c r="E54" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0.96171305080235059</v>
       </c>
       <c r="G54">
         <v>12</v>
       </c>
       <c r="H54" s="8">
+        <f t="shared" si="17"/>
+        <v>0.75800575556149696</v>
+      </c>
+      <c r="I54" s="8">
+        <f t="shared" si="18"/>
+        <v>0.78236944928668684</v>
+      </c>
+      <c r="J54" s="8">
         <f t="shared" si="19"/>
-        <v>0.75800575556149696</v>
-      </c>
-      <c r="I54" s="8">
+        <v>0.81580602731889795</v>
+      </c>
+      <c r="K54" s="8">
         <f t="shared" si="20"/>
-        <v>0.78236944928668684</v>
-      </c>
-      <c r="J54" s="8">
+        <v>0.86043294952183347</v>
+      </c>
+      <c r="L54" s="8">
         <f t="shared" si="21"/>
-        <v>0.81580602731889795</v>
-      </c>
-      <c r="K54" s="8">
+        <v>0.90641159135086635</v>
+      </c>
+      <c r="M54" s="8">
         <f t="shared" si="22"/>
-        <v>0.86043294952183347</v>
-      </c>
-      <c r="L54" s="8">
+        <v>0.9424969231671062</v>
+      </c>
+      <c r="N54" s="8">
         <f t="shared" si="23"/>
-        <v>0.90641159135086635</v>
-      </c>
-      <c r="M54" s="8">
-        <f t="shared" si="24"/>
-        <v>0.9424969231671062</v>
-      </c>
-      <c r="N54" s="8">
-        <f t="shared" si="25"/>
         <v>0.96780523009633468</v>
       </c>
       <c r="O54" s="8">
@@ -54338,45 +54314,45 @@
         <v>9.4</v>
       </c>
       <c r="C55">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>13.4</v>
       </c>
       <c r="D55" s="7">
         <v>1</v>
       </c>
       <c r="E55" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0.97384979317924403</v>
       </c>
       <c r="G55">
         <v>1</v>
       </c>
       <c r="H55" s="8">
+        <f t="shared" si="17"/>
+        <v>0.74836590278694137</v>
+      </c>
+      <c r="I55" s="8">
+        <f t="shared" si="18"/>
+        <v>0.77241975398279417</v>
+      </c>
+      <c r="J55" s="8">
         <f t="shared" si="19"/>
-        <v>0.74836590278694137</v>
-      </c>
-      <c r="I55" s="8">
+        <v>0.80543110610194257</v>
+      </c>
+      <c r="K55" s="8">
         <f t="shared" si="20"/>
-        <v>0.77241975398279417</v>
-      </c>
-      <c r="J55" s="8">
+        <v>0.84949049045089542</v>
+      </c>
+      <c r="L55" s="8">
         <f t="shared" si="21"/>
-        <v>0.80543110610194257</v>
-      </c>
-      <c r="K55" s="8">
+        <v>0.89488440408392989</v>
+      </c>
+      <c r="M55" s="8">
         <f t="shared" si="22"/>
-        <v>0.84949049045089542</v>
-      </c>
-      <c r="L55" s="8">
+        <v>0.93051082475935409</v>
+      </c>
+      <c r="N55" s="8">
         <f t="shared" si="23"/>
-        <v>0.89488440408392989</v>
-      </c>
-      <c r="M55" s="8">
-        <f t="shared" si="24"/>
-        <v>0.93051082475935409</v>
-      </c>
-      <c r="N55" s="8">
-        <f t="shared" si="25"/>
         <v>0.95549727614727431</v>
       </c>
       <c r="O55" s="8">
@@ -54402,45 +54378,45 @@
         <v>5.7</v>
       </c>
       <c r="C56">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>10.6</v>
       </c>
       <c r="D56" s="7">
         <v>1</v>
       </c>
       <c r="E56" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0.98123804612469934</v>
       </c>
       <c r="G56">
         <v>2</v>
       </c>
       <c r="H56" s="8">
+        <f t="shared" si="17"/>
+        <v>0.73908023396825551</v>
+      </c>
+      <c r="I56" s="8">
+        <f t="shared" si="18"/>
+        <v>0.76283562675601291</v>
+      </c>
+      <c r="J56" s="8">
         <f t="shared" si="19"/>
-        <v>0.73908023396825551</v>
-      </c>
-      <c r="I56" s="8">
+        <v>0.7954373764575553</v>
+      </c>
+      <c r="K56" s="8">
         <f t="shared" si="20"/>
-        <v>0.76283562675601291</v>
-      </c>
-      <c r="J56" s="8">
+        <v>0.83895007522142739</v>
+      </c>
+      <c r="L56" s="8">
         <f t="shared" si="21"/>
-        <v>0.7954373764575553</v>
-      </c>
-      <c r="K56" s="8">
+        <v>0.88378074452864386</v>
+      </c>
+      <c r="M56" s="8">
         <f t="shared" si="22"/>
-        <v>0.83895007522142739</v>
-      </c>
-      <c r="L56" s="8">
+        <v>0.91896511520906543</v>
+      </c>
+      <c r="N56" s="8">
         <f t="shared" si="23"/>
-        <v>0.88378074452864386</v>
-      </c>
-      <c r="M56" s="8">
-        <f t="shared" si="24"/>
-        <v>0.91896511520906543</v>
-      </c>
-      <c r="N56" s="8">
-        <f t="shared" si="25"/>
         <v>0.94364153655462479</v>
       </c>
       <c r="O56" s="8">
@@ -54469,45 +54445,45 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
       <c r="D57" s="7">
         <v>1</v>
       </c>
       <c r="E57" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0.98631033918689126</v>
       </c>
       <c r="G57">
         <v>3</v>
       </c>
       <c r="H57" s="8">
+        <f t="shared" si="17"/>
+        <v>0.72819276200238514</v>
+      </c>
+      <c r="I57" s="8">
+        <f t="shared" si="18"/>
+        <v>0.75159821149423511</v>
+      </c>
+      <c r="J57" s="8">
         <f t="shared" si="19"/>
-        <v>0.72819276200238514</v>
-      </c>
-      <c r="I57" s="8">
+        <v>0.78371970124618029</v>
+      </c>
+      <c r="K57" s="8">
         <f t="shared" si="20"/>
-        <v>0.75159821149423511</v>
-      </c>
-      <c r="J57" s="8">
+        <v>0.82659140967344524</v>
+      </c>
+      <c r="L57" s="8">
         <f t="shared" si="21"/>
-        <v>0.78371970124618029</v>
-      </c>
-      <c r="K57" s="8">
+        <v>0.87076167347546651</v>
+      </c>
+      <c r="M57" s="8">
         <f t="shared" si="22"/>
-        <v>0.82659140967344524</v>
-      </c>
-      <c r="L57" s="8">
+        <v>0.90542773933346976</v>
+      </c>
+      <c r="N57" s="8">
         <f t="shared" si="23"/>
-        <v>0.87076167347546651</v>
-      </c>
-      <c r="M57" s="8">
-        <f t="shared" si="24"/>
-        <v>0.90542773933346976</v>
-      </c>
-      <c r="N57" s="8">
-        <f t="shared" si="25"/>
         <v>0.92974064961044689</v>
       </c>
       <c r="O57" s="8">
@@ -54536,31 +54512,31 @@
         <v>4</v>
       </c>
       <c r="H58" s="8">
+        <f t="shared" si="17"/>
+        <v>0.71223798391854209</v>
+      </c>
+      <c r="I58" s="8">
+        <f t="shared" si="18"/>
+        <v>0.73513061761204745</v>
+      </c>
+      <c r="J58" s="8">
         <f t="shared" si="19"/>
-        <v>0.71223798391854209</v>
-      </c>
-      <c r="I58" s="8">
+        <v>0.76654832222981262</v>
+      </c>
+      <c r="K58" s="8">
         <f t="shared" si="20"/>
-        <v>0.73513061761204745</v>
-      </c>
-      <c r="J58" s="8">
+        <v>0.80848070712940157</v>
+      </c>
+      <c r="L58" s="8">
         <f t="shared" si="21"/>
-        <v>0.76654832222981262</v>
-      </c>
-      <c r="K58" s="8">
+        <v>0.85168319592233288</v>
+      </c>
+      <c r="M58" s="8">
         <f t="shared" si="22"/>
-        <v>0.80848070712940157</v>
-      </c>
-      <c r="L58" s="8">
+        <v>0.88558972472275344</v>
+      </c>
+      <c r="N58" s="8">
         <f t="shared" si="23"/>
-        <v>0.85168319592233288</v>
-      </c>
-      <c r="M58" s="8">
-        <f t="shared" si="24"/>
-        <v>0.88558972472275344</v>
-      </c>
-      <c r="N58" s="8">
-        <f t="shared" si="25"/>
         <v>0.90936993664253341</v>
       </c>
       <c r="O58" s="8">
@@ -54594,47 +54570,47 @@
         <v>0.28776201608145791</v>
       </c>
       <c r="I59" s="13">
-        <f t="shared" ref="I59:S59" si="26">1-MIN(I46:I58)</f>
+        <f t="shared" ref="I59:S59" si="24">1-MIN(I46:I58)</f>
         <v>0.26486938238795255</v>
       </c>
       <c r="J59" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0.23345167777018738</v>
       </c>
       <c r="K59" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0.19151929287059843</v>
       </c>
       <c r="L59" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0.14831680407766712</v>
       </c>
       <c r="M59" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0.11441027527724656</v>
       </c>
       <c r="N59" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>9.0630063357466595E-2</v>
       </c>
       <c r="O59" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>7.3242277718441384E-2</v>
       </c>
       <c r="P59" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>6.0379187502411669E-2</v>
       </c>
       <c r="Q59" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>4.8275741497384672E-2</v>
       </c>
       <c r="R59" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>3.6318452065200679E-2</v>
       </c>
       <c r="S59" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>2.1910102539292708E-2</v>
       </c>
       <c r="T59" s="8">
@@ -54647,51 +54623,51 @@
         <v>221</v>
       </c>
       <c r="H60" s="15">
-        <f t="shared" ref="H60:S60" si="27">+H59/VS_tot_CH4_afg</f>
+        <f t="shared" ref="H60:S60" si="25">+H59/VS_tot_CH4_afg</f>
         <v>1.7265720964887474E-2</v>
       </c>
       <c r="I60" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>1.5892162943277152E-2</v>
       </c>
       <c r="J60" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>1.4007100666211242E-2</v>
       </c>
       <c r="K60" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>1.1491157572235905E-2</v>
       </c>
       <c r="L60" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>8.8990082446600265E-3</v>
       </c>
       <c r="M60" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>6.8646165166347936E-3</v>
       </c>
       <c r="N60" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>5.4378038014479954E-3</v>
       </c>
       <c r="O60" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>4.394536663106483E-3</v>
       </c>
       <c r="P60" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>3.6227512501446997E-3</v>
       </c>
       <c r="Q60" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>2.8965444898430802E-3</v>
       </c>
       <c r="R60" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>2.1791071239120408E-3</v>
       </c>
       <c r="S60" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>1.3146061523575624E-3</v>
       </c>
       <c r="T60" s="15">
@@ -54733,11 +54709,11 @@
         <v>19</v>
       </c>
       <c r="C64">
-        <f t="shared" ref="C64:C73" si="28">+B64+273.16</f>
+        <f t="shared" ref="C64:C73" si="26">+B64+273.16</f>
         <v>292.16000000000003</v>
       </c>
       <c r="D64">
-        <f t="shared" ref="D64:D73" si="29">+EXP(30.3-(81000/(8.31*C64)))*24/1000</f>
+        <f t="shared" ref="D64:D73" si="27">+EXP(30.3-(81000/(8.31*C64)))*24/1000</f>
         <v>1.1220938261781162E-3</v>
       </c>
       <c r="E64" s="18">
@@ -54754,19 +54730,19 @@
         <v>18</v>
       </c>
       <c r="C65">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>291.16000000000003</v>
       </c>
       <c r="D65">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>1.0006106220989261E-3</v>
       </c>
       <c r="E65" s="18">
-        <f t="shared" ref="E65:E73" si="30">1-D65/D64</f>
+        <f t="shared" ref="E65:E73" si="28">1-D65/D64</f>
         <v>0.10826474689105581</v>
       </c>
       <c r="F65" s="18">
-        <f t="shared" ref="F65:F73" si="31">+D65/$D$63</f>
+        <f t="shared" ref="F65:F73" si="29">+D65/$D$63</f>
         <v>0.79581362997415384</v>
       </c>
     </row>
@@ -54775,19 +54751,19 @@
         <v>17</v>
       </c>
       <c r="C66">
+        <f t="shared" si="26"/>
+        <v>290.16000000000003</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="27"/>
+        <v>8.915753109128053E-4</v>
+      </c>
+      <c r="E66" s="18">
         <f t="shared" si="28"/>
-        <v>290.16000000000003</v>
-      </c>
-      <c r="D66">
+        <v>0.10896877244557268</v>
+      </c>
+      <c r="F66" s="18">
         <f t="shared" si="29"/>
-        <v>8.915753109128053E-4</v>
-      </c>
-      <c r="E66" s="18">
-        <f t="shared" si="30"/>
-        <v>0.10896877244557268</v>
-      </c>
-      <c r="F66" s="18">
-        <f t="shared" si="31"/>
         <v>0.70909479562041511</v>
       </c>
     </row>
@@ -54796,19 +54772,19 @@
         <v>16</v>
       </c>
       <c r="C67">
+        <f t="shared" si="26"/>
+        <v>289.16000000000003</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="27"/>
+        <v>7.9378774301120227E-4</v>
+      </c>
+      <c r="E67" s="18">
         <f t="shared" si="28"/>
-        <v>289.16000000000003</v>
-      </c>
-      <c r="D67">
+        <v>0.1096795376730284</v>
+      </c>
+      <c r="F67" s="18">
         <f t="shared" si="29"/>
-        <v>7.9378774301120227E-4</v>
-      </c>
-      <c r="E67" s="18">
-        <f t="shared" si="30"/>
-        <v>0.1096795376730284</v>
-      </c>
-      <c r="F67" s="18">
-        <f t="shared" si="31"/>
         <v>0.63132160627041745</v>
       </c>
     </row>
@@ -54817,19 +54793,19 @@
         <v>15</v>
       </c>
       <c r="C68">
+        <f t="shared" si="26"/>
+        <v>288.16000000000003</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="27"/>
+        <v>7.0615585693994823E-4</v>
+      </c>
+      <c r="E68" s="18">
         <f t="shared" si="28"/>
-        <v>288.16000000000003</v>
-      </c>
-      <c r="D68">
+        <v>0.11039712674174829</v>
+      </c>
+      <c r="F68" s="18">
         <f t="shared" si="29"/>
-        <v>7.0615585693994823E-4</v>
-      </c>
-      <c r="E68" s="18">
-        <f t="shared" si="30"/>
-        <v>0.11039712674174829</v>
-      </c>
-      <c r="F68" s="18">
-        <f t="shared" si="31"/>
         <v>0.56162551488817802</v>
       </c>
     </row>
@@ -54838,19 +54814,19 @@
         <v>14</v>
       </c>
       <c r="C69">
+        <f t="shared" si="26"/>
+        <v>287.16000000000003</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="27"/>
+        <v>6.2768667054331751E-4</v>
+      </c>
+      <c r="E69" s="18">
         <f t="shared" si="28"/>
-        <v>287.16000000000003</v>
-      </c>
-      <c r="D69">
+        <v>0.11112162509940604</v>
+      </c>
+      <c r="F69" s="18">
         <f t="shared" si="29"/>
-        <v>6.2768667054331751E-4</v>
-      </c>
-      <c r="E69" s="18">
-        <f t="shared" si="30"/>
-        <v>0.11112162509940604</v>
-      </c>
-      <c r="F69" s="18">
-        <f t="shared" si="31"/>
         <v>0.49921677497651307</v>
       </c>
     </row>
@@ -54859,19 +54835,19 @@
         <v>13</v>
       </c>
       <c r="C70">
+        <f t="shared" si="26"/>
+        <v>286.16000000000003</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="27"/>
+        <v>5.5747795837728358E-4</v>
+      </c>
+      <c r="E70" s="18">
         <f t="shared" si="28"/>
-        <v>286.16000000000003</v>
-      </c>
-      <c r="D70">
+        <v>0.11185311949553134</v>
+      </c>
+      <c r="F70" s="18">
         <f t="shared" si="29"/>
-        <v>5.5747795837728358E-4</v>
-      </c>
-      <c r="E70" s="18">
-        <f t="shared" si="30"/>
-        <v>0.11185311949553134</v>
-      </c>
-      <c r="F70" s="18">
-        <f t="shared" si="31"/>
         <v>0.44337782139089132</v>
       </c>
     </row>
@@ -54880,19 +54856,19 @@
         <v>12</v>
       </c>
       <c r="C71">
+        <f t="shared" si="26"/>
+        <v>285.16000000000003</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="27"/>
+        <v>4.9471056844348346E-4</v>
+      </c>
+      <c r="E71" s="18">
         <f t="shared" si="28"/>
-        <v>285.16000000000003</v>
-      </c>
-      <c r="D71">
+        <v>0.1125916980045355</v>
+      </c>
+      <c r="F71" s="18">
         <f t="shared" si="29"/>
-        <v>4.9471056844348346E-4</v>
-      </c>
-      <c r="E71" s="18">
-        <f t="shared" si="30"/>
-        <v>0.1125916980045355</v>
-      </c>
-      <c r="F71" s="18">
-        <f t="shared" si="31"/>
         <v>0.3934571596229392</v>
       </c>
     </row>
@@ -54901,19 +54877,19 @@
         <v>11</v>
       </c>
       <c r="C72">
+        <f t="shared" si="26"/>
+        <v>284.16000000000003</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="27"/>
+        <v>4.3864133410375289E-4</v>
+      </c>
+      <c r="E72" s="18">
         <f t="shared" si="28"/>
-        <v>284.16000000000003</v>
-      </c>
-      <c r="D72">
+        <v>0.11333745004911089</v>
+      </c>
+      <c r="F72" s="18">
         <f t="shared" si="29"/>
-        <v>4.3864133410375289E-4</v>
-      </c>
-      <c r="E72" s="18">
-        <f t="shared" si="30"/>
-        <v>0.11333745004911089</v>
-      </c>
-      <c r="F72" s="18">
-        <f t="shared" si="31"/>
         <v>0.3488637284477093</v>
       </c>
     </row>
@@ -54922,19 +54898,19 @@
         <v>10</v>
       </c>
       <c r="C73">
+        <f t="shared" si="26"/>
+        <v>283.16000000000003</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="27"/>
+        <v>3.8859653970294949E-4</v>
+      </c>
+      <c r="E73" s="18">
         <f t="shared" si="28"/>
-        <v>283.16000000000003</v>
-      </c>
-      <c r="D73">
+        <v>0.11409046642413823</v>
+      </c>
+      <c r="F73" s="18">
         <f t="shared" si="29"/>
-        <v>3.8859653970294949E-4</v>
-      </c>
-      <c r="E73" s="18">
-        <f t="shared" si="30"/>
-        <v>0.11409046642413823</v>
-      </c>
-      <c r="F73" s="18">
-        <f t="shared" si="31"/>
         <v>0.30906170295064628</v>
       </c>
     </row>
@@ -56150,115 +56126,115 @@
       </c>
       <c r="C13" s="54">
         <f>+C96</f>
-        <v>3.360491262335604</v>
+        <v>3.6796523975576934</v>
       </c>
       <c r="D13" s="55">
         <f>+D96</f>
-        <v>3.9832043773398778</v>
+        <v>4.3615074085490182</v>
       </c>
       <c r="E13" s="55">
         <f t="shared" ref="E13:Q13" si="7">+E96</f>
-        <v>4.1336559034065061</v>
+        <v>4.5262480001441041</v>
       </c>
       <c r="F13" s="55">
         <f t="shared" si="7"/>
-        <v>3.569241426730283</v>
+        <v>3.9082285142447457</v>
       </c>
       <c r="G13" s="55">
         <f t="shared" si="7"/>
-        <v>3.9949885475315563</v>
+        <v>4.3744107749660168</v>
       </c>
       <c r="H13" s="55">
         <f t="shared" si="7"/>
-        <v>4.1468247917031089</v>
+        <v>4.5406675976407165</v>
       </c>
       <c r="I13" s="55">
         <f t="shared" si="7"/>
-        <v>3.8360625404698396</v>
+        <v>4.2003908423825669</v>
       </c>
       <c r="J13" s="55">
         <f t="shared" si="7"/>
-        <v>4.042456580864827</v>
+        <v>4.4263870632604618</v>
       </c>
       <c r="K13" s="55">
         <f t="shared" si="7"/>
-        <v>4.197008306829388</v>
+        <v>4.595617269381254</v>
       </c>
       <c r="L13" s="55">
         <f t="shared" si="7"/>
-        <v>4.1657819065133523</v>
+        <v>4.5614251558418379</v>
       </c>
       <c r="M13" s="55">
         <f t="shared" si="7"/>
-        <v>4.5030490282611737</v>
+        <v>4.9307240696840395</v>
       </c>
       <c r="N13" s="55">
         <f t="shared" si="7"/>
-        <v>4.6747390809041596</v>
+        <v>5.1187203072952894</v>
       </c>
       <c r="O13" s="55">
         <f t="shared" si="7"/>
-        <v>4.928056554000154</v>
+        <v>5.3960964926370396</v>
       </c>
       <c r="P13" s="55">
         <f t="shared" si="7"/>
-        <v>4.3491092169573164</v>
+        <v>4.7621638945416338</v>
       </c>
       <c r="Q13" s="55">
         <f t="shared" si="7"/>
-        <v>4.5360105457230393</v>
+        <v>4.9668160923341453</v>
       </c>
       <c r="R13" s="55">
         <f>+R96</f>
-        <v>4.7095862126258208</v>
+        <v>5.1568770295652655</v>
       </c>
       <c r="S13" s="55">
         <f t="shared" ref="S13:AD13" si="8">+S96</f>
-        <v>4.4970649055742218</v>
+        <v>4.924171607655909</v>
       </c>
       <c r="T13" s="55">
         <f t="shared" si="8"/>
-        <v>4.7448160587067356</v>
+        <v>5.1954528143173819</v>
       </c>
       <c r="U13" s="55">
         <f t="shared" si="8"/>
-        <v>3.1712511847487459</v>
+        <v>3.4724393293342937</v>
       </c>
       <c r="V13" s="55">
         <f t="shared" si="8"/>
-        <v>3.6221571916870818</v>
+        <v>3.9661699300056537</v>
       </c>
       <c r="W13" s="55">
         <f t="shared" si="8"/>
-        <v>3.3084235701949742</v>
+        <v>3.6226395999444643</v>
       </c>
       <c r="X13" s="55">
         <f t="shared" si="8"/>
-        <v>3.7921594319057794</v>
+        <v>4.1523180559722537</v>
       </c>
       <c r="Y13" s="55">
         <f t="shared" si="8"/>
-        <v>4.4768073188003932</v>
+        <v>4.9019900657556201</v>
       </c>
       <c r="Z13" s="55">
         <f t="shared" si="8"/>
-        <v>4.8637744309649396</v>
+        <v>5.3257092040885716</v>
       </c>
       <c r="AA13" s="55">
         <f t="shared" si="8"/>
-        <v>5.0491731559701289</v>
+        <v>5.528716089009122</v>
       </c>
       <c r="AB13" s="55">
         <f t="shared" si="8"/>
-        <v>5.3245073340160385</v>
+        <v>5.8302000058790817</v>
       </c>
       <c r="AC13" s="55">
         <f t="shared" si="8"/>
-        <v>6.7152515504253181</v>
+        <v>7.3530295241868213</v>
       </c>
       <c r="AD13" s="55">
         <f t="shared" si="8"/>
-        <v>7.8744355722742547</v>
+        <v>8.6223065233605922</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
@@ -56268,115 +56244,115 @@
       <c r="B14" s="24"/>
       <c r="C14" s="54">
         <f>+C12+C13</f>
-        <v>5.2606350150658887</v>
+        <v>5.5797961502879776</v>
       </c>
       <c r="D14" s="55">
         <f>+D12+D13</f>
-        <v>4.8546966818081714</v>
+        <v>5.2329997130173123</v>
       </c>
       <c r="E14" s="55">
         <f t="shared" ref="E14:Q14" si="9">+E12+E13</f>
-        <v>4.7566193485129702</v>
+        <v>5.1492114452505682</v>
       </c>
       <c r="F14" s="55">
         <f t="shared" si="9"/>
-        <v>5.0561576452333048</v>
+        <v>5.3951447327477675</v>
       </c>
       <c r="G14" s="55">
         <f t="shared" si="9"/>
-        <v>4.7786188036013062</v>
+        <v>5.1580410310357667</v>
       </c>
       <c r="H14" s="55">
         <f t="shared" si="9"/>
-        <v>4.6796387911333044</v>
+        <v>5.073481597070912</v>
       </c>
       <c r="I14" s="55">
         <f t="shared" si="9"/>
-        <v>4.882220537471154</v>
+        <v>5.2465488393838813</v>
       </c>
       <c r="J14" s="55">
         <f t="shared" si="9"/>
-        <v>4.7476750288998577</v>
+        <v>5.1316055112954917</v>
       </c>
       <c r="K14" s="55">
         <f t="shared" si="9"/>
-        <v>4.6469248302474222</v>
+        <v>5.0455337927992883</v>
       </c>
       <c r="L14" s="55">
         <f t="shared" si="9"/>
-        <v>5.5538241449140688</v>
+        <v>5.9494673942425536</v>
       </c>
       <c r="M14" s="55">
         <f t="shared" si="9"/>
-        <v>5.3339642287406352</v>
+        <v>5.7616392701635011</v>
       </c>
       <c r="N14" s="55">
         <f t="shared" si="9"/>
-        <v>5.2220417846367475</v>
+        <v>5.6660230110278773</v>
       </c>
       <c r="O14" s="55">
         <f t="shared" si="9"/>
-        <v>5.0569075192167254</v>
+        <v>5.5249474578536111</v>
       </c>
       <c r="P14" s="55">
         <f t="shared" si="9"/>
-        <v>5.4343155284274367</v>
+        <v>5.8473702060117541</v>
       </c>
       <c r="Q14" s="55">
         <f t="shared" si="9"/>
-        <v>5.3124770573005025</v>
+        <v>5.7432826039116085</v>
       </c>
       <c r="R14" s="55">
         <f>+R12+R13</f>
-        <v>5.1993254065341166</v>
+        <v>5.6466162234735613</v>
       </c>
       <c r="S14" s="55">
         <f t="shared" ref="S14:AD14" si="10">+S12+S13</f>
-        <v>5.3378651981132386</v>
+        <v>5.7649719001949258</v>
       </c>
       <c r="T14" s="55">
         <f t="shared" si="10"/>
-        <v>5.1763595420703279</v>
+        <v>5.6269962976809742</v>
       </c>
       <c r="U14" s="55">
         <f t="shared" si="10"/>
-        <v>5.0206123260590418</v>
+        <v>5.3218004706445896</v>
       </c>
       <c r="V14" s="55">
         <f t="shared" si="10"/>
-        <v>4.7266727437665041</v>
+        <v>5.070685482085076</v>
       </c>
       <c r="W14" s="55">
         <f t="shared" si="10"/>
-        <v>4.9311914865499125</v>
+        <v>5.2454075162994025</v>
       </c>
       <c r="X14" s="55">
         <f t="shared" si="10"/>
-        <v>4.6158505619597472</v>
+        <v>4.9760091860262214</v>
       </c>
       <c r="Y14" s="55">
         <f t="shared" si="10"/>
-        <v>6.0178311049360582</v>
+        <v>6.4430138518912852</v>
       </c>
       <c r="Z14" s="55">
         <f t="shared" si="10"/>
-        <v>5.7655724311540695</v>
+        <v>6.2275072042777015</v>
       </c>
       <c r="AA14" s="55">
         <f t="shared" si="10"/>
-        <v>5.644713487278775</v>
+        <v>6.1242564203177681</v>
       </c>
       <c r="AB14" s="55">
         <f t="shared" si="10"/>
-        <v>5.4652268269985047</v>
+        <v>5.9709194988615479</v>
       </c>
       <c r="AC14" s="55">
         <f t="shared" si="10"/>
-        <v>8.6972013088541367</v>
+        <v>9.3349792826156381</v>
       </c>
       <c r="AD14" s="55">
         <f t="shared" si="10"/>
-        <v>7.9415447819073659</v>
+        <v>8.6894157329937034</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
@@ -63682,115 +63658,115 @@
       </c>
       <c r="C91" s="66">
         <f t="shared" ref="C91:AD91" si="68">+VS_tot_omsat_lager</f>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="D91" s="67">
         <f t="shared" si="68"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="E91" s="67">
         <f t="shared" si="68"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="F91" s="67">
         <f t="shared" si="68"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="G91" s="67">
         <f t="shared" si="68"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="H91" s="67">
         <f t="shared" si="68"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="I91" s="67">
         <f t="shared" si="68"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="J91" s="67">
         <f t="shared" si="68"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="K91" s="67">
         <f t="shared" si="68"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="L91" s="67">
         <f t="shared" si="68"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="M91" s="67">
         <f t="shared" si="68"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="N91" s="67">
         <f t="shared" si="68"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="O91" s="67">
         <f t="shared" si="68"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="P91" s="67">
         <f t="shared" si="68"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="Q91" s="67">
         <f t="shared" si="68"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="R91" s="67">
         <f t="shared" si="68"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="S91" s="67">
         <f t="shared" si="68"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="T91" s="67">
         <f t="shared" si="68"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="U91" s="67">
         <f t="shared" si="68"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="V91" s="67">
         <f t="shared" si="68"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="W91" s="67">
         <f t="shared" si="68"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="X91" s="67">
         <f t="shared" si="68"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="Y91" s="67">
         <f t="shared" si="68"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="Z91" s="67">
         <f t="shared" si="68"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="AA91" s="67">
         <f t="shared" si="68"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="AB91" s="67">
         <f t="shared" si="68"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="AC91" s="67">
         <f t="shared" si="68"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
       <c r="AD91" s="67">
         <f t="shared" si="68"/>
-        <v>0.60536843267601481</v>
+        <v>0.66286302531667807</v>
       </c>
     </row>
     <row r="92" spans="1:30" x14ac:dyDescent="0.25">
@@ -63800,115 +63776,115 @@
       <c r="B92" s="24"/>
       <c r="C92" s="54">
         <f>+C91*C88</f>
-        <v>13.381718466667246</v>
+        <v>14.652641115659804</v>
       </c>
       <c r="D92" s="55">
         <f t="shared" ref="D92:Q92" si="69">+D91*D88</f>
-        <v>17.533139233362405</v>
+        <v>19.198341188935306</v>
       </c>
       <c r="E92" s="55">
         <f t="shared" si="69"/>
-        <v>18.536149407139931</v>
+        <v>20.296611799569213</v>
       </c>
       <c r="F92" s="55">
         <f t="shared" si="69"/>
-        <v>14.856195709976545</v>
+        <v>16.267156167163449</v>
       </c>
       <c r="G92" s="55">
         <f t="shared" si="69"/>
-        <v>17.694509848651698</v>
+        <v>19.375037905305255</v>
       </c>
       <c r="H92" s="55">
         <f t="shared" si="69"/>
-        <v>18.706751476462049</v>
+        <v>20.483416723136589</v>
       </c>
       <c r="I92" s="55">
         <f t="shared" si="69"/>
-        <v>16.635003134906924</v>
+        <v>18.214905021415589</v>
       </c>
       <c r="J92" s="55">
         <f t="shared" si="69"/>
-        <v>18.010963404206837</v>
+        <v>19.721546493934888</v>
       </c>
       <c r="K92" s="55">
         <f t="shared" si="69"/>
-        <v>19.041308243970576</v>
+        <v>20.849747868073504</v>
       </c>
       <c r="L92" s="55">
         <f t="shared" si="69"/>
-        <v>17.759761655031479</v>
+        <v>19.446486972434645</v>
       </c>
       <c r="M92" s="55">
         <f t="shared" si="69"/>
-        <v>20.008209133350285</v>
+        <v>21.908479731382659</v>
       </c>
       <c r="N92" s="55">
         <f t="shared" si="69"/>
-        <v>21.152809484303528</v>
+        <v>23.161787982124324</v>
       </c>
       <c r="O92" s="55">
         <f t="shared" si="69"/>
-        <v>22.841592638276822</v>
+        <v>25.010962551069323</v>
       </c>
       <c r="P92" s="55">
         <f t="shared" si="69"/>
-        <v>18.981943724657906</v>
+        <v>20.784745230433284</v>
       </c>
       <c r="Q92" s="55">
         <f t="shared" si="69"/>
-        <v>20.227952583096062</v>
+        <v>22.149093215716697</v>
       </c>
       <c r="R92" s="55">
         <f>+R91*R88</f>
-        <v>21.385123695781271</v>
+        <v>23.416166130590828</v>
       </c>
       <c r="S92" s="55">
         <f t="shared" ref="S92:AD92" si="70">+S91*S88</f>
-        <v>19.968314982103944</v>
+        <v>21.864796651195121</v>
       </c>
       <c r="T92" s="55">
         <f t="shared" si="70"/>
-        <v>21.619989336320703</v>
+        <v>23.673338028938272</v>
       </c>
       <c r="U92" s="55">
         <f t="shared" si="70"/>
-        <v>12.560082484360267</v>
+        <v>13.752970628162608</v>
       </c>
       <c r="V92" s="55">
         <f t="shared" si="70"/>
-        <v>15.566122530615843</v>
+        <v>17.044507965971675</v>
       </c>
       <c r="W92" s="55">
         <f t="shared" si="70"/>
-        <v>13.47456505400179</v>
+        <v>14.754305765563746</v>
       </c>
       <c r="X92" s="55">
         <f t="shared" si="70"/>
-        <v>16.699470798740489</v>
+        <v>18.285495472415676</v>
       </c>
       <c r="Y92" s="55">
         <f t="shared" si="70"/>
-        <v>19.025993179476355</v>
+        <v>20.832978262267197</v>
       </c>
       <c r="Z92" s="55">
         <f t="shared" si="70"/>
-        <v>21.605773927240005</v>
+        <v>23.657772517820206</v>
       </c>
       <c r="AA92" s="55">
         <f t="shared" si="70"/>
-        <v>22.841765427274595</v>
+        <v>25.011151750623878</v>
       </c>
       <c r="AB92" s="55">
         <f t="shared" si="70"/>
-        <v>24.677326614247331</v>
+        <v>27.021044529756939</v>
       </c>
       <c r="AC92" s="55">
         <f t="shared" si="70"/>
-        <v>18.384805771742194</v>
+        <v>20.130894370963453</v>
       </c>
       <c r="AD92" s="55">
         <f t="shared" si="70"/>
-        <v>26.112699250735105</v>
+        <v>28.592741032121921</v>
       </c>
     </row>
     <row r="93" spans="1:30" x14ac:dyDescent="0.25">
@@ -63918,115 +63894,115 @@
       <c r="B93" s="24"/>
       <c r="C93" s="54">
         <f>+C89*C91</f>
-        <v>9.0215566155701143</v>
+        <v>9.8783748680581507</v>
       </c>
       <c r="D93" s="55">
         <f t="shared" ref="D93:Q93" si="71">+D89*D91</f>
-        <v>9.0215566155701143</v>
+        <v>9.8783748680581507</v>
       </c>
       <c r="E93" s="55">
         <f t="shared" si="71"/>
-        <v>9.0215566155701143</v>
+        <v>9.8783748680581507</v>
       </c>
       <c r="F93" s="55">
         <f t="shared" si="71"/>
-        <v>8.9387471348920098</v>
+        <v>9.7877005944681894</v>
       </c>
       <c r="G93" s="55">
         <f t="shared" si="71"/>
-        <v>8.9387471348920098</v>
+        <v>9.7877005944681894</v>
       </c>
       <c r="H93" s="55">
         <f t="shared" si="71"/>
-        <v>8.9387471348920098</v>
+        <v>9.7877005944681894</v>
       </c>
       <c r="I93" s="55">
         <f t="shared" si="71"/>
-        <v>8.9387471348920098</v>
+        <v>9.7877005944681894</v>
       </c>
       <c r="J93" s="55">
         <f t="shared" si="71"/>
-        <v>8.9387471348920098</v>
+        <v>9.7877005944681894</v>
       </c>
       <c r="K93" s="55">
         <f t="shared" si="71"/>
-        <v>8.9387471348920098</v>
+        <v>9.7877005944681894</v>
       </c>
       <c r="L93" s="55">
         <f t="shared" si="71"/>
-        <v>10.012117721724206</v>
+        <v>10.963014066510944</v>
       </c>
       <c r="M93" s="55">
         <f t="shared" si="71"/>
-        <v>10.012117721724206</v>
+        <v>10.963014066510944</v>
       </c>
       <c r="N93" s="55">
         <f t="shared" si="71"/>
-        <v>10.012117721724206</v>
+        <v>10.963014066510944</v>
       </c>
       <c r="O93" s="55">
         <f t="shared" si="71"/>
-        <v>10.012117721724206</v>
+        <v>10.963014066510944</v>
       </c>
       <c r="P93" s="55">
         <f t="shared" si="71"/>
-        <v>10.012117721724206</v>
+        <v>10.963014066510944</v>
       </c>
       <c r="Q93" s="55">
         <f t="shared" si="71"/>
-        <v>10.012117721724206</v>
+        <v>10.963014066510944</v>
       </c>
       <c r="R93" s="55">
         <f>+R89*R91</f>
-        <v>10.012117721724206</v>
+        <v>10.963014066510944</v>
       </c>
       <c r="S93" s="55">
         <f t="shared" ref="S93:AD93" si="72">+S89*S91</f>
-        <v>10.012117721724206</v>
+        <v>10.963014066510944</v>
       </c>
       <c r="T93" s="55">
         <f t="shared" si="72"/>
-        <v>10.012117721724206</v>
+        <v>10.963014066510944</v>
       </c>
       <c r="U93" s="55">
         <f t="shared" si="72"/>
-        <v>8.5815920806313724</v>
+        <v>9.3966249007326823</v>
       </c>
       <c r="V93" s="55">
         <f t="shared" si="72"/>
-        <v>8.5815920806313724</v>
+        <v>9.3966249007326823</v>
       </c>
       <c r="W93" s="55">
         <f t="shared" si="72"/>
-        <v>8.5815920806313724</v>
+        <v>9.3966249007326823</v>
       </c>
       <c r="X93" s="55">
         <f t="shared" si="72"/>
-        <v>8.5815920806313724</v>
+        <v>9.3966249007326823</v>
       </c>
       <c r="Y93" s="55">
         <f t="shared" si="72"/>
-        <v>10.819388945859599</v>
+        <v>11.84695550943694</v>
       </c>
       <c r="Z93" s="55">
         <f t="shared" si="72"/>
-        <v>10.819388945859599</v>
+        <v>11.84695550943694</v>
       </c>
       <c r="AA93" s="55">
         <f t="shared" si="72"/>
-        <v>10.819388945859599</v>
+        <v>11.84695550943694</v>
       </c>
       <c r="AB93" s="55">
         <f t="shared" si="72"/>
-        <v>10.819388945859599</v>
+        <v>11.84695550943694</v>
       </c>
       <c r="AC93" s="55">
         <f t="shared" si="72"/>
-        <v>26.383537897759926</v>
+        <v>28.889302456948691</v>
       </c>
       <c r="AD93" s="55">
         <f t="shared" si="72"/>
-        <v>26.383537897759926</v>
+        <v>28.889302456948691</v>
       </c>
     </row>
     <row r="94" spans="1:30" x14ac:dyDescent="0.25">
@@ -64036,115 +64012,115 @@
       <c r="B94" s="24"/>
       <c r="C94" s="54">
         <f t="shared" ref="C94:AD94" si="73">+C92/C31</f>
-        <v>2.0072577700000869</v>
+        <v>2.1978961673489708</v>
       </c>
       <c r="D94" s="55">
         <f t="shared" si="73"/>
-        <v>2.6299708850043606</v>
+        <v>2.8797511783402956</v>
       </c>
       <c r="E94" s="55">
         <f t="shared" si="73"/>
-        <v>2.7804224110709894</v>
+        <v>3.044491769935382</v>
       </c>
       <c r="F94" s="55">
         <f t="shared" si="73"/>
-        <v>2.2284293564964814</v>
+        <v>2.4400734250745173</v>
       </c>
       <c r="G94" s="55">
         <f t="shared" si="73"/>
-        <v>2.6541764772977547</v>
+        <v>2.9062556857957884</v>
       </c>
       <c r="H94" s="55">
         <f t="shared" si="73"/>
-        <v>2.8060127214693074</v>
+        <v>3.0725125084704881</v>
       </c>
       <c r="I94" s="55">
         <f t="shared" si="73"/>
-        <v>2.4952504702360385</v>
+        <v>2.7322357532123385</v>
       </c>
       <c r="J94" s="55">
         <f t="shared" si="73"/>
-        <v>2.7016445106310254</v>
+        <v>2.958231974090233</v>
       </c>
       <c r="K94" s="55">
         <f t="shared" si="73"/>
-        <v>2.8561962365955864</v>
+        <v>3.1274621802110252</v>
       </c>
       <c r="L94" s="55">
         <f t="shared" si="73"/>
-        <v>2.6639642482547217</v>
+        <v>2.9169730458651966</v>
       </c>
       <c r="M94" s="55">
         <f t="shared" si="73"/>
-        <v>3.0012313700025426</v>
+        <v>3.2862719597073986</v>
       </c>
       <c r="N94" s="55">
         <f t="shared" si="73"/>
-        <v>3.1729214226455289</v>
+        <v>3.4742681973186484</v>
       </c>
       <c r="O94" s="55">
         <f t="shared" si="73"/>
-        <v>3.4262388957415233</v>
+        <v>3.7516443826603982</v>
       </c>
       <c r="P94" s="55">
         <f t="shared" si="73"/>
-        <v>2.8472915586986858</v>
+        <v>3.1177117845649924</v>
       </c>
       <c r="Q94" s="55">
         <f t="shared" si="73"/>
-        <v>3.0341928874644091</v>
+        <v>3.3223639823575044</v>
       </c>
       <c r="R94" s="55">
         <f t="shared" si="73"/>
-        <v>3.2077685543671905</v>
+        <v>3.5124249195886241</v>
       </c>
       <c r="S94" s="55">
         <f t="shared" si="73"/>
-        <v>2.9952472473155916</v>
+        <v>3.2797194976792681</v>
       </c>
       <c r="T94" s="55">
         <f t="shared" si="73"/>
-        <v>3.2429984004481054</v>
+        <v>3.5510007043407406</v>
       </c>
       <c r="U94" s="55">
         <f t="shared" si="73"/>
-        <v>1.8840123726540399</v>
+        <v>2.0629455942243911</v>
       </c>
       <c r="V94" s="55">
         <f t="shared" si="73"/>
-        <v>2.3349183795923762</v>
+        <v>2.556676194895751</v>
       </c>
       <c r="W94" s="55">
         <f t="shared" si="73"/>
-        <v>2.0211847581002682</v>
+        <v>2.2131458648345617</v>
       </c>
       <c r="X94" s="55">
         <f t="shared" si="73"/>
-        <v>2.5049206198110734</v>
+        <v>2.7428243208623511</v>
       </c>
       <c r="Y94" s="55">
         <f t="shared" si="73"/>
-        <v>2.8538989769214531</v>
+        <v>3.1249467393400794</v>
       </c>
       <c r="Z94" s="55">
         <f t="shared" si="73"/>
-        <v>3.2408660890860004</v>
+        <v>3.5486658776730309</v>
       </c>
       <c r="AA94" s="55">
         <f t="shared" si="73"/>
-        <v>3.4262648140911889</v>
+        <v>3.7516727625935813</v>
       </c>
       <c r="AB94" s="55">
         <f t="shared" si="73"/>
-        <v>3.7015989921370993</v>
+        <v>4.053156679463541</v>
       </c>
       <c r="AC94" s="55">
         <f t="shared" si="73"/>
-        <v>2.7577208657613288</v>
+        <v>3.0196341556445176</v>
       </c>
       <c r="AD94" s="55">
         <f t="shared" si="73"/>
-        <v>3.9169048876102655</v>
+        <v>4.2889111548182877</v>
       </c>
     </row>
     <row r="95" spans="1:30" x14ac:dyDescent="0.25">
@@ -64154,115 +64130,115 @@
       <c r="B95" s="24"/>
       <c r="C95" s="54">
         <f t="shared" ref="C95:AD95" si="74">+C93/C31</f>
-        <v>1.3532334923355172</v>
+        <v>1.4817562302087226</v>
       </c>
       <c r="D95" s="55">
         <f t="shared" si="74"/>
-        <v>1.3532334923355172</v>
+        <v>1.4817562302087226</v>
       </c>
       <c r="E95" s="55">
         <f t="shared" si="74"/>
-        <v>1.3532334923355172</v>
+        <v>1.4817562302087226</v>
       </c>
       <c r="F95" s="55">
         <f t="shared" si="74"/>
-        <v>1.3408120702338013</v>
+        <v>1.4681550891702284</v>
       </c>
       <c r="G95" s="55">
         <f t="shared" si="74"/>
-        <v>1.3408120702338013</v>
+        <v>1.4681550891702284</v>
       </c>
       <c r="H95" s="55">
         <f t="shared" si="74"/>
-        <v>1.3408120702338013</v>
+        <v>1.4681550891702284</v>
       </c>
       <c r="I95" s="55">
         <f t="shared" si="74"/>
-        <v>1.3408120702338013</v>
+        <v>1.4681550891702284</v>
       </c>
       <c r="J95" s="55">
         <f t="shared" si="74"/>
-        <v>1.3408120702338013</v>
+        <v>1.4681550891702284</v>
       </c>
       <c r="K95" s="55">
         <f t="shared" si="74"/>
-        <v>1.3408120702338013</v>
+        <v>1.4681550891702284</v>
       </c>
       <c r="L95" s="55">
         <f t="shared" si="74"/>
-        <v>1.5018176582586307</v>
+        <v>1.6444521099766414</v>
       </c>
       <c r="M95" s="55">
         <f t="shared" si="74"/>
-        <v>1.5018176582586307</v>
+        <v>1.6444521099766414</v>
       </c>
       <c r="N95" s="55">
         <f t="shared" si="74"/>
-        <v>1.5018176582586307</v>
+        <v>1.6444521099766414</v>
       </c>
       <c r="O95" s="55">
         <f t="shared" si="74"/>
-        <v>1.5018176582586307</v>
+        <v>1.6444521099766414</v>
       </c>
       <c r="P95" s="55">
         <f t="shared" si="74"/>
-        <v>1.5018176582586307</v>
+        <v>1.6444521099766414</v>
       </c>
       <c r="Q95" s="55">
         <f t="shared" si="74"/>
-        <v>1.5018176582586307</v>
+        <v>1.6444521099766414</v>
       </c>
       <c r="R95" s="55">
         <f t="shared" si="74"/>
-        <v>1.5018176582586307</v>
+        <v>1.6444521099766414</v>
       </c>
       <c r="S95" s="55">
         <f t="shared" si="74"/>
-        <v>1.5018176582586307</v>
+        <v>1.6444521099766414</v>
       </c>
       <c r="T95" s="55">
         <f t="shared" si="74"/>
-        <v>1.5018176582586307</v>
+        <v>1.6444521099766414</v>
       </c>
       <c r="U95" s="55">
         <f t="shared" si="74"/>
-        <v>1.2872388120947058</v>
+        <v>1.4094937351099024</v>
       </c>
       <c r="V95" s="55">
         <f t="shared" si="74"/>
-        <v>1.2872388120947058</v>
+        <v>1.4094937351099024</v>
       </c>
       <c r="W95" s="55">
         <f t="shared" si="74"/>
-        <v>1.2872388120947058</v>
+        <v>1.4094937351099024</v>
       </c>
       <c r="X95" s="55">
         <f t="shared" si="74"/>
-        <v>1.2872388120947058</v>
+        <v>1.4094937351099024</v>
       </c>
       <c r="Y95" s="55">
         <f t="shared" si="74"/>
-        <v>1.6229083418789396</v>
+        <v>1.777043326415541</v>
       </c>
       <c r="Z95" s="55">
         <f t="shared" si="74"/>
-        <v>1.6229083418789396</v>
+        <v>1.777043326415541</v>
       </c>
       <c r="AA95" s="55">
         <f t="shared" si="74"/>
-        <v>1.6229083418789396</v>
+        <v>1.777043326415541</v>
       </c>
       <c r="AB95" s="55">
         <f t="shared" si="74"/>
-        <v>1.6229083418789396</v>
+        <v>1.777043326415541</v>
       </c>
       <c r="AC95" s="55">
         <f t="shared" si="74"/>
-        <v>3.9575306846639888</v>
+        <v>4.3333953685423037</v>
       </c>
       <c r="AD95" s="55">
         <f t="shared" si="74"/>
-        <v>3.9575306846639888</v>
+        <v>4.3333953685423037</v>
       </c>
     </row>
     <row r="96" spans="1:30" x14ac:dyDescent="0.25">
@@ -64272,115 +64248,115 @@
       <c r="B96" s="24"/>
       <c r="C96" s="54">
         <f>+SUM(C94:C95)</f>
-        <v>3.360491262335604</v>
+        <v>3.6796523975576934</v>
       </c>
       <c r="D96" s="55">
         <f t="shared" ref="D96:F96" si="75">+SUM(D94:D95)</f>
-        <v>3.9832043773398778</v>
+        <v>4.3615074085490182</v>
       </c>
       <c r="E96" s="55">
         <f t="shared" si="75"/>
-        <v>4.1336559034065061</v>
+        <v>4.5262480001441041</v>
       </c>
       <c r="F96" s="55">
         <f t="shared" si="75"/>
-        <v>3.569241426730283</v>
+        <v>3.9082285142447457</v>
       </c>
       <c r="G96" s="55">
         <f t="shared" ref="G96:AD96" si="76">+SUM(G94:G95)</f>
-        <v>3.9949885475315563</v>
+        <v>4.3744107749660168</v>
       </c>
       <c r="H96" s="55">
         <f t="shared" si="76"/>
-        <v>4.1468247917031089</v>
+        <v>4.5406675976407165</v>
       </c>
       <c r="I96" s="55">
         <f t="shared" si="76"/>
-        <v>3.8360625404698396</v>
+        <v>4.2003908423825669</v>
       </c>
       <c r="J96" s="55">
         <f t="shared" si="76"/>
-        <v>4.042456580864827</v>
+        <v>4.4263870632604618</v>
       </c>
       <c r="K96" s="55">
         <f t="shared" si="76"/>
-        <v>4.197008306829388</v>
+        <v>4.595617269381254</v>
       </c>
       <c r="L96" s="55">
         <f t="shared" si="76"/>
-        <v>4.1657819065133523</v>
+        <v>4.5614251558418379</v>
       </c>
       <c r="M96" s="55">
         <f t="shared" si="76"/>
-        <v>4.5030490282611737</v>
+        <v>4.9307240696840395</v>
       </c>
       <c r="N96" s="55">
         <f t="shared" si="76"/>
-        <v>4.6747390809041596</v>
+        <v>5.1187203072952894</v>
       </c>
       <c r="O96" s="55">
         <f t="shared" si="76"/>
-        <v>4.928056554000154</v>
+        <v>5.3960964926370396</v>
       </c>
       <c r="P96" s="55">
         <f t="shared" si="76"/>
-        <v>4.3491092169573164</v>
+        <v>4.7621638945416338</v>
       </c>
       <c r="Q96" s="55">
         <f t="shared" si="76"/>
-        <v>4.5360105457230393</v>
+        <v>4.9668160923341453</v>
       </c>
       <c r="R96" s="55">
         <f t="shared" si="76"/>
-        <v>4.7095862126258208</v>
+        <v>5.1568770295652655</v>
       </c>
       <c r="S96" s="55">
         <f t="shared" si="76"/>
-        <v>4.4970649055742218</v>
+        <v>4.924171607655909</v>
       </c>
       <c r="T96" s="55">
         <f t="shared" si="76"/>
-        <v>4.7448160587067356</v>
+        <v>5.1954528143173819</v>
       </c>
       <c r="U96" s="55">
         <f t="shared" si="76"/>
-        <v>3.1712511847487459</v>
+        <v>3.4724393293342937</v>
       </c>
       <c r="V96" s="55">
         <f t="shared" si="76"/>
-        <v>3.6221571916870818</v>
+        <v>3.9661699300056537</v>
       </c>
       <c r="W96" s="55">
         <f t="shared" si="76"/>
-        <v>3.3084235701949742</v>
+        <v>3.6226395999444643</v>
       </c>
       <c r="X96" s="55">
         <f t="shared" si="76"/>
-        <v>3.7921594319057794</v>
+        <v>4.1523180559722537</v>
       </c>
       <c r="Y96" s="55">
         <f t="shared" si="76"/>
-        <v>4.4768073188003932</v>
+        <v>4.9019900657556201</v>
       </c>
       <c r="Z96" s="55">
         <f t="shared" si="76"/>
-        <v>4.8637744309649396</v>
+        <v>5.3257092040885716</v>
       </c>
       <c r="AA96" s="55">
         <f t="shared" si="76"/>
-        <v>5.0491731559701289</v>
+        <v>5.528716089009122</v>
       </c>
       <c r="AB96" s="55">
         <f t="shared" si="76"/>
-        <v>5.3245073340160385</v>
+        <v>5.8302000058790817</v>
       </c>
       <c r="AC96" s="55">
         <f t="shared" si="76"/>
-        <v>6.7152515504253181</v>
+        <v>7.3530295241868213</v>
       </c>
       <c r="AD96" s="55">
         <f t="shared" si="76"/>
-        <v>7.8744355722742547</v>
+        <v>8.6223065233605922</v>
       </c>
     </row>
     <row r="97" spans="1:30" x14ac:dyDescent="0.25">
@@ -69869,6 +69845,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="51017e06-3185-4484-8ddc-2b23098c8f10" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0cd6032e-4b27-47f4-bb02-403eeb79ffb0">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100010BCB8FDA3789478577C31581FA3B2F" ma:contentTypeVersion="12" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="f292e6a414670b17f73bfa0928db04e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0cd6032e-4b27-47f4-bb02-403eeb79ffb0" xmlns:ns3="51017e06-3185-4484-8ddc-2b23098c8f10" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="31239af3d6d5239002168564422d4159" ns2:_="" ns3:_="">
     <xsd:import namespace="0cd6032e-4b27-47f4-bb02-403eeb79ffb0"/>
@@ -70073,17 +70060,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="51017e06-3185-4484-8ddc-2b23098c8f10" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0cd6032e-4b27-47f4-bb02-403eeb79ffb0">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -70094,6 +70070,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE2544F1-D550-4ABD-8DC3-837C3181A044}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="51017e06-3185-4484-8ddc-2b23098c8f10"/>
+    <ds:schemaRef ds:uri="0cd6032e-4b27-47f4-bb02-403eeb79ffb0"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0004E541-2E4D-4AE8-8084-A57750819319}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -70112,17 +70099,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE2544F1-D550-4ABD-8DC3-837C3181A044}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="51017e06-3185-4484-8ddc-2b23098c8f10"/>
-    <ds:schemaRef ds:uri="0cd6032e-4b27-47f4-bb02-403eeb79ffb0"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B591A28-77E8-4B69-8E3E-D2C48B98FB73}">
   <ds:schemaRefs>

--- a/model/Metanproduktion_Arrhenius_v8_30012024.xlsx
+++ b/model/Metanproduktion_Arrhenius_v8_30012024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au277187_uni_au_dk/Documents/Documents/GitHub/AU-BCE-EE/Dalby-2024-KVIK/model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="507" documentId="8_{CE3165A3-CB55-4B9B-B08C-2A32524C647D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94A98181-D946-4263-9D7D-D20C236DA78F}"/>
+  <xr:revisionPtr revIDLastSave="511" documentId="8_{CE3165A3-CB55-4B9B-B08C-2A32524C647D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4C6DC3B-7C90-44B4-81D7-E129F38B7EA9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabel_svin" sheetId="1" r:id="rId1"/>
@@ -1684,7 +1684,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="3"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1729,7 +1729,6 @@
     <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
@@ -2050,11 +2049,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CG161"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="C141" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A55" sqref="A55:A58"/>
+      <selection pane="bottomRight" activeCell="D167" sqref="D167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42954,7 +42953,7 @@
       <c r="B151" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="C151" s="34">
+      <c r="C151" s="3">
         <v>0.73</v>
       </c>
       <c r="D151" s="3">
@@ -46342,8 +46341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y160"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="6" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="N56" sqref="N56"/>
@@ -52843,8 +52842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T73"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53871,7 +53870,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="11">
-        <f t="shared" ref="E26:E37" si="10">+(1-EXP(Ln_A_kvaeg-E_a/(R_*(C26+273.15)))*VS_tot_CH4*24/1000)^30</f>
+        <f>+(1-EXP(Ln_A_kvaeg-E_a/(R_*(C26+273.15)))*VS_tot_CH4*24/1000)^30</f>
         <v>0.85378415071034086</v>
       </c>
       <c r="G26">
@@ -53895,7 +53894,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="E26:E37" si="10">+(1-EXP(Ln_A_kvaeg-E_a/(R_*(C27+273.15)))*VS_tot_CH4*24/1000)^30</f>
         <v>0.8934618422782481</v>
       </c>
       <c r="G27">
@@ -54654,7 +54653,7 @@
         <v>1</v>
       </c>
       <c r="E46" s="11">
-        <f t="shared" ref="E46:E57" si="15">+(1-EXP(Ln_A__afg-E_a/(R_*(C46+273.15)))*VS_tot_CH4_afg*24/1000)^30</f>
+        <f>+(1-EXP(Ln_A__afg-E_a/(R_*(C46+273.15)))*VS_tot_CH4_afg*24/1000)^30</f>
         <v>0.98728261269280881</v>
       </c>
       <c r="G46">
@@ -54672,14 +54671,14 @@
         <v>1.2</v>
       </c>
       <c r="C47">
-        <f t="shared" ref="C47:C57" si="16">+ROUND(B47*0.75+6.3,1)</f>
+        <f t="shared" ref="C47:C57" si="15">+ROUND(B47*0.75+6.3,1)</f>
         <v>7.2</v>
       </c>
       <c r="D47" s="7">
         <v>1</v>
       </c>
       <c r="E47" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="E46:E57" si="16">+(1-EXP(Ln_A__afg-E_a/(R_*(C47+273.15)))*VS_tot_CH4_afg*24/1000)^30</f>
         <v>0.98759207389846904</v>
       </c>
       <c r="G47">
@@ -54712,14 +54711,14 @@
         <v>3</v>
       </c>
       <c r="C48">
+        <f t="shared" si="15"/>
+        <v>8.6</v>
+      </c>
+      <c r="D48" s="7">
+        <v>1</v>
+      </c>
+      <c r="E48" s="11">
         <f t="shared" si="16"/>
-        <v>8.6</v>
-      </c>
-      <c r="D48" s="7">
-        <v>1</v>
-      </c>
-      <c r="E48" s="11">
-        <f t="shared" si="15"/>
         <v>0.9852688903511686</v>
       </c>
       <c r="G48">
@@ -54755,14 +54754,14 @@
         <v>7.5</v>
       </c>
       <c r="C49">
+        <f t="shared" si="15"/>
+        <v>11.9</v>
+      </c>
+      <c r="D49" s="7">
+        <v>1</v>
+      </c>
+      <c r="E49" s="11">
         <f t="shared" si="16"/>
-        <v>11.9</v>
-      </c>
-      <c r="D49" s="7">
-        <v>1</v>
-      </c>
-      <c r="E49" s="11">
-        <f t="shared" si="15"/>
         <v>0.97808989746070729</v>
       </c>
       <c r="G49">
@@ -54801,14 +54800,14 @@
         <v>11.4</v>
       </c>
       <c r="C50">
+        <f t="shared" si="15"/>
+        <v>14.9</v>
+      </c>
+      <c r="D50" s="7">
+        <v>1</v>
+      </c>
+      <c r="E50" s="11">
         <f t="shared" si="16"/>
-        <v>14.9</v>
-      </c>
-      <c r="D50" s="7">
-        <v>1</v>
-      </c>
-      <c r="E50" s="11">
-        <f t="shared" si="15"/>
         <v>0.96885909368342138</v>
       </c>
       <c r="G50">
@@ -54850,14 +54849,14 @@
         <v>14.6</v>
       </c>
       <c r="C51">
+        <f t="shared" si="15"/>
+        <v>17.3</v>
+      </c>
+      <c r="D51" s="7">
+        <v>1</v>
+      </c>
+      <c r="E51" s="11">
         <f t="shared" si="16"/>
-        <v>17.3</v>
-      </c>
-      <c r="D51" s="7">
-        <v>1</v>
-      </c>
-      <c r="E51" s="11">
-        <f t="shared" si="15"/>
         <v>0.95901405859662658</v>
       </c>
       <c r="G51">
@@ -54902,14 +54901,14 @@
         <v>17.399999999999999</v>
       </c>
       <c r="C52">
+        <f t="shared" si="15"/>
+        <v>19.399999999999999</v>
+      </c>
+      <c r="D52" s="7">
+        <v>1</v>
+      </c>
+      <c r="E52" s="11">
         <f t="shared" si="16"/>
-        <v>19.399999999999999</v>
-      </c>
-      <c r="D52" s="7">
-        <v>1</v>
-      </c>
-      <c r="E52" s="11">
-        <f t="shared" si="15"/>
         <v>0.94813434070866776</v>
       </c>
       <c r="G52">
@@ -54957,14 +54956,14 @@
         <v>17.2</v>
       </c>
       <c r="C53">
+        <f t="shared" si="15"/>
+        <v>19.2</v>
+      </c>
+      <c r="D53" s="7">
+        <v>1</v>
+      </c>
+      <c r="E53" s="11">
         <f t="shared" si="16"/>
-        <v>19.2</v>
-      </c>
-      <c r="D53" s="7">
-        <v>1</v>
-      </c>
-      <c r="E53" s="11">
-        <f t="shared" si="15"/>
         <v>0.94927399178500271</v>
       </c>
       <c r="G53">
@@ -55015,14 +55014,14 @@
         <v>13.8</v>
       </c>
       <c r="C54">
+        <f t="shared" si="15"/>
+        <v>16.7</v>
+      </c>
+      <c r="D54" s="7">
+        <v>1</v>
+      </c>
+      <c r="E54" s="11">
         <f t="shared" si="16"/>
-        <v>16.7</v>
-      </c>
-      <c r="D54" s="7">
-        <v>1</v>
-      </c>
-      <c r="E54" s="11">
-        <f t="shared" si="15"/>
         <v>0.96171305080235059</v>
       </c>
       <c r="G54">
@@ -55076,14 +55075,14 @@
         <v>9.4</v>
       </c>
       <c r="C55">
+        <f t="shared" si="15"/>
+        <v>13.4</v>
+      </c>
+      <c r="D55" s="7">
+        <v>1</v>
+      </c>
+      <c r="E55" s="11">
         <f t="shared" si="16"/>
-        <v>13.4</v>
-      </c>
-      <c r="D55" s="7">
-        <v>1</v>
-      </c>
-      <c r="E55" s="11">
-        <f t="shared" si="15"/>
         <v>0.97384979317924403</v>
       </c>
       <c r="G55">
@@ -55140,14 +55139,14 @@
         <v>5.7</v>
       </c>
       <c r="C56">
+        <f t="shared" si="15"/>
+        <v>10.6</v>
+      </c>
+      <c r="D56" s="7">
+        <v>1</v>
+      </c>
+      <c r="E56" s="11">
         <f t="shared" si="16"/>
-        <v>10.6</v>
-      </c>
-      <c r="D56" s="7">
-        <v>1</v>
-      </c>
-      <c r="E56" s="11">
-        <f t="shared" si="15"/>
         <v>0.98123804612469934</v>
       </c>
       <c r="G56">
@@ -55207,14 +55206,14 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C57">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="D57" s="7">
+        <v>1</v>
+      </c>
+      <c r="E57" s="11">
         <f t="shared" si="16"/>
-        <v>8</v>
-      </c>
-      <c r="D57" s="7">
-        <v>1</v>
-      </c>
-      <c r="E57" s="11">
-        <f t="shared" si="15"/>
         <v>0.98631033918689126</v>
       </c>
       <c r="G57">
@@ -55687,6 +55686,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="51017e06-3185-4484-8ddc-2b23098c8f10" xsi:nil="true"/>
@@ -55695,15 +55703,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -55912,20 +55911,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B591A28-77E8-4B69-8E3E-D2C48B98FB73}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE2544F1-D550-4ABD-8DC3-837C3181A044}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="51017e06-3185-4484-8ddc-2b23098c8f10"/>
     <ds:schemaRef ds:uri="0cd6032e-4b27-47f4-bb02-403eeb79ffb0"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B591A28-77E8-4B69-8E3E-D2C48B98FB73}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/model/Metanproduktion_Arrhenius_v8_30012024.xlsx
+++ b/model/Metanproduktion_Arrhenius_v8_30012024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27421"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au277187_uni_au_dk/Documents/Documents/GitHub/AU-BCE-EE/Dalby-2024-KVIK/model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="541" documentId="8_{CE3165A3-CB55-4B9B-B08C-2A32524C647D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DDEFDEE-2F54-48AF-95C0-3AA22AFC4DB6}"/>
+  <xr:revisionPtr revIDLastSave="624" documentId="8_{CE3165A3-CB55-4B9B-B08C-2A32524C647D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F81816D-3FC7-468A-9B8A-90970E69B48B}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1620" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,15 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Søren O. Petersen</author>
+    <author>tc={C034F6ED-F4D6-49DE-B3B0-48CFCC738FF7}</author>
+    <author>tc={D1929D3A-DF8B-432D-9E16-799F7371F81B}</author>
+    <author>tc={0B276CE6-C852-41FE-84F5-82A72802A790}</author>
+    <author>tc={9C8821ED-89B3-4AFF-9841-8CDAD5F70868}</author>
+    <author>tc={283F37D7-2149-4B23-A6B7-FF5F53F6766D}</author>
     <author>Frederik Rask Dalby</author>
+    <author>tc={21B56480-D2FD-4294-82E3-83E00A52F0D4}</author>
+    <author>tc={0930EF88-74C3-4C33-A61F-6E363E10EBBF}</author>
+    <author>tc={5282DF86-5D5E-498B-ADF0-861DF048D19A}</author>
   </authors>
   <commentList>
     <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
@@ -275,7 +283,48 @@
         </r>
       </text>
     </comment>
-    <comment ref="A62" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="A36" authorId="1" shapeId="0" xr:uid="{C034F6ED-F4D6-49DE-B3B0-48CFCC738FF7}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Tilføj en række, hvor teknologiens effekt er angivet, så værdierne ikke ligger inde i en formel - det gør det nemmere og mere sikkert, når effekten skal opdateres, når man kan se værdien uden at skulle stå på formlen</t>
+      </text>
+    </comment>
+    <comment ref="B42" authorId="2" shapeId="0" xr:uid="{D1929D3A-DF8B-432D-9E16-799F7371F81B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Fremgår ikke direkte af normtallene, men kan findes i kapitel i baggrundsrapporten - gælder også for B45, og B47</t>
+      </text>
+    </comment>
+    <comment ref="B49" authorId="3" shapeId="0" xr:uid="{0B276CE6-C852-41FE-84F5-82A72802A790}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Angiv en kilde, så man kan se hvor I har det fra og evt. angiv hvilken gennemsnitlig køleeffekt, der er anvendt</t>
+      </text>
+    </comment>
+    <comment ref="W52" authorId="4" shapeId="0" xr:uid="{9C8821ED-89B3-4AFF-9841-8CDAD5F70868}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Hvorfor inkluderes mængden af urin to gange i beregningen - det samme for lagerberegningen i række 53 </t>
+      </text>
+    </comment>
+    <comment ref="W54" authorId="5" shapeId="0" xr:uid="{283F37D7-2149-4B23-A6B7-FF5F53F6766D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Er enheden rigtig for denne - burde den være kg N2O-N/kg N ab dyr for ellers kan jeg ikke få enheden i række 56 til at stemme?
+Og hvor har I denne værdi fra - angiv kilde?</t>
+      </text>
+    </comment>
+    <comment ref="A62" authorId="6" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -299,7 +348,15 @@
         </r>
       </text>
     </comment>
-    <comment ref="B91" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="B85" authorId="7" shapeId="0" xr:uid="{21B56480-D2FD-4294-82E3-83E00A52F0D4}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Hvorfor anvender I ikke det samme år for normtal i alle beregninger - det er det samme flere steder?</t>
+      </text>
+    </comment>
+    <comment ref="B91" authorId="6" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -323,7 +380,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A95" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="A95" authorId="6" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -347,6 +404,25 @@
         </r>
       </text>
     </comment>
+    <comment ref="A106" authorId="8" shapeId="0" xr:uid="{0930EF88-74C3-4C33-A61F-6E363E10EBBF}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Denne enhed burde være kg/m3 
+Kan vi ikke finde et bedre estimat for densiteten?</t>
+      </text>
+    </comment>
+    <comment ref="W138" authorId="9" shapeId="0" xr:uid="{5282DF86-5D5E-498B-ADF0-861DF048D19A}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Hvorfor beregner I metan fra ikke-omsætteligt VS, når I ikke tager det med i række 141?
+I regner med den samme faktor som omsætteligt VS (række 136), men er det korrekt?
+</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -354,10 +430,23 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={60CF675B-7C7F-4C41-9B0D-EB1E0D49A860}</author>
     <author>Frederik Rask Dalby</author>
+    <author>tc={D5ECC998-9421-4084-842B-B19F15045C3C}</author>
+    <author>tc={977EFCD6-BB7F-4AB1-A199-E76152825253}</author>
+    <author>tc={D3B7A1F1-8BAF-45CF-9819-98515C1B08C4}</author>
   </authors>
   <commentList>
-    <comment ref="A61" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="D38" authorId="0" shapeId="0" xr:uid="{60CF675B-7C7F-4C41-9B0D-EB1E0D49A860}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Marker op som inddata of angiv en kilde for data
+Dette er også tilfældet andre steder, så gennemgå det og se hvor det bør mærkes anderledes – dette er jo en hjælp, den som skal bruge filen.</t>
+      </text>
+    </comment>
+    <comment ref="A61" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -381,7 +470,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="C88" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="D81" authorId="2" shapeId="0" xr:uid="{D5ECC998-9421-4084-842B-B19F15045C3C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Bør kummearealet ikke være lig C81 - det samme gælder for E81 til G81?</t>
+      </text>
+    </comment>
+    <comment ref="A84" authorId="3" shapeId="0" xr:uid="{977EFCD6-BB7F-4AB1-A199-E76152825253}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Fjern det som ikke bliver brugt, så det bliver mere overskueligt</t>
+      </text>
+    </comment>
+    <comment ref="A87" authorId="4" shapeId="0" xr:uid="{D3B7A1F1-8BAF-45CF-9819-98515C1B08C4}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Skriv årsdyr eller årsko - det gælder flere steder</t>
+      </text>
+    </comment>
+    <comment ref="C88" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -405,7 +518,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D88" authorId="0" shapeId="0" xr:uid="{A81B3050-5EC2-42D6-A9DE-B0DEBC8F3E40}">
+    <comment ref="D88" authorId="1" shapeId="0" xr:uid="{A81B3050-5EC2-42D6-A9DE-B0DEBC8F3E40}">
       <text>
         <r>
           <rPr>
@@ -429,7 +542,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E88" authorId="0" shapeId="0" xr:uid="{540BE505-12A5-4598-A099-C65DAA6B5660}">
+    <comment ref="E88" authorId="1" shapeId="0" xr:uid="{540BE505-12A5-4598-A099-C65DAA6B5660}">
       <text>
         <r>
           <rPr>
@@ -453,7 +566,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F88" authorId="0" shapeId="0" xr:uid="{014A3034-F2C0-4746-A63F-E2246ECB2C8B}">
+    <comment ref="F88" authorId="1" shapeId="0" xr:uid="{014A3034-F2C0-4746-A63F-E2246ECB2C8B}">
       <text>
         <r>
           <rPr>
@@ -477,7 +590,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G88" authorId="0" shapeId="0" xr:uid="{FBEDEEAE-53A7-4F8E-91AB-8135BA8732D3}">
+    <comment ref="G88" authorId="1" shapeId="0" xr:uid="{FBEDEEAE-53A7-4F8E-91AB-8135BA8732D3}">
       <text>
         <r>
           <rPr>
@@ -501,7 +614,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H88" authorId="0" shapeId="0" xr:uid="{2E212669-7F73-4A83-8EF4-156E86B66704}">
+    <comment ref="H88" authorId="1" shapeId="0" xr:uid="{2E212669-7F73-4A83-8EF4-156E86B66704}">
       <text>
         <r>
           <rPr>
@@ -525,7 +638,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I88" authorId="0" shapeId="0" xr:uid="{986CD19C-736A-4001-87C2-F25404288ACE}">
+    <comment ref="I88" authorId="1" shapeId="0" xr:uid="{986CD19C-736A-4001-87C2-F25404288ACE}">
       <text>
         <r>
           <rPr>
@@ -549,7 +662,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J88" authorId="0" shapeId="0" xr:uid="{1F30935B-7104-4D21-A79B-EB6A03374B04}">
+    <comment ref="J88" authorId="1" shapeId="0" xr:uid="{1F30935B-7104-4D21-A79B-EB6A03374B04}">
       <text>
         <r>
           <rPr>
@@ -573,7 +686,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K88" authorId="0" shapeId="0" xr:uid="{BD986CA9-6B17-47EF-BF96-BB5CA1563590}">
+    <comment ref="K88" authorId="1" shapeId="0" xr:uid="{BD986CA9-6B17-47EF-BF96-BB5CA1563590}">
       <text>
         <r>
           <rPr>
@@ -597,7 +710,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B90" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="B90" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -621,7 +734,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A94" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="A94" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -645,7 +758,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C94" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+    <comment ref="C94" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -669,7 +782,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D94" authorId="0" shapeId="0" xr:uid="{E0A8B69D-8832-47A1-BA8B-0BFC34EDBE02}">
+    <comment ref="D94" authorId="1" shapeId="0" xr:uid="{E0A8B69D-8832-47A1-BA8B-0BFC34EDBE02}">
       <text>
         <r>
           <rPr>
@@ -693,7 +806,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E94" authorId="0" shapeId="0" xr:uid="{649C67F7-0806-4BD2-B508-5943501CFBBD}">
+    <comment ref="E94" authorId="1" shapeId="0" xr:uid="{649C67F7-0806-4BD2-B508-5943501CFBBD}">
       <text>
         <r>
           <rPr>
@@ -717,7 +830,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F94" authorId="0" shapeId="0" xr:uid="{1E8D9E4E-51DA-456D-AFF8-8597F3395666}">
+    <comment ref="F94" authorId="1" shapeId="0" xr:uid="{1E8D9E4E-51DA-456D-AFF8-8597F3395666}">
       <text>
         <r>
           <rPr>
@@ -741,7 +854,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G94" authorId="0" shapeId="0" xr:uid="{764F2FCB-5FAC-4EA8-BE00-D626DF03A8AB}">
+    <comment ref="G94" authorId="1" shapeId="0" xr:uid="{764F2FCB-5FAC-4EA8-BE00-D626DF03A8AB}">
       <text>
         <r>
           <rPr>
@@ -765,7 +878,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H94" authorId="0" shapeId="0" xr:uid="{4E60E025-231B-43CB-B7D0-F7B16A7CBACF}">
+    <comment ref="H94" authorId="1" shapeId="0" xr:uid="{4E60E025-231B-43CB-B7D0-F7B16A7CBACF}">
       <text>
         <r>
           <rPr>
@@ -789,7 +902,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I94" authorId="0" shapeId="0" xr:uid="{CAC685D1-4438-45D6-88A7-94EB34043859}">
+    <comment ref="I94" authorId="1" shapeId="0" xr:uid="{CAC685D1-4438-45D6-88A7-94EB34043859}">
       <text>
         <r>
           <rPr>
@@ -813,7 +926,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J94" authorId="0" shapeId="0" xr:uid="{D4E457A5-E706-473C-A2D7-88BB9A30CA65}">
+    <comment ref="J94" authorId="1" shapeId="0" xr:uid="{D4E457A5-E706-473C-A2D7-88BB9A30CA65}">
       <text>
         <r>
           <rPr>
@@ -837,7 +950,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K94" authorId="0" shapeId="0" xr:uid="{D1B7126B-3536-4A94-998B-1B10ED6816D8}">
+    <comment ref="K94" authorId="1" shapeId="0" xr:uid="{D1B7126B-3536-4A94-998B-1B10ED6816D8}">
       <text>
         <r>
           <rPr>
@@ -900,7 +1013,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="249">
   <si>
     <t>Dyretype</t>
   </si>
@@ -1157,6 +1270,15 @@
     <t>Total-N ab dyr, kg-N/t gylle ab dyr</t>
   </si>
   <si>
+    <t>N2O-udledning direkte total, kg/t gylle ab dyr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indirekte N2O udledning, stald+lager, kg N2O-N/kg NH3-N udledning, % </t>
+  </si>
+  <si>
+    <t>N2O-udledning indirekte total, kg/t gylle ab dyr</t>
+  </si>
+  <si>
     <t>NH3 teknologi korrektionsfaktor</t>
   </si>
   <si>
@@ -1200,9 +1322,6 @@
   </si>
   <si>
     <t>R</t>
-  </si>
-  <si>
-    <t>8,31</t>
   </si>
   <si>
     <t>(CO2-C + CH4-C)/CH4-C</t>
@@ -1541,6 +1660,9 @@
     <t>Møller et al. (2022)</t>
   </si>
   <si>
+    <t>8,31</t>
+  </si>
+  <si>
     <t>Normtal 2021/22, sættes til 1 for årsdyr</t>
   </si>
   <si>
@@ -1666,15 +1788,6 @@
   <si>
     <t>d</t>
   </si>
-  <si>
-    <t>N2O-udledning indirekte total, kg/t gylle ab dyr</t>
-  </si>
-  <si>
-    <t>N2O-udledning direkte total, kg/t gylle ab dyr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indirekte N2O udledning, stald+lager, kg N2O-N/kg NH3-N udledning, % </t>
-  </si>
 </sst>
 </file>
 
@@ -1688,7 +1801,7 @@
     <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1750,6 +1863,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1828,7 +1948,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="3"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1873,13 +1993,16 @@
     <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Calculation" xfId="4" builtinId="22"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Beregning" xfId="4" builtinId="22"/>
     <cellStyle name="Input" xfId="3" builtinId="20"/>
+    <cellStyle name="Komma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Procent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1892,6 +2015,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Michael Jørgen Hansen" id="{D2C498EA-9594-44E3-B5C4-BB629F5AB265}" userId="S::au284463@uni.au.dk::14e7bbe4-585d-443e-94dd-deac76715199" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2189,21 +2318,72 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A36" dT="2024-02-23T13:19:20.68" personId="{D2C498EA-9594-44E3-B5C4-BB629F5AB265}" id="{C034F6ED-F4D6-49DE-B3B0-48CFCC738FF7}">
+    <text>Tilføj en række, hvor teknologiens effekt er angivet, så værdierne ikke ligger inde i en formel - det gør det nemmere og mere sikkert, når effekten skal opdateres, når man kan se værdien uden at skulle stå på formlen</text>
+  </threadedComment>
+  <threadedComment ref="B42" dT="2024-02-23T13:27:02.68" personId="{D2C498EA-9594-44E3-B5C4-BB629F5AB265}" id="{D1929D3A-DF8B-432D-9E16-799F7371F81B}">
+    <text>Fremgår ikke direkte af normtallene, men kan findes i kapitel i baggrundsrapporten - gælder også for B45, og B47</text>
+  </threadedComment>
+  <threadedComment ref="B49" dT="2024-02-23T13:33:29.09" personId="{D2C498EA-9594-44E3-B5C4-BB629F5AB265}" id="{0B276CE6-C852-41FE-84F5-82A72802A790}">
+    <text>Angiv en kilde, så man kan se hvor I har det fra og evt. angiv hvilken gennemsnitlig køleeffekt, der er anvendt</text>
+  </threadedComment>
+  <threadedComment ref="W52" dT="2024-02-23T13:37:23.20" personId="{D2C498EA-9594-44E3-B5C4-BB629F5AB265}" id="{9C8821ED-89B3-4AFF-9841-8CDAD5F70868}">
+    <text xml:space="preserve">Hvorfor inkluderes mængden af urin to gange i beregningen - det samme for lagerberegningen i række 53 </text>
+  </threadedComment>
+  <threadedComment ref="W54" dT="2024-02-23T14:40:31.42" personId="{D2C498EA-9594-44E3-B5C4-BB629F5AB265}" id="{283F37D7-2149-4B23-A6B7-FF5F53F6766D}">
+    <text>Er enheden rigtig for denne - burde den være kg N2O-N/kg N ab dyr for ellers kan jeg ikke få enheden i række 56 til at stemme?
+Og hvor har I denne værdi fra - angiv kilde?</text>
+  </threadedComment>
+  <threadedComment ref="B85" dT="2024-02-26T06:43:47.73" personId="{D2C498EA-9594-44E3-B5C4-BB629F5AB265}" id="{21B56480-D2FD-4294-82E3-83E00A52F0D4}">
+    <text>Hvorfor anvender I ikke det samme år for normtal i alle beregninger - det er det samme flere steder?</text>
+  </threadedComment>
+  <threadedComment ref="A106" dT="2024-02-23T12:15:04.58" personId="{D2C498EA-9594-44E3-B5C4-BB629F5AB265}" id="{0930EF88-74C3-4C33-A61F-6E363E10EBBF}">
+    <text>Denne enhed burde være kg/m3 
+Kan vi ikke finde et bedre estimat for densiteten?</text>
+  </threadedComment>
+  <threadedComment ref="W138" dT="2024-02-26T10:32:17.84" personId="{D2C498EA-9594-44E3-B5C4-BB629F5AB265}" id="{5282DF86-5D5E-498B-ADF0-861DF048D19A}">
+    <text xml:space="preserve">Hvorfor beregner I metan fra ikke-omsætteligt VS, når I ikke tager det med i række 141?
+I regner med den samme faktor som omsætteligt VS (række 136), men er det korrekt?
+</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D38" dT="2024-02-26T10:33:31.84" personId="{D2C498EA-9594-44E3-B5C4-BB629F5AB265}" id="{60CF675B-7C7F-4C41-9B0D-EB1E0D49A860}">
+    <text>Marker op som inddata of angiv en kilde for data
+Dette er også tilfældet andre steder, så gennemgå det og se hvor det bør mærkes anderledes – dette er jo en hjælp, den som skal bruge filen.</text>
+  </threadedComment>
+  <threadedComment ref="D81" dT="2024-02-26T07:37:04.05" personId="{D2C498EA-9594-44E3-B5C4-BB629F5AB265}" id="{D5ECC998-9421-4084-842B-B19F15045C3C}">
+    <text>Bør kummearealet ikke være lig C81 - det samme gælder for E81 til G81?</text>
+  </threadedComment>
+  <threadedComment ref="A84" dT="2024-02-26T07:40:57.55" personId="{D2C498EA-9594-44E3-B5C4-BB629F5AB265}" id="{977EFCD6-BB7F-4AB1-A199-E76152825253}">
+    <text>Fjern det som ikke bliver brugt, så det bliver mere overskueligt</text>
+  </threadedComment>
+  <threadedComment ref="A87" dT="2024-02-26T07:41:30.62" personId="{D2C498EA-9594-44E3-B5C4-BB629F5AB265}" id="{D3B7A1F1-8BAF-45CF-9819-98515C1B08C4}">
+    <text>Skriv årsdyr eller årsko - det gælder flere steder</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CG161"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="P7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="V87" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="B97" sqref="B97"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="40.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="35" style="2" customWidth="1"/>
     <col min="3" max="12" width="27.85546875" style="2" customWidth="1"/>
     <col min="13" max="13" width="29.42578125" style="2" customWidth="1"/>
     <col min="14" max="14" width="9.140625" style="2" customWidth="1"/>
@@ -2218,7 +2398,7 @@
     <col min="134" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:85">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2475,7 +2655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:85" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -2732,7 +2912,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:85" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:85" ht="45">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -2986,7 +3166,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:85" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:85" s="27" customFormat="1">
       <c r="A4" s="27" t="s">
         <v>27</v>
       </c>
@@ -3240,7 +3420,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:85" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:85" s="27" customFormat="1">
       <c r="A5" s="27" t="s">
         <v>30</v>
       </c>
@@ -3494,7 +3674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:85">
       <c r="A6" s="2" t="s">
         <v>31</v>
       </c>
@@ -3751,7 +3931,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:85">
       <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
@@ -4008,7 +4188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:85">
       <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
@@ -4265,7 +4445,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:85">
       <c r="A9" s="2" t="s">
         <v>37</v>
       </c>
@@ -4522,7 +4702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:85" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:85" s="17" customFormat="1">
       <c r="A10" s="17" t="s">
         <v>39</v>
       </c>
@@ -4859,7 +5039,7 @@
         <v>34.938320157207443</v>
       </c>
     </row>
-    <row r="11" spans="1:85" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:85" s="17" customFormat="1">
       <c r="A11" s="17" t="s">
         <v>40</v>
       </c>
@@ -4944,7 +5124,7 @@
         <v>20.621577643097641</v>
       </c>
       <c r="W11" s="20">
-        <f t="shared" si="39"/>
+        <f>0.5*(W10-W9)+W9</f>
         <v>20.174606677937447</v>
       </c>
       <c r="X11" s="20">
@@ -5196,7 +5376,7 @@
         <v>19.969160078603721</v>
       </c>
     </row>
-    <row r="12" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:85">
       <c r="A12" s="2" t="s">
         <v>41</v>
       </c>
@@ -5533,7 +5713,7 @@
         <v>0.99794400524024796</v>
       </c>
     </row>
-    <row r="13" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:85">
       <c r="A13" s="2" t="s">
         <v>42</v>
       </c>
@@ -5618,7 +5798,7 @@
         <v>15.840841262694799</v>
       </c>
       <c r="W13" s="4">
-        <f t="shared" si="118"/>
+        <f>+W11/W12</f>
         <v>19.277718562248378</v>
       </c>
       <c r="X13" s="4">
@@ -5870,7 +6050,7 @@
         <v>20.010301152915176</v>
       </c>
     </row>
-    <row r="14" spans="1:85" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:85" s="24" customFormat="1">
       <c r="A14" s="24" t="s">
         <v>43</v>
       </c>
@@ -5959,7 +6139,7 @@
       <c r="CF14" s="25"/>
       <c r="CG14" s="25"/>
     </row>
-    <row r="15" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:85">
       <c r="A15" s="16" t="s">
         <v>44</v>
       </c>
@@ -6296,7 +6476,7 @@
         <v>1.7018602920647941</v>
       </c>
     </row>
-    <row r="16" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:85">
       <c r="A16" s="16" t="s">
         <v>45</v>
       </c>
@@ -6636,7 +6816,7 @@
         <v>3.0127270099051215</v>
       </c>
     </row>
-    <row r="17" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:85">
       <c r="A17" s="16" t="s">
         <v>47</v>
       </c>
@@ -6973,7 +7153,7 @@
         <v>4.7145873019699156</v>
       </c>
     </row>
-    <row r="18" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:85">
       <c r="A18" s="2" t="s">
         <v>48</v>
       </c>
@@ -7062,7 +7242,7 @@
       <c r="CF18"/>
       <c r="CG18"/>
     </row>
-    <row r="19" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:85">
       <c r="A19" s="16" t="s">
         <v>49</v>
       </c>
@@ -7399,7 +7579,7 @@
         <v>1.8440680042775441</v>
       </c>
     </row>
-    <row r="20" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:85">
       <c r="A20" s="16" t="s">
         <v>50</v>
       </c>
@@ -7736,7 +7916,7 @@
         <v>7.5645213028635014E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:85">
       <c r="A21" s="16" t="s">
         <v>51</v>
       </c>
@@ -8073,7 +8253,7 @@
         <v>1.9197132173061791</v>
       </c>
     </row>
-    <row r="22" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:85">
       <c r="A22" s="23" t="s">
         <v>52</v>
       </c>
@@ -8410,7 +8590,7 @@
         <v>48.148381454301052</v>
       </c>
     </row>
-    <row r="23" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:85">
       <c r="A23" s="23" t="s">
         <v>53</v>
       </c>
@@ -8747,7 +8927,7 @@
         <v>11.944746767945913</v>
       </c>
     </row>
-    <row r="24" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:85">
       <c r="A24" s="23" t="s">
         <v>54</v>
       </c>
@@ -9084,7 +9264,7 @@
         <v>15.923637035296029</v>
       </c>
     </row>
-    <row r="25" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:85">
       <c r="A25" s="24" t="s">
         <v>55</v>
       </c>
@@ -9173,7 +9353,7 @@
       <c r="CF25"/>
       <c r="CG25"/>
     </row>
-    <row r="26" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:85">
       <c r="A26" s="16" t="s">
         <v>56</v>
       </c>
@@ -9510,7 +9690,7 @@
         <v>1.7345901912866908</v>
       </c>
     </row>
-    <row r="27" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:85">
       <c r="A27" s="16" t="s">
         <v>57</v>
       </c>
@@ -9850,7 +10030,7 @@
         <v>3.070667283778981</v>
       </c>
     </row>
-    <row r="28" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:85">
       <c r="A28" s="16" t="s">
         <v>58</v>
       </c>
@@ -10187,7 +10367,7 @@
         <v>4.8052574750656714</v>
       </c>
     </row>
-    <row r="29" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:85">
       <c r="A29" s="2" t="s">
         <v>48</v>
       </c>
@@ -10276,7 +10456,7 @@
       <c r="CF29"/>
       <c r="CG29"/>
     </row>
-    <row r="30" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:85">
       <c r="A30" s="16" t="s">
         <v>59</v>
       </c>
@@ -10613,7 +10793,7 @@
         <v>1.8795328189980876</v>
       </c>
     </row>
-    <row r="31" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:85">
       <c r="A31" s="16" t="s">
         <v>60</v>
       </c>
@@ -10950,7 +11130,7 @@
         <v>7.7100009412680304E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:85">
       <c r="A32" s="16" t="s">
         <v>61</v>
       </c>
@@ -11287,7 +11467,7 @@
         <v>1.9566328284107679</v>
       </c>
     </row>
-    <row r="33" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:85">
       <c r="A33" s="23" t="s">
         <v>62</v>
       </c>
@@ -11624,7 +11804,7 @@
         <v>49.074363263762478</v>
       </c>
     </row>
-    <row r="34" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:85">
       <c r="A34" s="23" t="s">
         <v>63</v>
       </c>
@@ -11961,7 +12141,7 @@
         <v>12.174466187200723</v>
       </c>
     </row>
-    <row r="35" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:85">
       <c r="A35" s="23"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -12047,7 +12227,7 @@
       <c r="CF35" s="4"/>
       <c r="CG35" s="4"/>
     </row>
-    <row r="36" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:85">
       <c r="A36" s="23" t="s">
         <v>64</v>
       </c>
@@ -12357,7 +12537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:85">
       <c r="A37" s="23"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -12443,7 +12623,7 @@
       <c r="CF37" s="4"/>
       <c r="CG37" s="4"/>
     </row>
-    <row r="38" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:85">
       <c r="A38" s="29" t="s">
         <v>65</v>
       </c>
@@ -12531,7 +12711,7 @@
       <c r="CF38" s="4"/>
       <c r="CG38" s="4"/>
     </row>
-    <row r="39" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:85">
       <c r="A39" s="16" t="s">
         <v>66</v>
       </c>
@@ -12818,7 +12998,7 @@
         <v>3.9916346790205162</v>
       </c>
     </row>
-    <row r="40" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:85">
       <c r="A40" s="16" t="s">
         <v>68</v>
       </c>
@@ -13105,7 +13285,7 @@
         <v>10.944804765056253</v>
       </c>
     </row>
-    <row r="41" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:85">
       <c r="A41" s="16" t="s">
         <v>69</v>
       </c>
@@ -13442,7 +13622,7 @@
         <v>14.936439444076768</v>
       </c>
     </row>
-    <row r="42" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:85">
       <c r="A42" s="16" t="s">
         <v>70</v>
       </c>
@@ -13707,7 +13887,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="43" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:85">
       <c r="A43" s="16" t="s">
         <v>71</v>
       </c>
@@ -14044,7 +14224,7 @@
         <v>1.7511687624090004</v>
       </c>
     </row>
-    <row r="44" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:85">
       <c r="A44" s="16" t="s">
         <v>72</v>
       </c>
@@ -14381,7 +14561,7 @@
         <v>13.185270681667768</v>
       </c>
     </row>
-    <row r="45" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:85">
       <c r="A45" s="16" t="s">
         <v>73</v>
       </c>
@@ -14638,7 +14818,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:85">
       <c r="A46" s="16" t="s">
         <v>74</v>
       </c>
@@ -14975,7 +15155,7 @@
         <v>9.8889530112508268</v>
       </c>
     </row>
-    <row r="47" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:85">
       <c r="A47" s="16" t="s">
         <v>75</v>
       </c>
@@ -15315,7 +15495,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="48" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:85">
       <c r="A48" s="16" t="s">
         <v>76</v>
       </c>
@@ -15652,7 +15832,7 @@
         <v>0.24722382528127068</v>
       </c>
     </row>
-    <row r="49" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:85">
       <c r="A49" s="16" t="s">
         <v>77</v>
       </c>
@@ -15917,7 +16097,7 @@
         <v>0.86848959999999997</v>
       </c>
     </row>
-    <row r="50" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:85">
       <c r="A50" s="16" t="s">
         <v>79</v>
       </c>
@@ -16254,7 +16434,7 @@
         <v>1.5208718579970877</v>
       </c>
     </row>
-    <row r="51" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:85">
       <c r="A51" s="16" t="s">
         <v>80</v>
       </c>
@@ -16591,7 +16771,7 @@
         <v>0.24722382528127068</v>
       </c>
     </row>
-    <row r="52" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:85">
       <c r="A52" s="16" t="s">
         <v>81</v>
       </c>
@@ -16676,7 +16856,7 @@
         <v>0.11524980871175558</v>
       </c>
       <c r="W52" s="4">
-        <f t="shared" si="571"/>
+        <f>W50/((W97+W98)/1000)</f>
         <v>0.40458990182601656</v>
       </c>
       <c r="X52" s="4">
@@ -16928,7 +17108,7 @@
         <v>0.325375262256207</v>
       </c>
     </row>
-    <row r="53" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:85">
       <c r="A53" s="16" t="s">
         <v>82</v>
       </c>
@@ -17013,7 +17193,7 @@
         <v>4.3720380653869219E-2</v>
       </c>
       <c r="W53" s="4">
-        <f t="shared" si="605"/>
+        <f>W51/((W97+W98)/1000)</f>
         <v>4.9646697613267766E-2</v>
       </c>
       <c r="X53" s="4">
@@ -17265,7 +17445,7 @@
         <v>5.2891054932670191E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:85">
       <c r="A54" s="16" t="s">
         <v>83</v>
       </c>
@@ -17519,7 +17699,7 @@
         <v>4.7499999999999999E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:85">
       <c r="A55" s="16" t="s">
         <v>84</v>
       </c>
@@ -17604,7 +17784,7 @@
         <v>4.3601897237463074</v>
       </c>
       <c r="W55" s="30">
-        <f t="shared" si="638"/>
+        <f>W41/(W98/1000)</f>
         <v>5.3303345017975339</v>
       </c>
       <c r="X55" s="30">
@@ -17856,9 +18036,9 @@
         <v>5.7451032851289137</v>
       </c>
     </row>
-    <row r="56" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:85">
       <c r="A56" s="16" t="s">
-        <v>247</v>
+        <v>85</v>
       </c>
       <c r="C56" s="30">
         <f>C54 *C55*44/28</f>
@@ -17941,7 +18121,7 @@
         <v>3.2545701866534937E-2</v>
       </c>
       <c r="W56" s="30">
-        <f t="shared" si="640"/>
+        <f>W54 *W55*44/28</f>
         <v>3.978713967413159E-2</v>
       </c>
       <c r="X56" s="30">
@@ -18193,9 +18373,9 @@
         <v>4.288309237828368E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:85">
       <c r="A57" s="16" t="s">
-        <v>248</v>
+        <v>86</v>
       </c>
       <c r="C57" s="19">
         <v>1</v>
@@ -18447,9 +18627,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:85">
       <c r="A58" s="16" t="s">
-        <v>246</v>
+        <v>87</v>
       </c>
       <c r="C58" s="30">
         <f>SUM(C52:C53)*C57/100*44/28</f>
@@ -18532,7 +18712,7 @@
         <v>2.4981029757455324E-3</v>
       </c>
       <c r="W58" s="30">
-        <f t="shared" si="642"/>
+        <f>SUM(W52:W53)*W57/100*44/28</f>
         <v>7.1380037054744683E-3</v>
       </c>
       <c r="X58" s="30">
@@ -18784,8 +18964,8 @@
         <v>5.9441849843966414E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A59" s="16"/>
+    <row r="59" spans="1:85">
+      <c r="A59" s="34"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
@@ -18870,9 +19050,9 @@
       <c r="CF59" s="4"/>
       <c r="CG59" s="4"/>
     </row>
-    <row r="60" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:85">
       <c r="A60" s="23" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C60" s="3">
         <v>1</v>
@@ -19148,7 +19328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:85">
       <c r="A61" s="23"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
@@ -19234,12 +19414,12 @@
       <c r="CF61" s="4"/>
       <c r="CG61" s="4"/>
     </row>
-    <row r="62" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:85">
       <c r="A62" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B62" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C62" s="1">
         <v>19.2</v>
@@ -19513,7 +19693,7 @@
         <v>89.7</v>
       </c>
     </row>
-    <row r="63" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:85">
       <c r="A63"/>
       <c r="B63"/>
       <c r="C63"/>
@@ -19600,12 +19780,12 @@
       <c r="CF63"/>
       <c r="CG63"/>
     </row>
-    <row r="64" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:85">
       <c r="A64" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C64" s="3">
         <v>18.600000000000001</v>
@@ -19860,9 +20040,9 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="65" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:85">
       <c r="A65" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C65" s="4">
         <f t="shared" ref="C65:J65" si="646">+C64+273.15</f>
@@ -20197,12 +20377,12 @@
         <v>289.95</v>
       </c>
     </row>
-    <row r="66" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:85">
       <c r="A66" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C66" s="3">
         <v>31.3</v>
@@ -20454,12 +20634,12 @@
         <v>31.3</v>
       </c>
     </row>
-    <row r="67" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:85">
       <c r="A67" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C67" s="4">
         <f t="shared" ref="C67:CG67" si="682">+Ln_A</f>
@@ -20794,12 +20974,12 @@
         <v>31.3</v>
       </c>
     </row>
-    <row r="68" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:85">
       <c r="A68" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C68" s="3">
         <v>27.9</v>
@@ -21051,12 +21231,12 @@
         <v>27.9</v>
       </c>
     </row>
-    <row r="69" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:85">
       <c r="A69" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C69" s="10">
         <v>81000</v>
@@ -21308,12 +21488,12 @@
         <v>81000</v>
       </c>
     </row>
-    <row r="70" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:85">
       <c r="A70" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
+      </c>
+      <c r="B70" s="2">
+        <v>8.31</v>
       </c>
       <c r="C70" s="3">
         <v>8.31</v>
@@ -21565,12 +21745,12 @@
         <v>8.31</v>
       </c>
     </row>
-    <row r="71" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:85">
       <c r="A71" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C71" s="3">
         <v>4</v>
@@ -21822,12 +22002,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:85">
       <c r="A72" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C72" s="3">
         <v>0.45</v>
@@ -22079,9 +22259,9 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="73" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:85">
       <c r="A73" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C73" s="3">
         <v>10</v>
@@ -22333,12 +22513,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:85">
       <c r="A74" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C74" s="4">
         <f t="shared" ref="C74:J74" si="683">+C71/C72*12/16</f>
@@ -22673,9 +22853,9 @@
         <v>6.666666666666667</v>
       </c>
     </row>
-    <row r="75" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:85">
       <c r="A75" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C75" s="4">
         <f t="shared" ref="C75:J75" si="724">+C73/16*12/C72</f>
@@ -23010,17 +23190,17 @@
         <v>16.666666666666668</v>
       </c>
     </row>
-    <row r="77" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:85">
       <c r="A77" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
-    <row r="78" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:85">
       <c r="A78" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C78" s="4">
         <f t="shared" ref="C78:AH78" si="764">+C9</f>
@@ -23355,9 +23535,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:85">
       <c r="A79" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C79" s="4">
         <f t="shared" ref="C79:AH79" si="767">+C8</f>
@@ -23692,9 +23872,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="80" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:85">
       <c r="A80" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C80" s="5">
         <v>1</v>
@@ -23946,9 +24126,9 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="81" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:85">
       <c r="A81" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C81" s="3">
         <v>0.3</v>
@@ -24200,9 +24380,9 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="82" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:85">
       <c r="A82" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C82" s="4">
         <f t="shared" ref="C82:J82" si="770">+C80*C81</f>
@@ -24537,9 +24717,9 @@
         <v>0.97500000000000009</v>
       </c>
     </row>
-    <row r="83" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:85">
       <c r="A83" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C83" s="3">
         <v>54</v>
@@ -24821,12 +25001,12 @@
         <v>272.34000000000003</v>
       </c>
     </row>
-    <row r="84" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:85">
       <c r="A84" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C84" s="3">
         <v>24.3</v>
@@ -25078,12 +25258,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:85">
       <c r="A85" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C85" s="3">
         <v>1.79</v>
@@ -25335,12 +25515,12 @@
         <v>972.8</v>
       </c>
     </row>
-    <row r="86" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:85">
       <c r="A86" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C86" s="3">
         <v>1.1000000000000001</v>
@@ -25592,12 +25772,12 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="87" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:85">
       <c r="A87" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C87" s="3">
         <v>0.87</v>
@@ -25849,9 +26029,9 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="88" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:85">
       <c r="A88" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C88" s="19">
         <f t="shared" ref="C88:CA88" si="814">+C84*C85/C86</f>
@@ -26186,12 +26366,12 @@
         <v>953.72549019607834</v>
       </c>
     </row>
-    <row r="89" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:85">
       <c r="A89" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C89" s="19">
         <f t="shared" ref="C89:CA89" si="852">+C87*C88</f>
@@ -26526,12 +26706,12 @@
         <v>829.74117647058813</v>
       </c>
     </row>
-    <row r="90" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:85">
       <c r="A90" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C90" s="3">
         <v>0.85</v>
@@ -26783,12 +26963,12 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="91" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:85">
       <c r="A91" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C91" s="3">
         <v>1</v>
@@ -27040,9 +27220,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:85">
       <c r="A92" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C92" s="4">
         <f t="shared" ref="C92:CA92" si="890">+C89*C91*(1-C90)</f>
@@ -27377,12 +27557,12 @@
         <v>157.6508235294117</v>
       </c>
     </row>
-    <row r="93" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:85">
       <c r="A93" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C93" s="3">
         <v>0.25</v>
@@ -27634,9 +27814,9 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="94" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:85">
       <c r="A94" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C94" s="19">
         <f t="shared" ref="C94:CA94" si="928">+C89*(1-C90)/C93</f>
@@ -27971,12 +28151,12 @@
         <v>525.50274509803899</v>
       </c>
     </row>
-    <row r="95" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:85">
       <c r="A95" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C95" s="3">
         <v>2</v>
@@ -28228,12 +28408,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="96" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:85">
       <c r="A96" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C96" s="3">
         <v>0.02</v>
@@ -28485,12 +28665,12 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="97" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:85">
       <c r="A97" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C97" s="19">
         <f t="shared" ref="C97:CA97" si="963">+C89*C95</f>
@@ -28825,12 +29005,12 @@
         <v>2074.3529411764703</v>
       </c>
     </row>
-    <row r="98" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:85">
       <c r="A98" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C98" s="19">
         <f t="shared" ref="C98:CA98" si="1001">+C97+C94</f>
@@ -29165,12 +29345,12 @@
         <v>2599.855686274509</v>
       </c>
     </row>
-    <row r="99" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:85">
       <c r="A99" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C99" s="3">
         <v>15</v>
@@ -29422,12 +29602,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:85">
       <c r="A100" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C100" s="3">
         <v>0</v>
@@ -29679,9 +29859,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="101" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:85">
       <c r="A101" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C101" s="3">
         <v>0.85</v>
@@ -30008,9 +30188,9 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="102" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:85">
       <c r="A102" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C102" s="3">
         <f t="shared" ref="C102:J102" si="1040">C100*C101</f>
@@ -30345,12 +30525,12 @@
         <v>42.5</v>
       </c>
     </row>
-    <row r="103" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:85">
       <c r="A103" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C103" s="19">
         <f t="shared" ref="C103:J103" si="1076">+C98+C99+C100</f>
@@ -30685,9 +30865,9 @@
         <v>2649.855686274509</v>
       </c>
     </row>
-    <row r="104" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:85">
       <c r="A104" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C104" s="4">
         <f t="shared" ref="C104:J104" si="1109">C103/C98</f>
@@ -31022,9 +31202,9 @@
         <v>1.0192318366992317</v>
       </c>
     </row>
-    <row r="105" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:85">
       <c r="A105" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C105" s="4">
         <f t="shared" ref="C105:J105" si="1145">+C102/C103*1000</f>
@@ -31359,9 +31539,9 @@
         <v>16.038609279795043</v>
       </c>
     </row>
-    <row r="106" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:85">
       <c r="A106" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C106" s="3">
         <v>1</v>
@@ -31613,9 +31793,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:85">
       <c r="A107" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C107" s="4">
         <f t="shared" ref="C107:CA107" si="1181">+C103/C106/C82/C83/10</f>
@@ -31698,7 +31878,7 @@
         <v>1.3017981369248035</v>
       </c>
       <c r="W107" s="4">
-        <f t="shared" si="1181"/>
+        <f>+W103/W106/W82/W83/10</f>
         <v>1.0465245984784448</v>
       </c>
       <c r="X107" s="4">
@@ -31950,9 +32130,9 @@
         <v>0.99794400524024796</v>
       </c>
     </row>
-    <row r="110" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:85">
       <c r="A110" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C110" s="3">
         <v>0.7</v>
@@ -32204,9 +32384,9 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="111" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:85">
       <c r="A111" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C111" s="9">
         <f t="shared" ref="C111:CA111" si="1216">+EXP(C66-C69/(C70*C65))*24/1000</f>
@@ -32289,7 +32469,7 @@
         <v>2.3652993806734289E-3</v>
       </c>
       <c r="W111" s="9">
-        <f t="shared" si="1216"/>
+        <f>+EXP(W66-W69/(W70*W65))*24/1000</f>
         <v>2.9104600986036597E-3</v>
       </c>
       <c r="X111" s="9">
@@ -32541,9 +32721,9 @@
         <v>2.3652993806734289E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:85">
       <c r="A112" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C112" s="9">
         <f t="shared" ref="C112:CA112" si="1254">+C111*C74</f>
@@ -32626,7 +32806,7 @@
         <v>1.5768662537822862E-2</v>
       </c>
       <c r="W112" s="9">
-        <f t="shared" si="1254"/>
+        <f>+W111*W74</f>
         <v>1.9403067324024397E-2</v>
       </c>
       <c r="X112" s="9">
@@ -32878,9 +33058,9 @@
         <v>1.5768662537822862E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:85">
       <c r="A114" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C114" s="4">
         <f t="shared" ref="C114:CA114" si="1292">+C110*C92</f>
@@ -33215,9 +33395,9 @@
         <v>110.35557647058818</v>
       </c>
     </row>
-    <row r="115" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:85">
       <c r="A115" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C115" s="4">
         <f t="shared" ref="C115:CA115" si="1327">+C92*(1-C110)</f>
@@ -33552,9 +33732,9 @@
         <v>47.295247058823513</v>
       </c>
     </row>
-    <row r="117" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:85">
       <c r="A117" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C117" s="4">
         <f t="shared" ref="C117:AH117" si="1365">+(1-C112)^C13</f>
@@ -33889,9 +34069,9 @@
         <v>0.72756645283049459</v>
       </c>
     </row>
-    <row r="118" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:85">
       <c r="A118" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C118" s="4">
         <f t="shared" ref="C118:J118" si="1368">1-C117</f>
@@ -34226,9 +34406,9 @@
         <v>0.27243354716950541</v>
       </c>
     </row>
-    <row r="119" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:85">
       <c r="A119" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C119" s="4">
         <f t="shared" ref="C119:J119" si="1409">+C118/C74</f>
@@ -34563,9 +34743,9 @@
         <v>4.0865032075425807E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:85">
       <c r="A120" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C120" s="4">
         <f t="shared" ref="C120:CA120" si="1445">+C119*C92*C110</f>
@@ -34900,9 +35080,9 @@
         <v>4.5096841721726912</v>
       </c>
     </row>
-    <row r="121" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:85">
       <c r="A121" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C121" s="4">
         <f t="shared" ref="C121:J121" si="1480">+C120*1000/C103</f>
@@ -34985,47 +35165,47 @@
         <v>1.143749867745637</v>
       </c>
       <c r="W121" s="4">
-        <f t="shared" ref="W121:AG121" si="1487">+W120*1000/W103</f>
+        <f>+W120*1000/W103</f>
         <v>1.8092291971458265</v>
       </c>
       <c r="X121" s="4">
-        <f t="shared" ref="X121" si="1488">+X120*1000/X103</f>
+        <f t="shared" ref="X121" si="1487">+X120*1000/X103</f>
         <v>0.16170662916208642</v>
       </c>
       <c r="Y121" s="4">
-        <f t="shared" si="1487"/>
+        <f t="shared" ref="W121:AG121" si="1488">+Y120*1000/Y103</f>
         <v>0.86108869393047704</v>
       </c>
       <c r="Z121" s="4">
-        <f t="shared" si="1487"/>
+        <f t="shared" si="1488"/>
         <v>0.86108869393047704</v>
       </c>
       <c r="AA121" s="4">
-        <f t="shared" si="1487"/>
+        <f t="shared" si="1488"/>
         <v>0.86108869393047704</v>
       </c>
       <c r="AB121" s="4">
-        <f t="shared" si="1487"/>
+        <f t="shared" si="1488"/>
         <v>1.8092291971458265</v>
       </c>
       <c r="AC121" s="4">
-        <f t="shared" si="1487"/>
+        <f t="shared" si="1488"/>
         <v>1.8092291971458265</v>
       </c>
       <c r="AD121" s="4">
-        <f t="shared" si="1487"/>
+        <f t="shared" si="1488"/>
         <v>1.8092291971458265</v>
       </c>
       <c r="AE121" s="4">
-        <f t="shared" si="1487"/>
+        <f t="shared" si="1488"/>
         <v>1.8092291971458265</v>
       </c>
       <c r="AF121" s="4">
-        <f t="shared" si="1487"/>
+        <f t="shared" si="1488"/>
         <v>0.86108869393047704</v>
       </c>
       <c r="AG121" s="4">
-        <f t="shared" si="1487"/>
+        <f t="shared" si="1488"/>
         <v>1.5178270966283409</v>
       </c>
       <c r="AH121" s="4">
@@ -35237,7 +35417,7 @@
         <v>1.7018602920647941</v>
       </c>
     </row>
-    <row r="122" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:85">
       <c r="A122"/>
       <c r="B122"/>
       <c r="C122"/>
@@ -35324,14 +35504,14 @@
       <c r="CF122"/>
       <c r="CG122"/>
     </row>
-    <row r="123" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:85">
       <c r="A123" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
-    <row r="124" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:85">
       <c r="A124" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C124" s="4">
         <f t="shared" ref="C124:AH124" si="1517">+(1-C112)^(C7+C13)</f>
@@ -35414,7 +35594,7 @@
         <v>0.7530920073976366</v>
       </c>
       <c r="W124" s="4">
-        <f t="shared" si="1517"/>
+        <f>+(1-W112)^(W7+W13)</f>
         <v>0.65907964849760503</v>
       </c>
       <c r="X124" s="4">
@@ -35666,9 +35846,9 @@
         <v>0.70480186301450243</v>
       </c>
     </row>
-    <row r="125" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:85">
       <c r="A125" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C125" s="4">
         <f t="shared" ref="C125:J125" si="1520">1-C124</f>
@@ -35751,7 +35931,7 @@
         <v>0.2469079926023634</v>
       </c>
       <c r="W125" s="4">
-        <f t="shared" si="1522"/>
+        <f>1-W124</f>
         <v>0.34092035150239497</v>
       </c>
       <c r="X125" s="4">
@@ -36003,9 +36183,9 @@
         <v>0.29519813698549757</v>
       </c>
     </row>
-    <row r="126" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:85">
       <c r="A126" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C126" s="4">
         <f t="shared" ref="C126:CA126" si="1560">+C125/C74</f>
@@ -36340,9 +36520,9 @@
         <v>4.4279720547824634E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:85">
       <c r="A127" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C127" s="4">
         <f t="shared" ref="C127:CA127" si="1598">+C92*C110*C126</f>
@@ -36677,9 +36857,9 @@
         <v>4.8865140870117356</v>
       </c>
     </row>
-    <row r="128" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:85">
       <c r="A128" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C128" s="4">
         <f t="shared" ref="C128:J128" si="1636">+C127*1000/C103</f>
@@ -36762,7 +36942,7 @@
         <v>1.2687408238187068</v>
       </c>
       <c r="W128" s="4">
-        <f t="shared" si="1638"/>
+        <f>+W127*1000/W103</f>
         <v>1.9607198931309406</v>
       </c>
       <c r="X128" s="4">
@@ -37014,14 +37194,14 @@
         <v>1.8440680042775441</v>
       </c>
     </row>
-    <row r="130" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:85">
       <c r="A130" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
-    <row r="131" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:85">
       <c r="A131" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C131" s="4">
         <f t="shared" ref="C131:J131" si="1676">C117*C114</f>
@@ -37104,27 +37284,27 @@
         <v>2.8082051550164353</v>
       </c>
       <c r="W131" s="4">
-        <f t="shared" ref="W131:AF131" si="1683">W117*W114</f>
+        <f>W117*W114</f>
         <v>15.01655436211218</v>
       </c>
       <c r="X131" s="4">
-        <f t="shared" ref="X131" si="1684">X117*X114</f>
+        <f t="shared" ref="X131" si="1683">X117*X114</f>
         <v>21.292543696066009</v>
       </c>
       <c r="Y131" s="4">
-        <f t="shared" ref="Y131:AA131" si="1685">Y117*Y114</f>
+        <f t="shared" ref="Y131:AA131" si="1684">Y117*Y114</f>
         <v>18.628352950432262</v>
       </c>
       <c r="Z131" s="4">
-        <f t="shared" si="1685"/>
+        <f t="shared" si="1684"/>
         <v>18.628352950432262</v>
       </c>
       <c r="AA131" s="4">
-        <f t="shared" si="1685"/>
+        <f t="shared" si="1684"/>
         <v>18.628352950432262</v>
       </c>
       <c r="AB131" s="4">
-        <f t="shared" si="1683"/>
+        <f t="shared" ref="W131:AF131" si="1685">AB117*AB114</f>
         <v>15.01655436211218</v>
       </c>
       <c r="AC131" s="4">
@@ -37140,7 +37320,7 @@
         <v>15.01655436211218</v>
       </c>
       <c r="AF131" s="4">
-        <f t="shared" si="1683"/>
+        <f t="shared" si="1685"/>
         <v>18.628352950432262</v>
       </c>
       <c r="AG131" s="4">
@@ -37356,9 +37536,9 @@
         <v>80.291015322770235</v>
       </c>
     </row>
-    <row r="132" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:85">
       <c r="A132" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C132" s="4">
         <f t="shared" ref="C132:J132" si="1717">+C115</f>
@@ -37441,27 +37621,27 @@
         <v>1.5480977727272731</v>
       </c>
       <c r="W132" s="4">
-        <f t="shared" ref="W132:AF132" si="1724">+W115</f>
+        <f>+W115</f>
         <v>9.3893746153846198</v>
       </c>
       <c r="X132" s="4">
-        <f t="shared" ref="X132" si="1725">+X115</f>
+        <f t="shared" ref="X132" si="1724">+X115</f>
         <v>9.3893746153846198</v>
       </c>
       <c r="Y132" s="4">
-        <f t="shared" ref="Y132:AA132" si="1726">+Y115</f>
+        <f t="shared" ref="Y132:AA132" si="1725">+Y115</f>
         <v>9.3893746153846198</v>
       </c>
       <c r="Z132" s="4">
-        <f t="shared" si="1726"/>
+        <f t="shared" si="1725"/>
         <v>9.3893746153846198</v>
       </c>
       <c r="AA132" s="4">
-        <f t="shared" si="1726"/>
+        <f t="shared" si="1725"/>
         <v>9.3893746153846198</v>
       </c>
       <c r="AB132" s="4">
-        <f t="shared" si="1724"/>
+        <f t="shared" ref="W132:AF132" si="1726">+AB115</f>
         <v>9.3893746153846198</v>
       </c>
       <c r="AC132" s="4">
@@ -37477,7 +37657,7 @@
         <v>9.3893746153846198</v>
       </c>
       <c r="AF132" s="4">
-        <f t="shared" si="1724"/>
+        <f t="shared" si="1726"/>
         <v>9.3893746153846198</v>
       </c>
       <c r="AG132" s="4">
@@ -37693,9 +37873,9 @@
         <v>47.295247058823513</v>
       </c>
     </row>
-    <row r="133" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:85">
       <c r="A133" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C133" s="4">
         <f t="shared" ref="C133:J133" si="1758">+C131*1000/C103</f>
@@ -38030,9 +38210,9 @@
         <v>30.300146433881146</v>
       </c>
     </row>
-    <row r="134" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:85">
       <c r="A134" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C134" s="4">
         <f t="shared" ref="C134:J134" si="1799">+C132*1000/C103</f>
@@ -38115,27 +38295,27 @@
         <v>14.68147605969587</v>
       </c>
       <c r="W134" s="4">
-        <f t="shared" ref="W134:AF134" si="1806">+W132*1000/W103</f>
+        <f>+W132*1000/W103</f>
         <v>16.432157284918265</v>
       </c>
       <c r="X134" s="4">
-        <f t="shared" ref="X134" si="1807">+X132*1000/X103</f>
+        <f t="shared" ref="X134" si="1806">+X132*1000/X103</f>
         <v>16.432157284918265</v>
       </c>
       <c r="Y134" s="4">
-        <f t="shared" ref="Y134:AA134" si="1808">+Y132*1000/Y103</f>
+        <f t="shared" ref="Y134:AA134" si="1807">+Y132*1000/Y103</f>
         <v>16.432157284918265</v>
       </c>
       <c r="Z134" s="4">
-        <f t="shared" si="1808"/>
+        <f t="shared" si="1807"/>
         <v>16.432157284918265</v>
       </c>
       <c r="AA134" s="4">
-        <f t="shared" si="1808"/>
+        <f t="shared" si="1807"/>
         <v>16.432157284918265</v>
       </c>
       <c r="AB134" s="4">
-        <f t="shared" si="1806"/>
+        <f t="shared" ref="W134:AF134" si="1808">+AB132*1000/AB103</f>
         <v>16.432157284918265</v>
       </c>
       <c r="AC134" s="4">
@@ -38151,7 +38331,7 @@
         <v>16.432157284918265</v>
       </c>
       <c r="AF134" s="4">
-        <f t="shared" si="1806"/>
+        <f t="shared" si="1808"/>
         <v>16.432157284918265</v>
       </c>
       <c r="AG134" s="4">
@@ -38367,9 +38547,9 @@
         <v>17.848235020419907</v>
       </c>
     </row>
-    <row r="135" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:85">
       <c r="A135" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C135" s="4">
         <f t="shared" ref="C135:J135" si="1840">+C133+C134</f>
@@ -38452,27 +38632,27 @@
         <v>41.313254414015304</v>
       </c>
       <c r="W135" s="4">
-        <f t="shared" ref="W135:AF135" si="1847">+W133+W134</f>
+        <f>+W133+W134</f>
         <v>42.712329635422023</v>
       </c>
       <c r="X135" s="4">
-        <f t="shared" ref="X135" si="1848">+X133+X134</f>
+        <f t="shared" ref="X135" si="1847">+X133+X134</f>
         <v>53.69581342198029</v>
       </c>
       <c r="Y135" s="4">
-        <f t="shared" ref="Y135:AA135" si="1849">+Y133+Y134</f>
+        <f t="shared" ref="Y135:AA135" si="1848">+Y133+Y134</f>
         <v>49.033266323524359</v>
       </c>
       <c r="Z135" s="4">
-        <f t="shared" si="1849"/>
+        <f t="shared" si="1848"/>
         <v>49.033266323524359</v>
       </c>
       <c r="AA135" s="4">
-        <f t="shared" si="1849"/>
+        <f t="shared" si="1848"/>
         <v>49.033266323524359</v>
       </c>
       <c r="AB135" s="4">
-        <f t="shared" si="1847"/>
+        <f t="shared" ref="W135:AF135" si="1849">+AB133+AB134</f>
         <v>42.712329635422023</v>
       </c>
       <c r="AC135" s="4">
@@ -38488,7 +38668,7 @@
         <v>42.712329635422023</v>
       </c>
       <c r="AF135" s="4">
-        <f t="shared" si="1847"/>
+        <f t="shared" si="1849"/>
         <v>49.033266323524359</v>
       </c>
       <c r="AG135" s="4">
@@ -38704,12 +38884,12 @@
         <v>48.148381454301052</v>
       </c>
     </row>
-    <row r="136" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:85">
       <c r="A136" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C136" s="3">
         <f t="shared" ref="C136:CG136" si="1881">VS_svin_tot_omsat_lager</f>
@@ -39044,9 +39224,9 @@
         <v>0.66286302531667807</v>
       </c>
     </row>
-    <row r="137" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:85">
       <c r="A137" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C137" s="4">
         <f t="shared" ref="C137:J137" si="1882">+C136*C133</f>
@@ -39129,27 +39309,27 @@
         <v>17.6532211695074</v>
       </c>
       <c r="W137" s="4">
-        <f t="shared" ref="W137:AF137" si="1889">+W136*W133</f>
+        <f>+W136*W133</f>
         <v>17.420154550098637</v>
       </c>
       <c r="X137" s="4">
-        <f t="shared" ref="X137" si="1890">+X136*X133</f>
+        <f t="shared" ref="X137" si="1889">+X136*X133</f>
         <v>24.700699841373332</v>
       </c>
       <c r="Y137" s="4">
-        <f t="shared" ref="Y137:AA137" si="1891">+Y136*Y133</f>
+        <f t="shared" ref="Y137:AA137" si="1890">+Y136*Y133</f>
         <v>21.610069766009332</v>
       </c>
       <c r="Z137" s="4">
-        <f t="shared" si="1891"/>
+        <f t="shared" si="1890"/>
         <v>21.610069766009332</v>
       </c>
       <c r="AA137" s="4">
-        <f t="shared" si="1891"/>
+        <f t="shared" si="1890"/>
         <v>21.610069766009332</v>
       </c>
       <c r="AB137" s="4">
-        <f t="shared" si="1889"/>
+        <f t="shared" ref="W137:AF137" si="1891">+AB136*AB133</f>
         <v>17.420154550098637</v>
       </c>
       <c r="AC137" s="4">
@@ -39165,7 +39345,7 @@
         <v>17.420154550098637</v>
       </c>
       <c r="AF137" s="4">
-        <f t="shared" si="1889"/>
+        <f t="shared" si="1891"/>
         <v>21.610069766009332</v>
       </c>
       <c r="AG137" s="4">
@@ -39381,9 +39561,9 @@
         <v>20.084846732700811</v>
       </c>
     </row>
-    <row r="138" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:85">
       <c r="A138" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C138" s="4">
         <f t="shared" ref="C138:J138" si="1923">+C134*C136</f>
@@ -39466,7 +39646,7 @@
         <v>9.7318076370443869</v>
       </c>
       <c r="W138" s="4">
-        <f t="shared" si="1925"/>
+        <f>+W134*W136</f>
         <v>10.892269490360412</v>
       </c>
       <c r="X138" s="4">
@@ -39718,9 +39898,9 @@
         <v>11.83093506219862</v>
       </c>
     </row>
-    <row r="139" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:85">
       <c r="A139" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C139" s="4">
         <f t="shared" ref="C139:CA139" si="1963">+C137/C74</f>
@@ -39803,7 +39983,7 @@
         <v>2.6479831754261101</v>
       </c>
       <c r="W139" s="4">
-        <f t="shared" si="1963"/>
+        <f>+W137/W74</f>
         <v>2.6130231825147954</v>
       </c>
       <c r="X139" s="4">
@@ -40055,9 +40235,9 @@
         <v>3.0127270099051215</v>
       </c>
     </row>
-    <row r="140" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:85">
       <c r="A140" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C140" s="4">
         <f t="shared" ref="C140:CA140" si="2001">+C138/C74</f>
@@ -40140,7 +40320,7 @@
         <v>1.459771145556658</v>
       </c>
       <c r="W140" s="4">
-        <f t="shared" si="2001"/>
+        <f>+W138/W74</f>
         <v>1.6338404235540618</v>
       </c>
       <c r="X140" s="4">
@@ -40392,9 +40572,9 @@
         <v>1.774640259329793</v>
       </c>
     </row>
-    <row r="141" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:85">
       <c r="A141" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C141" s="4">
         <f t="shared" ref="C141:J141" si="2039">+SUM(C139)</f>
@@ -40477,7 +40657,7 @@
         <v>2.6479831754261101</v>
       </c>
       <c r="W141" s="4">
-        <f t="shared" si="2040"/>
+        <f>+SUM(W139)</f>
         <v>2.6130231825147954</v>
       </c>
       <c r="X141" s="4">
@@ -40729,14 +40909,14 @@
         <v>3.0127270099051215</v>
       </c>
     </row>
-    <row r="143" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:85">
       <c r="A143" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
-    <row r="144" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:85">
       <c r="A144" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C144" s="4">
         <f t="shared" ref="C144:J144" si="2073">+C114*C117</f>
@@ -41071,9 +41251,9 @@
         <v>80.291015322770235</v>
       </c>
     </row>
-    <row r="145" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:85">
       <c r="A145" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C145" s="4">
         <f t="shared" ref="C145:J145" si="2110">+C115</f>
@@ -41408,9 +41588,9 @@
         <v>47.295247058823513</v>
       </c>
     </row>
-    <row r="146" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:85">
       <c r="A146" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C146" s="4">
         <f t="shared" ref="C146:J146" si="2151">+C144*1000/C103</f>
@@ -41745,9 +41925,9 @@
         <v>30.300146433881146</v>
       </c>
     </row>
-    <row r="147" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:85">
       <c r="A147" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C147" s="4">
         <f t="shared" ref="C147:J147" si="2188">+C145*1000/C103</f>
@@ -42082,9 +42262,9 @@
         <v>17.848235020419907</v>
       </c>
     </row>
-    <row r="148" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:85">
       <c r="A148" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C148" s="4">
         <f t="shared" ref="C148:J148" si="2225">+C105</f>
@@ -42419,9 +42599,9 @@
         <v>16.038609279795043</v>
       </c>
     </row>
-    <row r="149" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:85">
       <c r="A149" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C149" s="4">
         <f t="shared" ref="C149:J149" si="2261">+C146+C147+C148</f>
@@ -42756,9 +42936,9 @@
         <v>48.148381454301052</v>
       </c>
     </row>
-    <row r="150" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:85">
       <c r="A150" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C150" s="4">
         <f t="shared" ref="C150:J150" si="2294">+C149+C148</f>
@@ -43093,12 +43273,12 @@
         <v>64.186990734096099</v>
       </c>
     </row>
-    <row r="151" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:85">
       <c r="A151" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B151" s="33" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C151" s="3">
         <v>0.8</v>
@@ -43350,9 +43530,9 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="152" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:85">
       <c r="A152" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C152" s="3">
         <v>346</v>
@@ -43604,9 +43784,9 @@
         <v>346</v>
       </c>
     </row>
-    <row r="153" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:85">
       <c r="A153" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C153" s="3">
         <v>0.55000000000000004</v>
@@ -43858,9 +44038,9 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="154" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:85">
       <c r="A154" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C154" s="3">
         <v>0.71699999999999997</v>
@@ -44112,9 +44292,9 @@
         <v>0.71699999999999997</v>
       </c>
     </row>
-    <row r="155" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:85">
       <c r="A155" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C155" s="4">
         <f>+C152*C154/1000</f>
@@ -44449,9 +44629,9 @@
         <v>0.248082</v>
       </c>
     </row>
-    <row r="156" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:85">
       <c r="A156" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C156" s="26">
         <f t="shared" ref="C156:J156" si="2366">+C155*C149</f>
@@ -44786,12 +44966,12 @@
         <v>11.944746767945913</v>
       </c>
     </row>
-    <row r="157" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:85">
       <c r="A157" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C157" s="26">
         <f t="shared" ref="C157:J157" si="2402">+C150*C155</f>
@@ -45126,9 +45306,9 @@
         <v>15.923637035296029</v>
       </c>
     </row>
-    <row r="158" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:85">
       <c r="A158" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C158" s="4">
         <f>+C149*(1-C151)</f>
@@ -45463,12 +45643,12 @@
         <v>9.6296762908602087</v>
       </c>
     </row>
-    <row r="159" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:85">
       <c r="A159" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C159" s="3">
         <f t="shared" ref="C159:V159" si="2474">+VS_tot_omsat_lager_afg</f>
@@ -45803,9 +45983,9 @@
         <v>0.13092377276210895</v>
       </c>
     </row>
-    <row r="160" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:85">
       <c r="A160" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C160" s="4">
         <f t="shared" ref="C160:J160" si="2476">+C158*C159</f>
@@ -46140,9 +46320,9 @@
         <v>1.2607535504772502</v>
       </c>
     </row>
-    <row r="161" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:85">
       <c r="A161" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C161" s="4">
         <f t="shared" ref="C161:CA161" si="2517">+C160/C75</f>
@@ -46490,12 +46670,12 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="E58" sqref="E58"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="59" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56.28515625" bestFit="1" customWidth="1"/>
@@ -46508,7 +46688,7 @@
     <col min="13" max="15" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -46516,46 +46696,46 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="60">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -46563,46 +46743,46 @@
         <v>6</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="30">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -46647,52 +46827,52 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="6" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
@@ -46737,7 +46917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" s="2" t="s">
         <v>31</v>
       </c>
@@ -46784,7 +46964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
@@ -46831,7 +47011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
@@ -46878,12 +47058,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C9" s="3">
         <v>40</v>
@@ -46925,7 +47105,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" s="17" t="s">
         <v>39</v>
       </c>
@@ -46983,7 +47163,7 @@
         <v>56.075756521862097</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" s="17" t="s">
         <v>40</v>
       </c>
@@ -47041,7 +47221,7 @@
         <v>48.037878260931052</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="2" t="s">
         <v>41</v>
       </c>
@@ -47099,7 +47279,7 @@
         <v>16.075756521862097</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" s="2" t="s">
         <v>42</v>
       </c>
@@ -47157,7 +47337,7 @@
         <v>2.9882188247627615</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" s="24" t="s">
         <v>43</v>
       </c>
@@ -47176,7 +47356,7 @@
       <c r="N14" s="25"/>
       <c r="O14" s="25"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="16" t="s">
         <v>44</v>
       </c>
@@ -47234,7 +47414,7 @@
         <v>0.14502279974663373</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" s="16" t="s">
         <v>45</v>
       </c>
@@ -47294,7 +47474,7 @@
         <v>0.80396383802211324</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15">
       <c r="A17" s="16" t="s">
         <v>47</v>
       </c>
@@ -47352,12 +47532,12 @@
         <v>0.94898663776874703</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15">
       <c r="A18" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15">
       <c r="A19" s="16" t="s">
         <v>49</v>
       </c>
@@ -47415,7 +47595,7 @@
         <v>0.23994035293440419</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15">
       <c r="A20" s="16" t="s">
         <v>50</v>
       </c>
@@ -47473,7 +47653,7 @@
         <v>0.27051128614743025</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15">
       <c r="A21" s="16" t="s">
         <v>51</v>
       </c>
@@ -47531,7 +47711,7 @@
         <v>0.51045163908183444</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15">
       <c r="A22" s="23" t="s">
         <v>52</v>
       </c>
@@ -47589,7 +47769,7 @@
         <v>86.209928108046853</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15">
       <c r="A23" s="23" t="s">
         <v>53</v>
       </c>
@@ -47647,7 +47827,7 @@
         <v>16.503942427076382</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15">
       <c r="A24" s="23" t="s">
         <v>54</v>
       </c>
@@ -47705,12 +47885,12 @@
         <v>17.348520660398648</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15">
       <c r="A25" s="24" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15">
       <c r="A26" s="16" t="s">
         <v>56</v>
       </c>
@@ -47768,7 +47948,7 @@
         <v>0.14577943540671356</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15">
       <c r="A27" s="16" t="s">
         <v>57</v>
       </c>
@@ -47828,7 +48008,7 @@
         <v>0.80815840405121309</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15">
       <c r="A28" s="16" t="s">
         <v>58</v>
       </c>
@@ -47886,7 +48066,7 @@
         <v>0.95393783945792665</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15">
       <c r="A29" s="2" t="s">
         <v>48</v>
       </c>
@@ -47943,7 +48123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15">
       <c r="A30" s="16" t="s">
         <v>59</v>
       </c>
@@ -48001,7 +48181,7 @@
         <v>0.24119220731619442</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15">
       <c r="A31" s="16" t="s">
         <v>60</v>
       </c>
@@ -48059,7 +48239,7 @@
         <v>0.27192263998910754</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15">
       <c r="A32" s="16" t="s">
         <v>61</v>
       </c>
@@ -48117,7 +48297,7 @@
         <v>0.51311484730530199</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28">
       <c r="A33" s="23" t="s">
         <v>62</v>
       </c>
@@ -48175,7 +48355,7 @@
         <v>86.659716044657003</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28">
       <c r="A34" s="23" t="s">
         <v>63</v>
       </c>
@@ -48233,7 +48413,7 @@
         <v>16.590049379873093</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" ht="14.25" customHeight="1">
       <c r="A35" s="23"/>
       <c r="B35" s="2"/>
       <c r="C35" s="4"/>
@@ -48250,7 +48430,7 @@
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28">
       <c r="A36" s="23" t="s">
         <v>64</v>
       </c>
@@ -48305,9 +48485,9 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="37" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" s="2" customFormat="1">
       <c r="A37" s="29" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -48336,9 +48516,9 @@
       <c r="AA37"/>
       <c r="AB37"/>
     </row>
-    <row r="38" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" s="2" customFormat="1">
       <c r="A38" s="16" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C38" s="4">
         <v>92.5</v>
@@ -48393,9 +48573,9 @@
       <c r="AA38"/>
       <c r="AB38"/>
     </row>
-    <row r="39" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" s="16" customFormat="1">
       <c r="A39" s="16" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C39" s="4">
         <v>68.3</v>
@@ -48437,9 +48617,9 @@
         <v>68.3</v>
       </c>
     </row>
-    <row r="40" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" s="2" customFormat="1">
       <c r="A40" s="16" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C40" s="4">
         <f>C39+C38</f>
@@ -48507,7 +48687,7 @@
       <c r="AA40"/>
       <c r="AB40"/>
     </row>
-    <row r="41" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" s="2" customFormat="1">
       <c r="A41" s="16" t="s">
         <v>70</v>
       </c>
@@ -48565,12 +48745,12 @@
       <c r="AA41"/>
       <c r="AB41"/>
     </row>
-    <row r="42" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" s="2" customFormat="1">
       <c r="A42" s="16" t="s">
         <v>71</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C42" s="4">
         <f>C39*C41</f>
@@ -48638,7 +48818,7 @@
       <c r="AA42"/>
       <c r="AB42"/>
     </row>
-    <row r="43" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" s="2" customFormat="1">
       <c r="A43" s="16" t="s">
         <v>72</v>
       </c>
@@ -48708,7 +48888,7 @@
       <c r="AA43"/>
       <c r="AB43"/>
     </row>
-    <row r="44" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" s="2" customFormat="1">
       <c r="A44" s="16" t="s">
         <v>73</v>
       </c>
@@ -48765,7 +48945,7 @@
       <c r="AA44"/>
       <c r="AB44"/>
     </row>
-    <row r="45" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" s="2" customFormat="1">
       <c r="A45" s="16" t="s">
         <v>74</v>
       </c>
@@ -48835,7 +49015,7 @@
       <c r="AA45"/>
       <c r="AB45"/>
     </row>
-    <row r="46" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" s="2" customFormat="1">
       <c r="A46" s="16" t="s">
         <v>75</v>
       </c>
@@ -48895,12 +49075,12 @@
       <c r="AA46"/>
       <c r="AB46"/>
     </row>
-    <row r="47" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" s="2" customFormat="1">
       <c r="A47" s="16" t="s">
         <v>76</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C47" s="4">
         <f>C45*C46/100</f>
@@ -48968,9 +49148,9 @@
       <c r="AA47"/>
       <c r="AB47"/>
     </row>
-    <row r="48" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" s="2" customFormat="1">
       <c r="A48" s="16" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C48" s="4">
         <v>1</v>
@@ -49025,12 +49205,12 @@
       <c r="AA48"/>
       <c r="AB48"/>
     </row>
-    <row r="49" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" s="2" customFormat="1">
       <c r="A49" s="16" t="s">
         <v>79</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C49" s="4">
         <f t="shared" ref="C49:O49" si="95">C42*C48</f>
@@ -49098,12 +49278,12 @@
       <c r="AA49"/>
       <c r="AB49"/>
     </row>
-    <row r="50" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" s="2" customFormat="1">
       <c r="A50" s="16" t="s">
         <v>80</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C50" s="4">
         <f t="shared" ref="C50:O50" si="98">C47</f>
@@ -49171,7 +49351,7 @@
       <c r="AA50"/>
       <c r="AB50"/>
     </row>
-    <row r="51" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" s="2" customFormat="1">
       <c r="A51" s="16" t="s">
         <v>81</v>
       </c>
@@ -49241,7 +49421,7 @@
       <c r="AA51"/>
       <c r="AB51"/>
     </row>
-    <row r="52" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" s="2" customFormat="1">
       <c r="A52" s="16" t="s">
         <v>82</v>
       </c>
@@ -49312,7 +49492,7 @@
       <c r="AA52"/>
       <c r="AB52"/>
     </row>
-    <row r="53" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" s="2" customFormat="1">
       <c r="A53" s="16" t="s">
         <v>83</v>
       </c>
@@ -49370,7 +49550,7 @@
       <c r="AA53"/>
       <c r="AB53"/>
     </row>
-    <row r="54" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" s="2" customFormat="1">
       <c r="A54" s="16" t="s">
         <v>84</v>
       </c>
@@ -49441,9 +49621,9 @@
       <c r="AA54"/>
       <c r="AB54"/>
     </row>
-    <row r="55" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" s="2" customFormat="1">
       <c r="A55" s="16" t="s">
-        <v>247</v>
+        <v>85</v>
       </c>
       <c r="B55" s="16"/>
       <c r="C55" s="30">
@@ -49512,9 +49692,9 @@
       <c r="AA55"/>
       <c r="AB55"/>
     </row>
-    <row r="56" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" s="2" customFormat="1">
       <c r="A56" s="16" t="s">
-        <v>248</v>
+        <v>86</v>
       </c>
       <c r="B56" s="16"/>
       <c r="C56" s="19">
@@ -49570,9 +49750,9 @@
       <c r="AA56"/>
       <c r="AB56"/>
     </row>
-    <row r="57" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" s="2" customFormat="1">
       <c r="A57" s="16" t="s">
-        <v>246</v>
+        <v>87</v>
       </c>
       <c r="B57" s="16"/>
       <c r="C57" s="30">
@@ -49641,7 +49821,7 @@
       <c r="AA57"/>
       <c r="AB57"/>
     </row>
-    <row r="58" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" s="2" customFormat="1">
       <c r="A58" s="16"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
@@ -49670,9 +49850,9 @@
       <c r="AA58"/>
       <c r="AB58"/>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28">
       <c r="A59" s="23" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="4">
@@ -49719,7 +49899,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="60" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" s="2" customFormat="1">
       <c r="A60" s="16"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -49748,59 +49928,59 @@
       <c r="AA60"/>
       <c r="AB60"/>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:28">
       <c r="A61" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B61" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28">
       <c r="A63" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C63" s="3">
         <v>12.8</v>
@@ -49842,9 +50022,9 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28">
       <c r="A64" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="4">
@@ -49900,12 +50080,12 @@
         <v>285.95</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15">
       <c r="A65" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C65" s="3">
         <v>31.2</v>
@@ -49947,12 +50127,12 @@
         <v>31.2</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15">
       <c r="A66" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C66" s="3">
         <f t="shared" ref="C66:O66" si="121">Ln_A_kvaeg</f>
@@ -50007,12 +50187,12 @@
         <v>31.2</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15">
       <c r="A67" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C67" s="3">
         <v>27.9</v>
@@ -50054,12 +50234,12 @@
         <v>27.9</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15">
       <c r="A68" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C68" s="10">
         <v>81000</v>
@@ -50101,12 +50281,12 @@
         <v>81000</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15">
       <c r="A69" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>100</v>
+        <v>215</v>
       </c>
       <c r="C69" s="3">
         <v>8.31</v>
@@ -50148,12 +50328,12 @@
         <v>8.31</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15">
       <c r="A70" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C70" s="3">
         <v>4</v>
@@ -50195,12 +50375,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15">
       <c r="A71" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C71" s="3">
         <v>0.45</v>
@@ -50242,9 +50422,9 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15">
       <c r="A72" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="3">
@@ -50287,12 +50467,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15">
       <c r="A73" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C73" s="4">
         <f t="shared" ref="C73:K73" si="122">+C70/C71*12/16</f>
@@ -50347,9 +50527,9 @@
         <v>6.666666666666667</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15">
       <c r="A74" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="4">
@@ -50405,7 +50585,7 @@
         <v>16.666666666666668</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -50422,9 +50602,9 @@
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15">
       <c r="A76" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -50441,12 +50621,12 @@
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15">
       <c r="A77" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C77" s="4">
         <f t="shared" ref="C77:O77" si="132">+C9</f>
@@ -50501,9 +50681,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15">
       <c r="A78" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="4">
@@ -50559,9 +50739,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15">
       <c r="A79" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="5">
@@ -50604,9 +50784,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15">
       <c r="A80" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="3">
@@ -50649,9 +50829,9 @@
         <v>7.99</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15">
       <c r="A81" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="4">
@@ -50707,9 +50887,9 @@
         <v>0.47939999999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15">
       <c r="A82" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="3">
@@ -50752,12 +50932,12 @@
         <v>365</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15">
       <c r="A83" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C83" s="3">
         <v>40</v>
@@ -50799,12 +50979,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15">
       <c r="A84" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
@@ -50820,12 +51000,12 @@
       <c r="N84" s="3"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15">
       <c r="A85" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
@@ -50841,9 +51021,9 @@
       <c r="N85" s="3"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15">
       <c r="A86" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="3"/>
@@ -50860,9 +51040,9 @@
       <c r="N86" s="3"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15">
       <c r="A87" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="3"/>
@@ -50879,12 +51059,12 @@
       <c r="N87" s="3"/>
       <c r="O87" s="3"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15">
       <c r="A88" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C88" s="10">
         <v>8456</v>
@@ -50926,12 +51106,12 @@
         <v>8456</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15">
       <c r="A89" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C89" s="3">
         <v>0.71</v>
@@ -50973,12 +51153,12 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15">
       <c r="A90" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C90" s="3">
         <v>1</v>
@@ -51020,9 +51200,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15">
       <c r="A91" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="19">
@@ -51078,12 +51258,12 @@
         <v>2452.2400000000002</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15">
       <c r="A92" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C92" s="22">
         <v>0.13500000000000001</v>
@@ -51125,9 +51305,9 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15">
       <c r="A93" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="19">
@@ -51183,12 +51363,12 @@
         <v>18164.740740740741</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15">
       <c r="A94" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C94" s="3">
         <v>1.85</v>
@@ -51230,12 +51410,12 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15">
       <c r="A95" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C95" s="3">
         <v>0.05</v>
@@ -51277,12 +51457,12 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15">
       <c r="A96" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C96" s="19">
         <f t="shared" ref="C96:O96" si="149">C93/C94</f>
@@ -51337,12 +51517,12 @@
         <v>9818.7787787787784</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15">
       <c r="A97" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C97" s="19">
         <f t="shared" ref="C97:O97" si="152">+C96+C93</f>
@@ -51397,12 +51577,12 @@
         <v>27983.519519519519</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15">
       <c r="A98" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C98" s="3">
         <v>0</v>
@@ -51444,12 +51624,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15">
       <c r="A99" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C99" s="10">
         <f t="shared" ref="C99:O99" si="155">0.4*365</f>
@@ -51504,9 +51684,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15">
       <c r="A100" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="3">
@@ -51549,9 +51729,9 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15">
       <c r="A101" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="21">
@@ -51607,12 +51787,12 @@
         <v>124.1</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15">
       <c r="A102" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C102" s="19">
         <f t="shared" ref="C102:O102" si="159">+C97+C98+C99</f>
@@ -51667,9 +51847,9 @@
         <v>28129.519519519519</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15">
       <c r="A103" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" s="4">
@@ -51725,9 +51905,9 @@
         <v>1.0052173565908378</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15">
       <c r="A104" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" s="4">
@@ -51783,9 +51963,9 @@
         <v>4.4117355048985116</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15">
       <c r="A105" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" s="3">
@@ -51828,9 +52008,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15">
       <c r="A106" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="4">
@@ -51886,7 +52066,7 @@
         <v>16.075756521862097</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -51903,7 +52083,7 @@
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -51920,12 +52100,12 @@
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15">
       <c r="A109" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C109" s="3">
         <v>0.42</v>
@@ -51967,9 +52147,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15">
       <c r="A110" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" s="9">
@@ -52025,9 +52205,9 @@
         <v>1.3372997524243571E-3</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15">
       <c r="A111" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" s="9">
@@ -52083,7 +52263,7 @@
         <v>8.9153316828290471E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -52100,9 +52280,9 @@
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15">
       <c r="A113" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" s="4">
@@ -52158,9 +52338,9 @@
         <v>1029.9408000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15">
       <c r="A114" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" s="4">
@@ -52216,7 +52396,7 @@
         <v>1422.2992000000004</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -52233,9 +52413,9 @@
       <c r="N115" s="2"/>
       <c r="O115" s="2"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15">
       <c r="A116" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" s="4">
@@ -52291,9 +52471,9 @@
         <v>0.97359445852778914</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15">
       <c r="A117" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" s="4">
@@ -52349,9 +52529,9 @@
         <v>2.6405541472210858E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15">
       <c r="A118" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" s="4">
@@ -52407,9 +52587,9 @@
         <v>3.9608312208316288E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15">
       <c r="A119" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="4">
@@ -52465,9 +52645,9 @@
         <v>4.0794216762483044</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15">
       <c r="A120" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" s="4">
@@ -52523,9 +52703,9 @@
         <v>0.14502279974663373</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15">
       <c r="A122" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -52542,9 +52722,9 @@
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15">
       <c r="A123" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" s="4">
@@ -52600,9 +52780,9 @@
         <v>0.95631200782680115</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15">
       <c r="A124" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" s="4">
@@ -52658,9 +52838,9 @@
         <v>4.3687992173198853E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15">
       <c r="A125" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" s="4">
@@ -52716,9 +52896,9 @@
         <v>6.5531988259798276E-3</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15">
       <c r="A126" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" s="4">
@@ -52774,9 +52954,9 @@
         <v>6.7494068413887254</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15">
       <c r="A127" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" s="4">
@@ -52832,7 +53012,7 @@
         <v>0.23994035293440419</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -52849,9 +53029,9 @@
       <c r="N128" s="2"/>
       <c r="O128" s="2"/>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15">
       <c r="A129" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -52868,9 +53048,9 @@
       <c r="N129" s="2"/>
       <c r="O129" s="2"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15">
       <c r="A130" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" s="4">
@@ -52926,9 +53106,9 @@
         <v>1002.744655491678</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15">
       <c r="A131" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" s="4">
@@ -52984,9 +53164,9 @@
         <v>1422.2992000000004</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15">
       <c r="A132" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" s="4">
@@ -53042,9 +53222,9 @@
         <v>35.647414979692691</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15">
       <c r="A133" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" s="4">
@@ -53100,9 +53280,9 @@
         <v>50.562513128354162</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15">
       <c r="A134" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" s="4">
@@ -53158,12 +53338,12 @@
         <v>86.209928108046853</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15">
       <c r="A135" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C135" s="3">
         <f t="shared" ref="C135:O135" si="278">VS_kvæg_tot_omsat_lager</f>
@@ -53218,9 +53398,9 @@
         <v>0.50118257038654102</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15">
       <c r="A136" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" s="4">
@@ -53276,9 +53456,9 @@
         <v>17.86586306715807</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15">
       <c r="A137" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" s="4">
@@ -53334,9 +53514,9 @@
         <v>25.341050294871764</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15">
       <c r="A138" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" s="4">
@@ -53392,9 +53572,9 @@
         <v>2.6798794600737104</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15">
       <c r="A139" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" s="4">
@@ -53450,9 +53630,9 @@
         <v>3.8011575442307644</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15">
       <c r="A140" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" s="4">
@@ -53508,7 +53688,7 @@
         <v>2.6798794600737104</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -53525,9 +53705,9 @@
       <c r="N141" s="2"/>
       <c r="O141" s="2"/>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15">
       <c r="A142" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -53544,9 +53724,9 @@
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15">
       <c r="A143" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" s="4">
@@ -53602,9 +53782,9 @@
         <v>1002.744655491678</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15">
       <c r="A144" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" s="4">
@@ -53660,9 +53840,9 @@
         <v>1422.2992000000004</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15">
       <c r="A145" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" s="4">
@@ -53718,9 +53898,9 @@
         <v>35.647414979692691</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15">
       <c r="A146" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" s="4">
@@ -53776,9 +53956,9 @@
         <v>50.562513128354162</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15">
       <c r="A147" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" s="4">
@@ -53834,9 +54014,9 @@
         <v>4.4117355048985116</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15">
       <c r="A148" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" s="4">
@@ -53892,9 +54072,9 @@
         <v>86.209928108046853</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15">
       <c r="A149" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" s="4">
@@ -53950,12 +54130,12 @@
         <v>90.621663612945369</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15">
       <c r="A150" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B150" s="32" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C150" s="3">
         <v>0.62</v>
@@ -53997,9 +54177,9 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15">
       <c r="A151" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" s="3">
@@ -54042,9 +54222,9 @@
         <v>267</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15">
       <c r="A152" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" s="3">
@@ -54087,9 +54267,9 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15">
       <c r="A153" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" s="3">
@@ -54132,9 +54312,9 @@
         <v>0.71699999999999997</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15">
       <c r="A154" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" s="4">
@@ -54190,9 +54370,9 @@
         <v>0.191439</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15">
       <c r="A155" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" s="26">
@@ -54204,11 +54384,11 @@
         <v>16.503942427076382</v>
       </c>
       <c r="E155" s="26">
-        <f t="shared" ref="E155:F155" si="341">+E154*E148</f>
+        <f>+E154*E148</f>
         <v>16.503942427076382</v>
       </c>
       <c r="F155" s="26">
-        <f t="shared" si="341"/>
+        <f t="shared" ref="E155:F155" si="341">+F154*F148</f>
         <v>16.503942427076382</v>
       </c>
       <c r="G155" s="26">
@@ -54248,9 +54428,9 @@
         <v>16.503942427076382</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15">
       <c r="A156" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" s="26">
@@ -54262,11 +54442,11 @@
         <v>17.348520660398648</v>
       </c>
       <c r="E156" s="26">
-        <f t="shared" ref="E156:F156" si="344">+E154*E149</f>
+        <f>+E154*E149</f>
         <v>17.348520660398648</v>
       </c>
       <c r="F156" s="26">
-        <f t="shared" si="344"/>
+        <f t="shared" ref="E156:F156" si="344">+F154*F149</f>
         <v>17.348520660398648</v>
       </c>
       <c r="G156" s="26">
@@ -54306,9 +54486,9 @@
         <v>17.348520660398648</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15">
       <c r="A157" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" s="4">
@@ -54364,12 +54544,12 @@
         <v>34.43623217291924</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15">
       <c r="A158" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C158" s="3">
         <f t="shared" ref="C158:O158" si="351">+VS_tot_omsat_lager_afg</f>
@@ -54424,9 +54604,9 @@
         <v>0.13092377276210895</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15">
       <c r="A159" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" s="4">
@@ -54482,9 +54662,9 @@
         <v>4.5085214357905041</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15">
       <c r="A160" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" s="4">
@@ -54551,11 +54731,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T73"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
@@ -54564,69 +54744,69 @@
     <col min="8" max="19" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B1" s="1">
         <v>31.3</v>
       </c>
       <c r="C1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1">
         <v>81000</v>
       </c>
       <c r="E1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F1" s="1">
         <v>8.31</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B2" s="1">
         <v>0.45</v>
       </c>
       <c r="C2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D2" s="1">
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F2" s="1">
         <v>6.67</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B5" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C5" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E5" t="s">
+        <v>235</v>
+      </c>
+      <c r="G5" t="s">
         <v>231</v>
-      </c>
-      <c r="E5" t="s">
-        <v>232</v>
-      </c>
-      <c r="G5" t="s">
-        <v>228</v>
       </c>
       <c r="H5">
         <v>5</v>
@@ -54665,7 +54845,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20">
       <c r="A6">
         <v>1</v>
       </c>
@@ -54689,7 +54869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20">
       <c r="A7">
         <v>2</v>
       </c>
@@ -54728,7 +54908,7 @@
       <c r="S7" s="8"/>
       <c r="T7" s="8"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20">
       <c r="A8">
         <v>3</v>
       </c>
@@ -54770,7 +54950,7 @@
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20">
       <c r="A9">
         <v>4</v>
       </c>
@@ -54815,7 +54995,7 @@
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20">
       <c r="A10">
         <v>5</v>
       </c>
@@ -54863,7 +55043,7 @@
       <c r="S10" s="8"/>
       <c r="T10" s="8"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20">
       <c r="A11">
         <v>6</v>
       </c>
@@ -54914,7 +55094,7 @@
       <c r="S11" s="8"/>
       <c r="T11" s="8"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20">
       <c r="A12">
         <v>7</v>
       </c>
@@ -54968,7 +55148,7 @@
       <c r="S12" s="8"/>
       <c r="T12" s="8"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="A13">
         <v>8</v>
       </c>
@@ -55025,7 +55205,7 @@
       <c r="S13" s="8"/>
       <c r="T13" s="8"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20">
       <c r="A14">
         <v>9</v>
       </c>
@@ -55085,7 +55265,7 @@
       <c r="S14" s="8"/>
       <c r="T14" s="8"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20">
       <c r="A15">
         <v>10</v>
       </c>
@@ -55148,7 +55328,7 @@
       <c r="S15" s="8"/>
       <c r="T15" s="8"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20">
       <c r="A16">
         <v>11</v>
       </c>
@@ -55214,7 +55394,7 @@
       <c r="S16" s="8"/>
       <c r="T16" s="8"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20">
       <c r="A17">
         <v>12</v>
       </c>
@@ -55283,7 +55463,7 @@
       </c>
       <c r="T17" s="8"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20">
       <c r="D18" s="7"/>
       <c r="E18" s="11"/>
       <c r="G18">
@@ -55339,9 +55519,9 @@
       </c>
       <c r="T18" s="8"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20">
       <c r="G19" s="12" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="H19" s="13">
         <f>1-MIN((H6:H18))</f>
@@ -55396,9 +55576,9 @@
         <v>0.66286302531667807</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20">
       <c r="G20" s="14" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H20" s="15">
         <f t="shared" ref="H20:S20" si="9">+H19/VS_tot_CH4</f>
@@ -55453,7 +55633,7 @@
         <v>9.937976391554397E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20">
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
@@ -55468,9 +55648,9 @@
       <c r="S21" s="8"/>
       <c r="T21" s="8"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B22" s="1">
         <v>31.2</v>
@@ -55489,7 +55669,7 @@
       <c r="S22" s="8"/>
       <c r="T22" s="8"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20">
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
@@ -55504,29 +55684,29 @@
       <c r="S23" s="8"/>
       <c r="T23" s="8"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B25" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C25" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D25" t="s">
+        <v>234</v>
+      </c>
+      <c r="E25" t="s">
+        <v>235</v>
+      </c>
+      <c r="G25" t="s">
         <v>231</v>
-      </c>
-      <c r="E25" t="s">
-        <v>232</v>
-      </c>
-      <c r="G25" t="s">
-        <v>228</v>
       </c>
       <c r="H25">
         <v>5</v>
@@ -55565,7 +55745,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20">
       <c r="A26">
         <v>1</v>
       </c>
@@ -55589,7 +55769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20">
       <c r="A27">
         <v>2</v>
       </c>
@@ -55628,7 +55808,7 @@
       <c r="S27" s="8"/>
       <c r="T27" s="8"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20">
       <c r="A28">
         <v>3</v>
       </c>
@@ -55670,7 +55850,7 @@
       <c r="S28" s="8"/>
       <c r="T28" s="8"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20">
       <c r="A29">
         <v>4</v>
       </c>
@@ -55712,7 +55892,7 @@
       <c r="S29" s="8"/>
       <c r="T29" s="8"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20">
       <c r="A30">
         <v>5</v>
       </c>
@@ -55754,7 +55934,7 @@
       <c r="S30" s="8"/>
       <c r="T30" s="8"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20">
       <c r="A31">
         <v>6</v>
       </c>
@@ -55796,7 +55976,7 @@
       <c r="S31" s="8"/>
       <c r="T31" s="8"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20">
       <c r="A32">
         <v>7</v>
       </c>
@@ -55838,7 +56018,7 @@
       <c r="S32" s="8"/>
       <c r="T32" s="8"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20">
       <c r="A33">
         <v>8</v>
       </c>
@@ -55880,7 +56060,7 @@
       <c r="S33" s="8"/>
       <c r="T33" s="8"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20">
       <c r="A34">
         <v>9</v>
       </c>
@@ -55925,7 +56105,7 @@
       <c r="S34" s="8"/>
       <c r="T34" s="8"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20">
       <c r="A35">
         <v>10</v>
       </c>
@@ -55973,7 +56153,7 @@
       <c r="S35" s="8"/>
       <c r="T35" s="8"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20">
       <c r="A36">
         <v>11</v>
       </c>
@@ -56024,7 +56204,7 @@
       <c r="S36" s="8"/>
       <c r="T36" s="8"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20">
       <c r="A37">
         <v>12</v>
       </c>
@@ -56078,7 +56258,7 @@
       </c>
       <c r="T37" s="8"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20">
       <c r="D38" s="7"/>
       <c r="E38" s="11"/>
       <c r="G38">
@@ -56119,13 +56299,13 @@
       </c>
       <c r="T38" s="8"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20">
       <c r="C39">
         <f>AVERAGE(C26:C37)</f>
         <v>12.506333333333336</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="H39" s="13">
         <f>1-MIN((H26:H38))</f>
@@ -56180,9 +56360,9 @@
         <v>0.50118257038654102</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20">
       <c r="G40" s="14" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H40" s="15">
         <f t="shared" ref="H40:S40" si="14">+H39/VS_tot_CH4</f>
@@ -56237,7 +56417,7 @@
         <v>7.5139815650156067E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20">
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
@@ -56252,9 +56432,9 @@
       <c r="S41" s="8"/>
       <c r="T41" s="8"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20">
       <c r="A42" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
@@ -56270,45 +56450,45 @@
       <c r="S42" s="8"/>
       <c r="T42" s="8"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20">
       <c r="A43" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B43" s="1">
         <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D43" s="1">
         <v>27.9</v>
       </c>
       <c r="E43" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F43" s="1">
         <f>+CH4_CH4_CO2__afg/16*12/CH4_VS</f>
         <v>16.666666666666668</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20">
       <c r="A45" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B45" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C45" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D45" t="s">
+        <v>234</v>
+      </c>
+      <c r="E45" t="s">
+        <v>235</v>
+      </c>
+      <c r="G45" t="s">
         <v>231</v>
-      </c>
-      <c r="E45" t="s">
-        <v>232</v>
-      </c>
-      <c r="G45" t="s">
-        <v>228</v>
       </c>
       <c r="H45">
         <v>5</v>
@@ -56347,7 +56527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20">
       <c r="A46">
         <v>1</v>
       </c>
@@ -56372,7 +56552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20">
       <c r="A47">
         <v>2</v>
       </c>
@@ -56412,7 +56592,7 @@
       <c r="S47" s="8"/>
       <c r="T47" s="8"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20">
       <c r="A48">
         <v>3</v>
       </c>
@@ -56455,7 +56635,7 @@
       <c r="S48" s="8"/>
       <c r="T48" s="8"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20">
       <c r="A49">
         <v>4</v>
       </c>
@@ -56501,7 +56681,7 @@
       <c r="S49" s="8"/>
       <c r="T49" s="8"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20">
       <c r="A50">
         <v>5</v>
       </c>
@@ -56550,7 +56730,7 @@
       <c r="S50" s="8"/>
       <c r="T50" s="8"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20">
       <c r="A51">
         <v>6</v>
       </c>
@@ -56602,7 +56782,7 @@
       <c r="S51" s="8"/>
       <c r="T51" s="8"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20">
       <c r="A52">
         <v>7</v>
       </c>
@@ -56657,7 +56837,7 @@
       <c r="S52" s="8"/>
       <c r="T52" s="8"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20">
       <c r="A53">
         <v>8</v>
       </c>
@@ -56715,7 +56895,7 @@
       <c r="S53" s="8"/>
       <c r="T53" s="8"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20">
       <c r="A54">
         <v>9</v>
       </c>
@@ -56776,7 +56956,7 @@
       <c r="S54" s="8"/>
       <c r="T54" s="8"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20">
       <c r="A55">
         <v>10</v>
       </c>
@@ -56840,7 +57020,7 @@
       <c r="S55" s="8"/>
       <c r="T55" s="8"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20">
       <c r="A56">
         <v>11</v>
       </c>
@@ -56907,7 +57087,7 @@
       <c r="S56" s="8"/>
       <c r="T56" s="8"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20">
       <c r="A57">
         <v>12</v>
       </c>
@@ -56977,7 +57157,7 @@
       </c>
       <c r="T57" s="8"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20">
       <c r="G58">
         <v>4</v>
       </c>
@@ -57031,13 +57211,13 @@
       </c>
       <c r="T58" s="8"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20">
       <c r="C59">
         <f>AVERAGE(C46:C57)</f>
         <v>12.883333333333333</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="H59" s="13">
         <f>1-MIN(H46:H58)</f>
@@ -57092,9 +57272,9 @@
         <v>0.13092377276210895</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20">
       <c r="G60" s="14" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="H60" s="15">
         <f t="shared" ref="H60:S60" si="25">+H59/VS_tot_CH4_afg</f>
@@ -57149,21 +57329,21 @@
         <v>7.8554263657265398E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20">
       <c r="B62" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C62" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D62" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E62" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20">
       <c r="B63">
         <v>20</v>
       </c>
@@ -57178,7 +57358,7 @@
       <c r="E63" s="18"/>
       <c r="F63" s="18"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20">
       <c r="B64">
         <v>19</v>
       </c>
@@ -57199,7 +57379,7 @@
         <v>0.89243262190165817</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:6">
       <c r="B65">
         <v>18</v>
       </c>
@@ -57220,7 +57400,7 @@
         <v>0.79581362997415384</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:6">
       <c r="B66">
         <v>17</v>
       </c>
@@ -57241,7 +57421,7 @@
         <v>0.70909479562041511</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:6">
       <c r="B67">
         <v>16</v>
       </c>
@@ -57262,7 +57442,7 @@
         <v>0.63132160627041745</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:6">
       <c r="B68">
         <v>15</v>
       </c>
@@ -57283,7 +57463,7 @@
         <v>0.56162551488817802</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:6">
       <c r="B69">
         <v>14</v>
       </c>
@@ -57304,7 +57484,7 @@
         <v>0.49921677497651307</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:6">
       <c r="B70">
         <v>13</v>
       </c>
@@ -57325,7 +57505,7 @@
         <v>0.44337782139089132</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:6">
       <c r="B71">
         <v>12</v>
       </c>
@@ -57346,7 +57526,7 @@
         <v>0.3934571596229392</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:6">
       <c r="B72">
         <v>11</v>
       </c>
@@ -57367,7 +57547,7 @@
         <v>0.3488637284477093</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:6">
       <c r="B73">
         <v>10</v>
       </c>
@@ -57395,26 +57575,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="51017e06-3185-4484-8ddc-2b23098c8f10" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0cd6032e-4b27-47f4-bb02-403eeb79ffb0">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100010BCB8FDA3789478577C31581FA3B2F" ma:contentTypeVersion="12" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="f292e6a414670b17f73bfa0928db04e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0cd6032e-4b27-47f4-bb02-403eeb79ffb0" xmlns:ns3="51017e06-3185-4484-8ddc-2b23098c8f10" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="31239af3d6d5239002168564422d4159" ns2:_="" ns3:_="">
     <xsd:import namespace="0cd6032e-4b27-47f4-bb02-403eeb79ffb0"/>
@@ -57619,40 +57779,34 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="51017e06-3185-4484-8ddc-2b23098c8f10" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0cd6032e-4b27-47f4-bb02-403eeb79ffb0">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B591A28-77E8-4B69-8E3E-D2C48B98FB73}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0004E541-2E4D-4AE8-8084-A57750819319}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE2544F1-D550-4ABD-8DC3-837C3181A044}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="51017e06-3185-4484-8ddc-2b23098c8f10"/>
-    <ds:schemaRef ds:uri="0cd6032e-4b27-47f4-bb02-403eeb79ffb0"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE2544F1-D550-4ABD-8DC3-837C3181A044}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0004E541-2E4D-4AE8-8084-A57750819319}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="0cd6032e-4b27-47f4-bb02-403eeb79ffb0"/>
-    <ds:schemaRef ds:uri="51017e06-3185-4484-8ddc-2b23098c8f10"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B591A28-77E8-4B69-8E3E-D2C48B98FB73}"/>
 </file>